--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_371.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_371.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33013-d609549-Reviews-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>77</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Holiday-Inn-Express-Hotel-Suites-San-Dimas.h1647513.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_371.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_371.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="359">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,991 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r588170835-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>33013</t>
+  </si>
+  <si>
+    <t>609549</t>
+  </si>
+  <si>
+    <t>588170835</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>A bit older but very nice</t>
+  </si>
+  <si>
+    <t>The location is good with lots of eating options nearby.  My room was well-appointed, well-maintained and - as was the case with all of the other first- and second-floor rooms - opened to an interior courtyard that was nicely maintained.  One nice little touch that I don't often encounter was that the pillow cases were labelled for firmness. The hotel staff was quite accommodating and the breakfast was pretty typical for a Holiday Inn Express. One needs to be a bit thoughtful the first time leaving or entering the parking lot since West Arrow Highway has a center median divider preventing left turns from the front driveway entrance...solved easily enough by leaving the parking lot from the side driveways onto S. Eucla Ave.MoreShow less</t>
+  </si>
+  <si>
+    <t>The location is good with lots of eating options nearby.  My room was well-appointed, well-maintained and - as was the case with all of the other first- and second-floor rooms - opened to an interior courtyard that was nicely maintained.  One nice little touch that I don't often encounter was that the pillow cases were labelled for firmness. The hotel staff was quite accommodating and the breakfast was pretty typical for a Holiday Inn Express. One needs to be a bit thoughtful the first time leaving or entering the parking lot since West Arrow Highway has a center median divider preventing left turns from the front driveway entrance...solved easily enough by leaving the parking lot from the side driveways onto S. Eucla Ave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r558296884-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>558296884</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>good location but getting a bit tired</t>
+  </si>
+  <si>
+    <t>Location close to old San Dimas was nice. Also close to shopping centers.Beds were comfortable, but sleep was interrupted second night by the TV turning on spontaneously at 6 AM.  I got up and turned the TV off, but it turned itself back on 10 minutes later. Finally, I unplugged it from the wall. (I didn't even know that TVs had alarm function.)No "Do not disturb" sign was available in my son's room, so (conscientious) housekeeping awakened him several times through the morning.  Little thing, but hotels primary function is to allow good sleep.Aside from sleep, the rooms were nice. Fridge, microwave, coffee maker.  Sitting area with couch and lounge chair. Noisy during day of check in. Loud function in dining area. Leaf blower blasting in courtyard. (why don't gardeners ever use brooms?)Breakfast was usual HI Express affair: free and fast hot food.  Coffee is weak, so bring your own if you like it strong. My wife wasn't impressed with the breakfast, spoiled from last stay at Embassy Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express San Dimas, responded to this reviewResponded February 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2018</t>
+  </si>
+  <si>
+    <t>Location close to old San Dimas was nice. Also close to shopping centers.Beds were comfortable, but sleep was interrupted second night by the TV turning on spontaneously at 6 AM.  I got up and turned the TV off, but it turned itself back on 10 minutes later. Finally, I unplugged it from the wall. (I didn't even know that TVs had alarm function.)No "Do not disturb" sign was available in my son's room, so (conscientious) housekeeping awakened him several times through the morning.  Little thing, but hotels primary function is to allow good sleep.Aside from sleep, the rooms were nice. Fridge, microwave, coffee maker.  Sitting area with couch and lounge chair. Noisy during day of check in. Loud function in dining area. Leaf blower blasting in courtyard. (why don't gardeners ever use brooms?)Breakfast was usual HI Express affair: free and fast hot food.  Coffee is weak, so bring your own if you like it strong. My wife wasn't impressed with the breakfast, spoiled from last stay at Embassy Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r524516903-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>524516903</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>We stayed here due to my husband's work.  This is conveniently located and close to many restaurants near by and within 5 miles.  Hotel is a good Holiday Inn Express level.  When I left the hotel, I must have left my night guard in the bathroom.  When I called the hotel, the front desk immediately told me they have the item.  When I ask them to mailed it to me and I will pay for the postage.  After checking with her manager, the front desk lady told me that they will mail it to me free of charge!!!  WOW! what a service!!!  Also, the front desk persons were very friendly.  Every time was walk by the front desk, they would greet us with smile.  The only negative thing is that you need to drive into the hotel parking lot from the side street instead of the Arrow HWY, even with the GPS, we missed the hotel and had to make a u-turn and find the side street to get into the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>We stayed here due to my husband's work.  This is conveniently located and close to many restaurants near by and within 5 miles.  Hotel is a good Holiday Inn Express level.  When I left the hotel, I must have left my night guard in the bathroom.  When I called the hotel, the front desk immediately told me they have the item.  When I ask them to mailed it to me and I will pay for the postage.  After checking with her manager, the front desk lady told me that they will mail it to me free of charge!!!  WOW! what a service!!!  Also, the front desk persons were very friendly.  Every time was walk by the front desk, they would greet us with smile.  The only negative thing is that you need to drive into the hotel parking lot from the side street instead of the Arrow HWY, even with the GPS, we missed the hotel and had to make a u-turn and find the side street to get into the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r509773890-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>509773890</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>This hotel doesn't look like much from the outside but it's clean and the staff is friendly. The rooms although a little dated are very clean. I honestly didn't know San Dimas was such a great little city with lots of history. We stayed one night passing through on the way to the Metallica concert in Pasadena. The price was very affordable and restaurants are within walking distance.  The parking was free and breakfast was in the morning. I would recommend this to anyone passing through the area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r503673103-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>503673103</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Property is nice not bad.</t>
+  </si>
+  <si>
+    <t>If you look outside, it's not that pleasing, but very nice inside the room. I really appreciate Lisa called me to verify the room that I like and checked me in over the phone. Receptionist was nice and helpful. Recommended for stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express San Dimas, responded to this reviewResponded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>If you look outside, it's not that pleasing, but very nice inside the room. I really appreciate Lisa called me to verify the room that I like and checked me in over the phone. Receptionist was nice and helpful. Recommended for stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r482768748-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>482768748</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booked this for me being here for business.  Rooms are well equipped and clean.  Service is friendly and helpful.  Internet through WiFi is terrible for a hotel of this class. Hotel has a outside pool and terrace.  A lot of good restaurants nearby. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r449667423-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>449667423</t>
+  </si>
+  <si>
+    <t>01/05/2017</t>
+  </si>
+  <si>
+    <t>Great hotel, Very Clean</t>
+  </si>
+  <si>
+    <t>I am usually very picky about outside facing doors, and wont stay at a hotel unless the room doors are on the interior.  The doors on this hotel face an inner courtyard, but it still felt very safe, as there were keyed entry gates to enter the courtyard from outside the hotel. The breakfast servers were AMAZING especially Mabelline (spelling?)  even on Christmas eve they were very kind and helpful. The front desk staff was wonderful too, all in all a great experience! No platinum upgrade offered , but I was able to use my platinum status for a 2pm late check out.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r448407154-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>448407154</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>OK only if you don't need in room wifi</t>
+  </si>
+  <si>
+    <t>This is my second stay at the hotel and I returned as it was very clean and convenient. But the room I got has absolutely no wifi.  The list of available networks is null. If I walk over to the hotel lobby which is only 4 doors down on the same ground floor, I have wifi. This makes the facility unacceptable to me, I won't be coming back.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express San Dimas, responded to this reviewResponded January 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2017</t>
+  </si>
+  <si>
+    <t>This is my second stay at the hotel and I returned as it was very clean and convenient. But the room I got has absolutely no wifi.  The list of available networks is null. If I walk over to the hotel lobby which is only 4 doors down on the same ground floor, I have wifi. This makes the facility unacceptable to me, I won't be coming back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r440441809-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>440441809</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t>Relaxing stay</t>
+  </si>
+  <si>
+    <t>We stayed for 4 nights as going to the drag races in Pomona.  Our stay was very comfortable after a long drive.  The staff were very friendly and obliging.  The rooms comfortable and well maintain except for our shower.  I know the shower heads have a water saving device but this one was stuck and couldn't be adjusted hence felt like the water was cutting into us when we showered.  The staff tried to fix it a couple of times but it appears the shower head will require replacing.  The breakfast was good, ran out of things a couple of times, didn't have to wait long before the trays were filled again.  Plenty of amenities when required.  Our room faced the pool. They had a laundry downstairs to freshen up clothing while travelling.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>We stayed for 4 nights as going to the drag races in Pomona.  Our stay was very comfortable after a long drive.  The staff were very friendly and obliging.  The rooms comfortable and well maintain except for our shower.  I know the shower heads have a water saving device but this one was stuck and couldn't be adjusted hence felt like the water was cutting into us when we showered.  The staff tried to fix it a couple of times but it appears the shower head will require replacing.  The breakfast was good, ran out of things a couple of times, didn't have to wait long before the trays were filled again.  Plenty of amenities when required.  Our room faced the pool. They had a laundry downstairs to freshen up clothing while travelling.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r400929274-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>400929274</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer service </t>
+  </si>
+  <si>
+    <t>Because of my many years of working in and owning my own  restaurant I definitely appreciate good service.  My room was immaculate!  The air conditioning unit didn't even have dust bunnies.  Lol  Nowadays people don't 2ke pride in their work but housekeeping here definitely do. I've told everyone who will listen to me about my experience here#.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r396534760-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>396534760</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Arrived and met by a really helpful receptionist very attentive Can't say it's a hotel as its more like mini appts around a small pool area Everything from inside the room to the outside of the car park was very cleanA five minute to bar/restaurants shops etcThe free breaky was standard express stuff  But a bagel coffee and fruit juice are enough Thanks if we are around San dimas I would stay again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r382354564-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>382354564</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>Dont park in the back</t>
+  </si>
+  <si>
+    <t>Half of the rooms outlets didn't work, I am on oxygen so I need them; had to unplug clock. Had to park in the back, car was broken into, and trashed. was told I would have to wait 2 hours to see manager Had to leave.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express San Dimas, responded to this reviewResponded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Half of the rooms outlets didn't work, I am on oxygen so I need them; had to unplug clock. Had to park in the back, car was broken into, and trashed. was told I would have to wait 2 hours to see manager Had to leave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r375126294-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>375126294</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>Would stay there again</t>
+  </si>
+  <si>
+    <t>Not brand new, but not run down either.  They do an excellent job of keeping the courtyard up. Probably a better than average HIE facility.They refused to honor the price on the reservation until we showed them the print-out.  No laundry or exercise room.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express San Dimas, responded to this reviewResponded June 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2016</t>
+  </si>
+  <si>
+    <t>Not brand new, but not run down either.  They do an excellent job of keeping the courtyard up. Probably a better than average HIE facility.They refused to honor the price on the reservation until we showed them the print-out.  No laundry or exercise room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r370005356-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>370005356</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>Good choice for San Dimas</t>
+  </si>
+  <si>
+    <t>This was an attractive hotel, much nicer than the usual somewhat sterile buildings that house most hotels.  Rooms were relatively spacious, beds and pillows were comfortable, TV and internet worked well.  Bedroom and bathroom were clean.Breakfast room was very small, which meant having to wait for a table, not a good experience when you haven't a lot of time.  At least USA Today was available to pass the time while waiting.  The breakfast itself was only OK, but typical for this sort of hotel.I would stay here again.Parking was barely adequate - I got the last spot.  So I don't know what you do when the lot is full.The chair for the desk was miserable, very low and unable to raise it.  I tried to swap it out but other chairs were no better.The area has plenty of strip malls, including numerous options for food and shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This was an attractive hotel, much nicer than the usual somewhat sterile buildings that house most hotels.  Rooms were relatively spacious, beds and pillows were comfortable, TV and internet worked well.  Bedroom and bathroom were clean.Breakfast room was very small, which meant having to wait for a table, not a good experience when you haven't a lot of time.  At least USA Today was available to pass the time while waiting.  The breakfast itself was only OK, but typical for this sort of hotel.I would stay here again.Parking was barely adequate - I got the last spot.  So I don't know what you do when the lot is full.The chair for the desk was miserable, very low and unable to raise it.  I tried to swap it out but other chairs were no better.The area has plenty of strip malls, including numerous options for food and shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r363383447-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>363383447</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Nita and Ben were awesome!</t>
+  </si>
+  <si>
+    <t>The staff in this hotel were very nice ... very accommodating.There is a unique courtyard area in the center of the building.I was here 3 years ago and it seems upgraded since then.There was a nice breakfast area.The room was well appointed ... plenty of outlets ... towels ... hot water.The lighting was good and there was a fridge and micro.The room was pretty clean ... not spotless but, good.I would stay here again!: -)</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r339404828-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>339404828</t>
+  </si>
+  <si>
+    <t>01/12/2016</t>
+  </si>
+  <si>
+    <t>trip to the Rose Bowl</t>
+  </si>
+  <si>
+    <t>The staff was excellent at this hotel. My kids and I stayed here to attend the Rose Bowl. At check the lady was very kind and accommodating. The breakfast hostess was wonderful, very concerned if everything was alright. Lastly, I had left some papers in the desk in my room, I called after getting on the road. I believe the front desk gentlemen's name was Samuel he was very helpful, told me he would check for my things and send them in the mail. Yesterday I did receive my papers in the mail, I am very impressed at the kindness we received at this hotel. If I return to California I would make a point to stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was excellent at this hotel. My kids and I stayed here to attend the Rose Bowl. At check the lady was very kind and accommodating. The breakfast hostess was wonderful, very concerned if everything was alright. Lastly, I had left some papers in the desk in my room, I called after getting on the road. I believe the front desk gentlemen's name was Samuel he was very helpful, told me he would check for my things and send them in the mail. Yesterday I did receive my papers in the mail, I am very impressed at the kindness we received at this hotel. If I return to California I would make a point to stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r329830931-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>329830931</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Comfortable stay, good WiFi would have made it perfect</t>
+  </si>
+  <si>
+    <t>This is a newer property in very good condition. I like to stay here since they have suites --  two full beds in a room separated by the bathroom,  sofa bed and additional TV in the next room. It provides just enough privacy for two parents traveling with an older child who doesn't really like sharing a room with them. The extra cost is well worth it.  The complimentary breakfast was not anything to write home about but at least the coffee was decent. The poor WiFi reception was very disappointing, it was sporadic to the point of being unusable. I wanted to mention that the manager who was there before and after Thanksgiving was extremely friendly and welcoming. He also did not hassle me about the fact that I was 30 minutes late checking out.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>This is a newer property in very good condition. I like to stay here since they have suites --  two full beds in a room separated by the bathroom,  sofa bed and additional TV in the next room. It provides just enough privacy for two parents traveling with an older child who doesn't really like sharing a room with them. The extra cost is well worth it.  The complimentary breakfast was not anything to write home about but at least the coffee was decent. The poor WiFi reception was very disappointing, it was sporadic to the point of being unusable. I wanted to mention that the manager who was there before and after Thanksgiving was extremely friendly and welcoming. He also did not hassle me about the fact that I was 30 minutes late checking out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r293023132-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>293023132</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>A clean and well run hotel in San Dimas</t>
+  </si>
+  <si>
+    <t>We stayed here for a wedding happening in town.  The hotel was recommended by family members who are actually professional hotel managers in the Southern California region.  We were not disappointed.  The room was clean, passing my "hair test" with no hair found in the room.  The room and bathroom were also large..definitely not NY City size.  The vanity and sink were in the main room, not inside the bathroom itself, so perhaps an advantage if two people are trying to get ready for the day and they are in a hurry, but a disadvantage with regard to privacy. Even though the guests next door had small, loud children, we were only aware of this when we would open the door in the morning.  So, a well-insulated hotel design with regard to noise.    Most of the rooms look out to center courtyard that contains a clean looking pool and hot tub, although we did not try either.   Wi Fi was free and speedy enough.  I tried going to their business center to print out some boarding passes, but neither of the two printers they had there seemed to be functioning.  I didn't ask for help though because the front desk was busy checking folks in.  The complimentary breakfast was popular and good.  It was more than just continental, but strictly "serve yourself"  They had several customized machines associated with serving breakfast that I have never seen before, and appeared to...We stayed here for a wedding happening in town.  The hotel was recommended by family members who are actually professional hotel managers in the Southern California region.  We were not disappointed.  The room was clean, passing my "hair test" with no hair found in the room.  The room and bathroom were also large..definitely not NY City size.  The vanity and sink were in the main room, not inside the bathroom itself, so perhaps an advantage if two people are trying to get ready for the day and they are in a hurry, but a disadvantage with regard to privacy. Even though the guests next door had small, loud children, we were only aware of this when we would open the door in the morning.  So, a well-insulated hotel design with regard to noise.    Most of the rooms look out to center courtyard that contains a clean looking pool and hot tub, although we did not try either.   Wi Fi was free and speedy enough.  I tried going to their business center to print out some boarding passes, but neither of the two printers they had there seemed to be functioning.  I didn't ask for help though because the front desk was busy checking folks in.  The complimentary breakfast was popular and good.  It was more than just continental, but strictly "serve yourself"  They had several customized machines associated with serving breakfast that I have never seen before, and appeared to be part of a Holiday Inn branded breakfast experience.  One machine, for instance, served fresh pancakes to your plate in just a minute or two...pretty neat!    This hotel is perfect for getting a good night's sleep and then getting things done the next day.  It is not a destination on its own...just a good functioning place to rest.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for a wedding happening in town.  The hotel was recommended by family members who are actually professional hotel managers in the Southern California region.  We were not disappointed.  The room was clean, passing my "hair test" with no hair found in the room.  The room and bathroom were also large..definitely not NY City size.  The vanity and sink were in the main room, not inside the bathroom itself, so perhaps an advantage if two people are trying to get ready for the day and they are in a hurry, but a disadvantage with regard to privacy. Even though the guests next door had small, loud children, we were only aware of this when we would open the door in the morning.  So, a well-insulated hotel design with regard to noise.    Most of the rooms look out to center courtyard that contains a clean looking pool and hot tub, although we did not try either.   Wi Fi was free and speedy enough.  I tried going to their business center to print out some boarding passes, but neither of the two printers they had there seemed to be functioning.  I didn't ask for help though because the front desk was busy checking folks in.  The complimentary breakfast was popular and good.  It was more than just continental, but strictly "serve yourself"  They had several customized machines associated with serving breakfast that I have never seen before, and appeared to...We stayed here for a wedding happening in town.  The hotel was recommended by family members who are actually professional hotel managers in the Southern California region.  We were not disappointed.  The room was clean, passing my "hair test" with no hair found in the room.  The room and bathroom were also large..definitely not NY City size.  The vanity and sink were in the main room, not inside the bathroom itself, so perhaps an advantage if two people are trying to get ready for the day and they are in a hurry, but a disadvantage with regard to privacy. Even though the guests next door had small, loud children, we were only aware of this when we would open the door in the morning.  So, a well-insulated hotel design with regard to noise.    Most of the rooms look out to center courtyard that contains a clean looking pool and hot tub, although we did not try either.   Wi Fi was free and speedy enough.  I tried going to their business center to print out some boarding passes, but neither of the two printers they had there seemed to be functioning.  I didn't ask for help though because the front desk was busy checking folks in.  The complimentary breakfast was popular and good.  It was more than just continental, but strictly "serve yourself"  They had several customized machines associated with serving breakfast that I have never seen before, and appeared to be part of a Holiday Inn branded breakfast experience.  One machine, for instance, served fresh pancakes to your plate in just a minute or two...pretty neat!    This hotel is perfect for getting a good night's sleep and then getting things done the next day.  It is not a destination on its own...just a good functioning place to rest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r277092638-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>277092638</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>Super nice, not cheap!</t>
+  </si>
+  <si>
+    <t>This is a very nice Hotel, but really expensive. I stayed in the middle category of rooms, $160/night. Couldn't get much of a bargain even though I stayed a month. Very nice, roomy rooms. My room had the bedroom separate, included a micro and min fridge at a wet bar. Wifi is embarrassing, they need to change this. CONSTANTLY having to login, OR, can't get the login page to come up. Good speed when you have it working.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r253898736-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>253898736</t>
+  </si>
+  <si>
+    <t>02/12/2015</t>
+  </si>
+  <si>
+    <t>Great stay, friendly staff</t>
+  </si>
+  <si>
+    <t>Check  in and breakfast with Vanessa were very nice and my room was spacious and very clean. Housekeeping was great and very freindly (can't remember the ladies name that came back to finish my room on Sat. she is a great person to have on your staff.) Samuel at the desk was always helpful and the breakfast was always well stocked. Thank you to everyone and I hope to be back.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r249927410-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>249927410</t>
+  </si>
+  <si>
+    <t>01/18/2015</t>
+  </si>
+  <si>
+    <t>sleep, eat and go</t>
+  </si>
+  <si>
+    <t>We especially like the location of the hotel. It is in an area where you could dine and get a drink. Our room was on the second floor with a large window facing the pool facing the pool area. It was clean, nothing really special except a sofa sleeper, microwave and a fridge in the room. They have complimentary continental breakfast. I was impressed by their tea selection. There are enough options for an early morning eat. Parking and internet were also included in the room price. I would recommend it to families with one or two kids. Everything including service was very standard. The lady served breakfast was kind.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express San Dimas, responded to this reviewResponded February 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2015</t>
+  </si>
+  <si>
+    <t>We especially like the location of the hotel. It is in an area where you could dine and get a drink. Our room was on the second floor with a large window facing the pool facing the pool area. It was clean, nothing really special except a sofa sleeper, microwave and a fridge in the room. They have complimentary continental breakfast. I was impressed by their tea selection. There are enough options for an early morning eat. Parking and internet were also included in the room price. I would recommend it to families with one or two kids. Everything including service was very standard. The lady served breakfast was kind.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r220763367-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>220763367</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>Decent hotel, front desk staff not too helpful</t>
+  </si>
+  <si>
+    <t>We just stayed here and the hotel is typical for a holiday inn express and it had pretty easy access to highways.  The front desk staff at check-in was not very helpfull and almost a little rude. I have since been back in to front desk and other employes have been a little more helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express San Dimas, responded to this reviewResponded August 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2014</t>
+  </si>
+  <si>
+    <t>We just stayed here and the hotel is typical for a holiday inn express and it had pretty easy access to highways.  The front desk staff at check-in was not very helpfull and almost a little rude. I have since been back in to front desk and other employes have been a little more helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r206247371-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>206247371</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>Pleasant Accomodations, Nice Area</t>
+  </si>
+  <si>
+    <t>I spent one night and was pleased with my stay and I would again stay at this property. Security of the room was questionable upon my arrival. 
+Lots of positives:
+- Room was large, comfortable, very clean, carpets clean (no spots). 
+- Small (3 floors)
+- The lobby and rooms were fresh, no stale or strange odors. 
+- Doorways are facing inside the property and entry is secured from all gates (but not from the lobby entrance). 
+- They have a nice pool area with pleasing landscaping surrounding the pool area. 
+- Customer service was good. 
+- WIthin walking distance of local eateries. 
+- The surrounding area is very nice, safe, and easy to access gas, food, groceries, etc. 
+- Near the highway wtihout being next to the highway
+- Complimentary breakfast - the staff kept the food stocked during the morning. 
+Some minuses
+Parking is limited, and sometimes guests will need to park on the street. Fortuantely, the hotel was not full and after having left the hotel to return around midnight, I was able to park on the property. 
+When I arrived/check in to my room, the front door to my room was fully open and the room entirely dark. I did enter the room and complete a check (bathroom, closet, etc) to ensure no one was inside the room. Maybe not the wisest deciion I made, fortunately all was good. The front desk said maintenance was in...I spent one night and was pleased with my stay and I would again stay at this property. Security of the room was questionable upon my arrival. Lots of positives:- Room was large, comfortable, very clean, carpets clean (no spots). - Small (3 floors)- The lobby and rooms were fresh, no stale or strange odors. - Doorways are facing inside the property and entry is secured from all gates (but not from the lobby entrance). - They have a nice pool area with pleasing landscaping surrounding the pool area. - Customer service was good. - WIthin walking distance of local eateries. - The surrounding area is very nice, safe, and easy to access gas, food, groceries, etc. - Near the highway wtihout being next to the highway- Complimentary breakfast - the staff kept the food stocked during the morning. Some minusesParking is limited, and sometimes guests will need to park on the street. Fortuantely, the hotel was not full and after having left the hotel to return around midnight, I was able to park on the property. When I arrived/check in to my room, the front door to my room was fully open and the room entirely dark. I did enter the room and complete a check (bathroom, closet, etc) to ensure no one was inside the room. Maybe not the wisest deciion I made, fortunately all was good. The front desk said maintenance was in the room, checking carpet stains, and must have left the door wide open prior to my arrival. The complimentary breakfasts are not my favorite at hotels. Other than fruit, no other true whole food options (without chemicals and perservatives).MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I spent one night and was pleased with my stay and I would again stay at this property. Security of the room was questionable upon my arrival. 
+Lots of positives:
+- Room was large, comfortable, very clean, carpets clean (no spots). 
+- Small (3 floors)
+- The lobby and rooms were fresh, no stale or strange odors. 
+- Doorways are facing inside the property and entry is secured from all gates (but not from the lobby entrance). 
+- They have a nice pool area with pleasing landscaping surrounding the pool area. 
+- Customer service was good. 
+- WIthin walking distance of local eateries. 
+- The surrounding area is very nice, safe, and easy to access gas, food, groceries, etc. 
+- Near the highway wtihout being next to the highway
+- Complimentary breakfast - the staff kept the food stocked during the morning. 
+Some minuses
+Parking is limited, and sometimes guests will need to park on the street. Fortuantely, the hotel was not full and after having left the hotel to return around midnight, I was able to park on the property. 
+When I arrived/check in to my room, the front door to my room was fully open and the room entirely dark. I did enter the room and complete a check (bathroom, closet, etc) to ensure no one was inside the room. Maybe not the wisest deciion I made, fortunately all was good. The front desk said maintenance was in...I spent one night and was pleased with my stay and I would again stay at this property. Security of the room was questionable upon my arrival. Lots of positives:- Room was large, comfortable, very clean, carpets clean (no spots). - Small (3 floors)- The lobby and rooms were fresh, no stale or strange odors. - Doorways are facing inside the property and entry is secured from all gates (but not from the lobby entrance). - They have a nice pool area with pleasing landscaping surrounding the pool area. - Customer service was good. - WIthin walking distance of local eateries. - The surrounding area is very nice, safe, and easy to access gas, food, groceries, etc. - Near the highway wtihout being next to the highway- Complimentary breakfast - the staff kept the food stocked during the morning. Some minusesParking is limited, and sometimes guests will need to park on the street. Fortuantely, the hotel was not full and after having left the hotel to return around midnight, I was able to park on the property. When I arrived/check in to my room, the front door to my room was fully open and the room entirely dark. I did enter the room and complete a check (bathroom, closet, etc) to ensure no one was inside the room. Maybe not the wisest deciion I made, fortunately all was good. The front desk said maintenance was in the room, checking carpet stains, and must have left the door wide open prior to my arrival. The complimentary breakfasts are not my favorite at hotels. Other than fruit, no other true whole food options (without chemicals and perservatives).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r199648779-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>199648779</t>
+  </si>
+  <si>
+    <t>04/02/2014</t>
+  </si>
+  <si>
+    <t>Their staff is the real star</t>
+  </si>
+  <si>
+    <t>I just spent three nights at this hotel while visiting a nearby university with my son.  There really aren't many hotels in the vicinity, so I was a bit apprehensive about what we might find.  I have to say I was pleasantly surprised. Every single one of the staff we met was very personable and "real".  They were interested in what we were doing, had great advice and responded very quickly to all of our requests and questions.  Whether it was where to grab a great pizza, or how to avoid the craziest of LA traffic.  No question, the staff made our stay.  Give them all a raise!!
+One to the nuts and bolts..... If you've stayed at a HIE previously,the style of the hotel is pretty standard. Nice outdoor pool and hot tub in the courtyard at this one, though.  All of the room doors face into this courtyard, so access is only through either the lobby or a locked gate from the parking area which requires your room key for access.  Beautiful flowers, lush grass, and a pretty walkway in the courtyard. Breakfast was standard, but more than adequate.  Hard boiled eggs, yogurt, granola, cereal, bagels, juice (passionfruit!), even an automatic pancake maker - yummy!  Plenty of free parking and the town of San Dimas was clean and safe.  
+Room was  bigger than I thought it would be.  Two double beds, a sleeper sofa, desk, armchair, microwave, mini...I just spent three nights at this hotel while visiting a nearby university with my son.  There really aren't many hotels in the vicinity, so I was a bit apprehensive about what we might find.  I have to say I was pleasantly surprised. Every single one of the staff we met was very personable and "real".  They were interested in what we were doing, had great advice and responded very quickly to all of our requests and questions.  Whether it was where to grab a great pizza, or how to avoid the craziest of LA traffic.  No question, the staff made our stay.  Give them all a raise!!One to the nuts and bolts..... If you've stayed at a HIE previously,the style of the hotel is pretty standard. Nice outdoor pool and hot tub in the courtyard at this one, though.  All of the room doors face into this courtyard, so access is only through either the lobby or a locked gate from the parking area which requires your room key for access.  Beautiful flowers, lush grass, and a pretty walkway in the courtyard. Breakfast was standard, but more than adequate.  Hard boiled eggs, yogurt, granola, cereal, bagels, juice (passionfruit!), even an automatic pancake maker - yummy!  Plenty of free parking and the town of San Dimas was clean and safe.  Room was  bigger than I thought it would be.  Two double beds, a sleeper sofa, desk, armchair, microwave, mini fridge, wet bar type sink.  Nice wide vanity area so all three of us had room for our toiletries.  Super clean bathroom!The only items I would offer the management as areas for improvement would be the following:  the tiles running around the top edge of the pool and hot tub could use a good cleaning.  Carpeting in the room seemed to need a cleaning even though the rest of the room was spotless.  The A/C in the room is really noisy.....hard to hear the TV when the AC is running, plus it seems to shut down and not want to restart.Overall, I would give this hotel a big thumbs up.  Price was good for California standards as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>I just spent three nights at this hotel while visiting a nearby university with my son.  There really aren't many hotels in the vicinity, so I was a bit apprehensive about what we might find.  I have to say I was pleasantly surprised. Every single one of the staff we met was very personable and "real".  They were interested in what we were doing, had great advice and responded very quickly to all of our requests and questions.  Whether it was where to grab a great pizza, or how to avoid the craziest of LA traffic.  No question, the staff made our stay.  Give them all a raise!!
+One to the nuts and bolts..... If you've stayed at a HIE previously,the style of the hotel is pretty standard. Nice outdoor pool and hot tub in the courtyard at this one, though.  All of the room doors face into this courtyard, so access is only through either the lobby or a locked gate from the parking area which requires your room key for access.  Beautiful flowers, lush grass, and a pretty walkway in the courtyard. Breakfast was standard, but more than adequate.  Hard boiled eggs, yogurt, granola, cereal, bagels, juice (passionfruit!), even an automatic pancake maker - yummy!  Plenty of free parking and the town of San Dimas was clean and safe.  
+Room was  bigger than I thought it would be.  Two double beds, a sleeper sofa, desk, armchair, microwave, mini...I just spent three nights at this hotel while visiting a nearby university with my son.  There really aren't many hotels in the vicinity, so I was a bit apprehensive about what we might find.  I have to say I was pleasantly surprised. Every single one of the staff we met was very personable and "real".  They were interested in what we were doing, had great advice and responded very quickly to all of our requests and questions.  Whether it was where to grab a great pizza, or how to avoid the craziest of LA traffic.  No question, the staff made our stay.  Give them all a raise!!One to the nuts and bolts..... If you've stayed at a HIE previously,the style of the hotel is pretty standard. Nice outdoor pool and hot tub in the courtyard at this one, though.  All of the room doors face into this courtyard, so access is only through either the lobby or a locked gate from the parking area which requires your room key for access.  Beautiful flowers, lush grass, and a pretty walkway in the courtyard. Breakfast was standard, but more than adequate.  Hard boiled eggs, yogurt, granola, cereal, bagels, juice (passionfruit!), even an automatic pancake maker - yummy!  Plenty of free parking and the town of San Dimas was clean and safe.  Room was  bigger than I thought it would be.  Two double beds, a sleeper sofa, desk, armchair, microwave, mini fridge, wet bar type sink.  Nice wide vanity area so all three of us had room for our toiletries.  Super clean bathroom!The only items I would offer the management as areas for improvement would be the following:  the tiles running around the top edge of the pool and hot tub could use a good cleaning.  Carpeting in the room seemed to need a cleaning even though the rest of the room was spotless.  The A/C in the room is really noisy.....hard to hear the TV when the AC is running, plus it seems to shut down and not want to restart.Overall, I would give this hotel a big thumbs up.  Price was good for California standards as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r189896269-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>189896269</t>
+  </si>
+  <si>
+    <t>01/06/2014</t>
+  </si>
+  <si>
+    <t>Great location!  Nice surprise!</t>
+  </si>
+  <si>
+    <t>We stayed here over New Year's to attend Rose Bowl parade.  We were pleasantly surprised.  I had selected this hotel based on reviews from TA.   Room was larger than expected with many conveniences such as microwave, small fridge.  The complimentary breakfast was great although they could probably use more help as food items, including coffee, we're not always available.  I know they were busy.   They did get the items out but it took some time.  Overall a great place to stay and great accessibility to restaurants and shopping and freeways.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r189407424-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>189407424</t>
+  </si>
+  <si>
+    <t>01/02/2014</t>
+  </si>
+  <si>
+    <t>Made to feel very welcomed</t>
+  </si>
+  <si>
+    <t>We appreciated the size of the room and location.  Furthermore, the front desk staff were outstanding and extremely helpful.  We will make this location a destination for all future visits to the area and events.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r179814781-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>179814781</t>
+  </si>
+  <si>
+    <t>10/05/2013</t>
+  </si>
+  <si>
+    <t>Good hotel but it didn't knock my socks off</t>
+  </si>
+  <si>
+    <t>Let me start by saying there is nothing wrong with this hotel.  The room is clean and pretty comfortable. The staff is very friendly and helpful. But there's nothing here that made me think, I have to stay here each time I'm in this area. The property looks like it was an older hotel that has been updated. The lobby and outdoor pool and hot tub area look nice. The rooms are decent, but show some signs of the building's original age plus wear-and-tear since it's last remodel. The "soft" pillows were as lumpy as grandma's homemade oatmeal. There was a bit of mold and poor caulking around the tub/shower. In general, the hotel rooms is just not quite there, and I don't think is quite up to Holiday Inn Express standards, let alone higher standards.The breakfast area was clean and the assortment of food was really good, as it usually is at Holiday Inn Express hotels. There's not much here for the health-conscious eater, but otherwise it is fine. Overall, my experiencing here was fine, but I expected a bit more.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express San Dimas, responded to this reviewResponded October 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2013</t>
+  </si>
+  <si>
+    <t>Let me start by saying there is nothing wrong with this hotel.  The room is clean and pretty comfortable. The staff is very friendly and helpful. But there's nothing here that made me think, I have to stay here each time I'm in this area. The property looks like it was an older hotel that has been updated. The lobby and outdoor pool and hot tub area look nice. The rooms are decent, but show some signs of the building's original age plus wear-and-tear since it's last remodel. The "soft" pillows were as lumpy as grandma's homemade oatmeal. There was a bit of mold and poor caulking around the tub/shower. In general, the hotel rooms is just not quite there, and I don't think is quite up to Holiday Inn Express standards, let alone higher standards.The breakfast area was clean and the assortment of food was really good, as it usually is at Holiday Inn Express hotels. There's not much here for the health-conscious eater, but otherwise it is fine. Overall, my experiencing here was fine, but I expected a bit more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r166241122-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>166241122</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>exceeded expectations</t>
+  </si>
+  <si>
+    <t>This place offers free parking, free wifi and a fantastic breakfast which will leave you full until dinner. The place is clean, tidy and quiet and the staff are very friendly.I was really impressed with this place and the location. There are restaurants within walking distance.If the car park fills up they provide you with a ticket to allow you to park on the road so you don't get a council parking ticket.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r164936163-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>164936163</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>Great Location and Very Well Kept</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel to attend our grandson's graduation in Pomona.  It was very close to the freeway and had a lot of restuarants within walking distance (Denny's, Applebee's and Red Robin, in addition to others), also, several stores within walkind distance and a GREAT Cost Plus across the street.The hotel was clean, friendly and offered a complimentary full breakfast with the price of the room. Our room had a refrigerator, microwave and coffee maker.  Everything worked great, including the air conditioner. The window could be cracked a little to let fresh air in. This is always a plus. The drapes kept out the sunlight and we slept in longer than we had in years.  The room was good size with a sofa and coffee table and comfortable bed.  There was a wonderful pool and also a spa.  It was quiet for the most part.  There was a large after wedding party but we were on the ground floor and didn't hear anything.We loved the full breakfast and especially enjoyed the pancake machine.  We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel to attend our grandson's graduation in Pomona.  It was very close to the freeway and had a lot of restuarants within walking distance (Denny's, Applebee's and Red Robin, in addition to others), also, several stores within walkind distance and a GREAT Cost Plus across the street.The hotel was clean, friendly and offered a complimentary full breakfast with the price of the room. Our room had a refrigerator, microwave and coffee maker.  Everything worked great, including the air conditioner. The window could be cracked a little to let fresh air in. This is always a plus. The drapes kept out the sunlight and we slept in longer than we had in years.  The room was good size with a sofa and coffee table and comfortable bed.  There was a wonderful pool and also a spa.  It was quiet for the most part.  There was a large after wedding party but we were on the ground floor and didn't hear anything.We loved the full breakfast and especially enjoyed the pancake machine.  We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r158795092-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>158795092</t>
+  </si>
+  <si>
+    <t>04/25/2013</t>
+  </si>
+  <si>
+    <t>Best In The Area</t>
+  </si>
+  <si>
+    <t>The Good:Quiet, clean, and choices of restaurants.Large rooms, comfortable beds and very clean bathroom.Walking distance to a small plaza right next to the hotel. There is a 24hour Denny's within 5 min walking distance as well. Lots of parking spots available. The Bad:None.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r148116929-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>148116929</t>
+  </si>
+  <si>
+    <t>12/26/2012</t>
+  </si>
+  <si>
+    <t>Naked man and cigarette stink</t>
+  </si>
+  <si>
+    <t>Horrible experience. Somehow they screwed up our reservation and gave us an already occupied room. Walked in on a gross, hairy guy in bed*. When we went to the front desk to get a new room the gal didn't seem too concerned. The 2nd room they gave us reeks of cig smoke. Waiting on a 3rd room... *this is why you should always use the "chain" on the door to avoid surprises. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express San Dimas, responded to this reviewResponded January 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2013</t>
+  </si>
+  <si>
+    <t>Horrible experience. Somehow they screwed up our reservation and gave us an already occupied room. Walked in on a gross, hairy guy in bed*. When we went to the front desk to get a new room the gal didn't seem too concerned. The 2nd room they gave us reeks of cig smoke. Waiting on a 3rd room... *this is why you should always use the "chain" on the door to avoid surprises. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r146532428-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>146532428</t>
+  </si>
+  <si>
+    <t>11/30/2012</t>
+  </si>
+  <si>
+    <t>Quite and Close</t>
+  </si>
+  <si>
+    <t>Very pleasant hotel close to the town and nearby transportation routes.  Breakfast was typical and staff was friendlier than most assisting me with directions, suggestions on where to eat, and where to walk for exercise.  Pool and hot tub were clean.  Room was well maintained, clean, and I liked the little extra sink/kitchen corner. Would easily recommend.  paid $109 on gov't rate.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r146238361-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>146238361</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>A must stay while in San Dimas!</t>
+  </si>
+  <si>
+    <t>What a wonderful hotel. We came up from San Diego and booked 2 rooms while visiting family. The service was great from the moment we entered. Sam at the front desk was very helpful and nice. Both rooms were beautiful, large and exceptionally clean. The granite countertops and large flat screen TV were the icing on the cake. There was even a microwave and small frig in the room. Wow. We will definitely be staying here again in the future.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r142992970-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>142992970</t>
+  </si>
+  <si>
+    <t>10/16/2012</t>
+  </si>
+  <si>
+    <t>Safe and comfortable room in a pleasent hotel!</t>
+  </si>
+  <si>
+    <t>This Holiday Inn has an interesting layout - all the rooms seem to face the courtyard and pool area, but it was very quiet during my stay.  Front desk was friendly and efficient during check in and check out. I had a suite and it was pretty clean.. pretty clean property all around.  Lots of places to eat in the local area. It seemed pretty safe. I guess my one con against this property is they just didnt seem to "go the extra step" to make my stay that extra pleasent.  Coffee needed replacing in the dining area when I checked in; could have used a few more towels, etc.. just that little extra I have noticed in other hotels that put them into the "excellent" catagory.  But I stay in a lot of hotels, so maybe I'm just a little extra picky? I would definately stay here again and would recommend it for business travelers..MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>This Holiday Inn has an interesting layout - all the rooms seem to face the courtyard and pool area, but it was very quiet during my stay.  Front desk was friendly and efficient during check in and check out. I had a suite and it was pretty clean.. pretty clean property all around.  Lots of places to eat in the local area. It seemed pretty safe. I guess my one con against this property is they just didnt seem to "go the extra step" to make my stay that extra pleasent.  Coffee needed replacing in the dining area when I checked in; could have used a few more towels, etc.. just that little extra I have noticed in other hotels that put them into the "excellent" catagory.  But I stay in a lot of hotels, so maybe I'm just a little extra picky? I would definately stay here again and would recommend it for business travelers..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r137507256-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>137507256</t>
+  </si>
+  <si>
+    <t>08/17/2012</t>
+  </si>
+  <si>
+    <t>What a week!</t>
+  </si>
+  <si>
+    <t>I recently spent a week here while on business. The room I had was very large and comfortable - very clean too. The staff was friendly, all of them. This hotel is situated in a very nice, safe area. Plenty of good restaurants  within walking distance. I liked the style of the hotel with a gated courtyard that had a large pool and very nice hot tub. The breakfast was included in the price of the room. It was buffet style and varied from day to day with a great selection of food to choose from. Staying at this Holiday Inn was a nice surprise, I thoroughly enjoyed it.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r131671366-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>131671366</t>
+  </si>
+  <si>
+    <t>06/10/2012</t>
+  </si>
+  <si>
+    <t>Mostly Good...</t>
+  </si>
+  <si>
+    <t>First, I am not a fan of hotels where the room access is to the exterior.  I like the "security" of interior hallways.  So this is strike against this property.  I also don't like the smell of disinfectants as the cleaning agent.  Another strike against this hotel.Moving beyond that, the room was comfortable and the staff was friendly.  The breakfast person was very pleasant.  I like that.  Who needs a grump the first thing in the morning.  Breakfast started promptly at 6:00 am.  I like that as well.  I don't like the 6:30 am breakfast many properties offer.Check out was efficient and pleasant.I liked the location, right off the 57 with several eating options within walking distance.I did not get a Platinum upgrade.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2012</t>
+  </si>
+  <si>
+    <t>First, I am not a fan of hotels where the room access is to the exterior.  I like the "security" of interior hallways.  So this is strike against this property.  I also don't like the smell of disinfectants as the cleaning agent.  Another strike against this hotel.Moving beyond that, the room was comfortable and the staff was friendly.  The breakfast person was very pleasant.  I like that.  Who needs a grump the first thing in the morning.  Breakfast started promptly at 6:00 am.  I like that as well.  I don't like the 6:30 am breakfast many properties offer.Check out was efficient and pleasant.I liked the location, right off the 57 with several eating options within walking distance.I did not get a Platinum upgrade.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r129526664-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>129526664</t>
+  </si>
+  <si>
+    <t>05/07/2012</t>
+  </si>
+  <si>
+    <t>Dark Room, No Wireless</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights last week for business.  Stayed in a king single on the third (top) floor.  Got a higher floor room hoping for a bit of a view, but the room only had one window, opening on the balcony.  Long and narrow, it was pretty dark.  However, it was tomb-like quiet and I slept like a rock.  Also, because I was in a corner room, I couldn't get a consistent wireless signal.  No problem for me, however, because there was an ethernet cable on the desk, and the connection on it was smoking fast (for me, being from the sticks, at least--25mb/sec).  Others may be annoyed, however, so if you want wireless ask for a room near the router.
+Other than that, the place was good.  The exercise room is totally unmarked and hard to find (in the far corner from the lobby on the first floor), but is well maintained and has a range of equipment.  Breakfast was well stocked with good service.  (Example; they had no decaf out, but the gal brewed me some as soon as I asked.  The next two mornings, they had decaf out for me from the get-go).  Had some cleaning done, and they got it back to me the same day.  Housekeeping kept the room in top shape.  Overall, great service--would get a top rating except for the wireless.
+Lots of good restaurants in walking distance.  I recommend Top Thai...Stayed here for three nights last week for business.  Stayed in a king single on the third (top) floor.  Got a higher floor room hoping for a bit of a view, but the room only had one window, opening on the balcony.  Long and narrow, it was pretty dark.  However, it was tomb-like quiet and I slept like a rock.  Also, because I was in a corner room, I couldn't get a consistent wireless signal.  No problem for me, however, because there was an ethernet cable on the desk, and the connection on it was smoking fast (for me, being from the sticks, at least--25mb/sec).  Others may be annoyed, however, so if you want wireless ask for a room near the router.Other than that, the place was good.  The exercise room is totally unmarked and hard to find (in the far corner from the lobby on the first floor), but is well maintained and has a range of equipment.  Breakfast was well stocked with good service.  (Example; they had no decaf out, but the gal brewed me some as soon as I asked.  The next two mornings, they had decaf out for me from the get-go).  Had some cleaning done, and they got it back to me the same day.  Housekeeping kept the room in top shape.  Overall, great service--would get a top rating except for the wireless.Lots of good restaurants in walking distance.  I recommend Top Thai over on Bonita, just on the other side of the tracks.,MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights last week for business.  Stayed in a king single on the third (top) floor.  Got a higher floor room hoping for a bit of a view, but the room only had one window, opening on the balcony.  Long and narrow, it was pretty dark.  However, it was tomb-like quiet and I slept like a rock.  Also, because I was in a corner room, I couldn't get a consistent wireless signal.  No problem for me, however, because there was an ethernet cable on the desk, and the connection on it was smoking fast (for me, being from the sticks, at least--25mb/sec).  Others may be annoyed, however, so if you want wireless ask for a room near the router.
+Other than that, the place was good.  The exercise room is totally unmarked and hard to find (in the far corner from the lobby on the first floor), but is well maintained and has a range of equipment.  Breakfast was well stocked with good service.  (Example; they had no decaf out, but the gal brewed me some as soon as I asked.  The next two mornings, they had decaf out for me from the get-go).  Had some cleaning done, and they got it back to me the same day.  Housekeeping kept the room in top shape.  Overall, great service--would get a top rating except for the wireless.
+Lots of good restaurants in walking distance.  I recommend Top Thai...Stayed here for three nights last week for business.  Stayed in a king single on the third (top) floor.  Got a higher floor room hoping for a bit of a view, but the room only had one window, opening on the balcony.  Long and narrow, it was pretty dark.  However, it was tomb-like quiet and I slept like a rock.  Also, because I was in a corner room, I couldn't get a consistent wireless signal.  No problem for me, however, because there was an ethernet cable on the desk, and the connection on it was smoking fast (for me, being from the sticks, at least--25mb/sec).  Others may be annoyed, however, so if you want wireless ask for a room near the router.Other than that, the place was good.  The exercise room is totally unmarked and hard to find (in the far corner from the lobby on the first floor), but is well maintained and has a range of equipment.  Breakfast was well stocked with good service.  (Example; they had no decaf out, but the gal brewed me some as soon as I asked.  The next two mornings, they had decaf out for me from the get-go).  Had some cleaning done, and they got it back to me the same day.  Housekeeping kept the room in top shape.  Overall, great service--would get a top rating except for the wireless.Lots of good restaurants in walking distance.  I recommend Top Thai over on Bonita, just on the other side of the tracks.,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r128357431-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>128357431</t>
+  </si>
+  <si>
+    <t>04/22/2012</t>
+  </si>
+  <si>
+    <t>Comfortable and Convenient Stay</t>
+  </si>
+  <si>
+    <t>We stayed at this Holiday Inn Express from 4/12/12 to 4/16/12.  Business has brought me to the area five times since last summer and I usually stay at a Comfort Inn.  Reading the reviews on TripAdvisor and the rate we were able to get (Government) really closed the deal for us.
+I checked in to the hotel at 5 pm on Thursday.  The lobby was large, open and bright.  The young lady at the front desk quickly checked me in without incident and informed me about breakfast hours and free Wifi.  When I arrived there were only a handful of cars in the parking lot.  The rooms were build facing into a courtyard that contained a pool, hot tub and a grassy area.  The pool and hot tub were fenced-in and there were several patio chairs and lounge chairs.  
+Our room, 129, was on the first floor about mid-way down the corridor.  The "suite" had a separate living area with sofa, coffee table, end table, high back wicker chair and a desk with chair.  On the other side of a half wall was the TV console, flat screen Philips tv with DirectTV, king-size bed and a settee used as a luggage rack.  The granite "kitchenette" was made up of a small fridge, bar sink, shelves, microwave and single-serve coffee maker.  The closet was behind a full-length mirrored door and the bathroom counter and shower were also granite.  Free amenities included...We stayed at this Holiday Inn Express from 4/12/12 to 4/16/12.  Business has brought me to the area five times since last summer and I usually stay at a Comfort Inn.  Reading the reviews on TripAdvisor and the rate we were able to get (Government) really closed the deal for us.I checked in to the hotel at 5 pm on Thursday.  The lobby was large, open and bright.  The young lady at the front desk quickly checked me in without incident and informed me about breakfast hours and free Wifi.  When I arrived there were only a handful of cars in the parking lot.  The rooms were build facing into a courtyard that contained a pool, hot tub and a grassy area.  The pool and hot tub were fenced-in and there were several patio chairs and lounge chairs.  Our room, 129, was on the first floor about mid-way down the corridor.  The "suite" had a separate living area with sofa, coffee table, end table, high back wicker chair and a desk with chair.  On the other side of a half wall was the TV console, flat screen Philips tv with DirectTV, king-size bed and a settee used as a luggage rack.  The granite "kitchenette" was made up of a small fridge, bar sink, shelves, microwave and single-serve coffee maker.  The closet was behind a full-length mirrored door and the bathroom counter and shower were also granite.  Free amenities included coffee, tea, shampoo, conditioner, body lotion and toothpaste (available in the lobby).  The bed had two types of pillows, firm and soft, identifiable by the words embroidered on the pillow case.  There was no traditional bedspread like in other hotels, but a small throw was at the foot of the bed and a duvet was sandwiched between two flat sheets.  There was an extra, large blanket in the closet but we never used it.  Each night stand had a lamp and one had an alarm clock, with the phone being on the other.  There was also a hairdryer, iron and board and about 8 wooden hangers.  The bed was really comfortable and clean.  I thought the bathroom was a little dim, but the shower more than made up for it.  A heads up, the bathroom light switch has a motion detector, so if you're in the shower for too long without making much movement the lights will turn off on you.  This almost started WWIII between my partner and I.  The maid gave us new towels and fresh soap everyday but we never used the lotion or the shampoo.The first night we had no neighbors as the front desk was smart enough to space us out.  The following night our upstairs neighbors were quite loud and you could easily hear foot traffic above our room.  Luckily they were only there one night.  That was the only noisy incident that I could remember.For some reason the hotel seemed much busier during the week than on the weekend.  Thursday night and Friday night the parking lots were almost full, but then on the weekend it was just about 6 or so cars.  Very rarely would I see someone else in the corridor but I did see one guest take advantage of the lounge chairs and hot tub.Also available in the hotel is a guest laundry.  The hotel provides a laundry detergent and fabric softener vending machine, but when I went to use it it was out of soap.  I called the front desk and the lady told me they usually keep some up front.  On this occasion they were out up there too and she gave me a refund.  I was about to go to a local laundromat on East Arrow, about 3 miles away, and buy some powder and fabric sheets.  I see a lot of people complaining about the breakfast, but we liked most of what they served and were grateful that it was a full breakfast bar, not continental breakfast.  On weekdays, the breakfast opens at 6:30am, and on the weekend it opens at 7am, something to note.  Friday morning we were the first ones in the breakfast area and got fresh fruit, coffee, yogurt and cinnamon buns.  The coffee cups had lids so my partner was able to take his to work, but I brought my own reusable cup from home and filled it up.  I noticed there were also eggs, sausage, waffles, cold cereals, hot cereals, pastries, tea, milk and various fruit juices.  This was one of the most complete breakfast bars I have seen, especially in this price range.  If the breakfast bar was not up to your taste Starbucks and Panera were close by as well as IHOP.We very much enjoyed staying in this hotel and we even extended our stay by one day.  The a/c worked well, the black-out curtains very much appreciated and we were able to get some fresh air by opening the window.  The area contains several chain restaurants, a Target, Lowes, and Trader Joe's.  We bought some beverages and kept them in the fridge along with some snacks for late night munching.  San Dimas seemed like a very quiet and settled community and we would love to stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this Holiday Inn Express from 4/12/12 to 4/16/12.  Business has brought me to the area five times since last summer and I usually stay at a Comfort Inn.  Reading the reviews on TripAdvisor and the rate we were able to get (Government) really closed the deal for us.
+I checked in to the hotel at 5 pm on Thursday.  The lobby was large, open and bright.  The young lady at the front desk quickly checked me in without incident and informed me about breakfast hours and free Wifi.  When I arrived there were only a handful of cars in the parking lot.  The rooms were build facing into a courtyard that contained a pool, hot tub and a grassy area.  The pool and hot tub were fenced-in and there were several patio chairs and lounge chairs.  
+Our room, 129, was on the first floor about mid-way down the corridor.  The "suite" had a separate living area with sofa, coffee table, end table, high back wicker chair and a desk with chair.  On the other side of a half wall was the TV console, flat screen Philips tv with DirectTV, king-size bed and a settee used as a luggage rack.  The granite "kitchenette" was made up of a small fridge, bar sink, shelves, microwave and single-serve coffee maker.  The closet was behind a full-length mirrored door and the bathroom counter and shower were also granite.  Free amenities included...We stayed at this Holiday Inn Express from 4/12/12 to 4/16/12.  Business has brought me to the area five times since last summer and I usually stay at a Comfort Inn.  Reading the reviews on TripAdvisor and the rate we were able to get (Government) really closed the deal for us.I checked in to the hotel at 5 pm on Thursday.  The lobby was large, open and bright.  The young lady at the front desk quickly checked me in without incident and informed me about breakfast hours and free Wifi.  When I arrived there were only a handful of cars in the parking lot.  The rooms were build facing into a courtyard that contained a pool, hot tub and a grassy area.  The pool and hot tub were fenced-in and there were several patio chairs and lounge chairs.  Our room, 129, was on the first floor about mid-way down the corridor.  The "suite" had a separate living area with sofa, coffee table, end table, high back wicker chair and a desk with chair.  On the other side of a half wall was the TV console, flat screen Philips tv with DirectTV, king-size bed and a settee used as a luggage rack.  The granite "kitchenette" was made up of a small fridge, bar sink, shelves, microwave and single-serve coffee maker.  The closet was behind a full-length mirrored door and the bathroom counter and shower were also granite.  Free amenities included coffee, tea, shampoo, conditioner, body lotion and toothpaste (available in the lobby).  The bed had two types of pillows, firm and soft, identifiable by the words embroidered on the pillow case.  There was no traditional bedspread like in other hotels, but a small throw was at the foot of the bed and a duvet was sandwiched between two flat sheets.  There was an extra, large blanket in the closet but we never used it.  Each night stand had a lamp and one had an alarm clock, with the phone being on the other.  There was also a hairdryer, iron and board and about 8 wooden hangers.  The bed was really comfortable and clean.  I thought the bathroom was a little dim, but the shower more than made up for it.  A heads up, the bathroom light switch has a motion detector, so if you're in the shower for too long without making much movement the lights will turn off on you.  This almost started WWIII between my partner and I.  The maid gave us new towels and fresh soap everyday but we never used the lotion or the shampoo.The first night we had no neighbors as the front desk was smart enough to space us out.  The following night our upstairs neighbors were quite loud and you could easily hear foot traffic above our room.  Luckily they were only there one night.  That was the only noisy incident that I could remember.For some reason the hotel seemed much busier during the week than on the weekend.  Thursday night and Friday night the parking lots were almost full, but then on the weekend it was just about 6 or so cars.  Very rarely would I see someone else in the corridor but I did see one guest take advantage of the lounge chairs and hot tub.Also available in the hotel is a guest laundry.  The hotel provides a laundry detergent and fabric softener vending machine, but when I went to use it it was out of soap.  I called the front desk and the lady told me they usually keep some up front.  On this occasion they were out up there too and she gave me a refund.  I was about to go to a local laundromat on East Arrow, about 3 miles away, and buy some powder and fabric sheets.  I see a lot of people complaining about the breakfast, but we liked most of what they served and were grateful that it was a full breakfast bar, not continental breakfast.  On weekdays, the breakfast opens at 6:30am, and on the weekend it opens at 7am, something to note.  Friday morning we were the first ones in the breakfast area and got fresh fruit, coffee, yogurt and cinnamon buns.  The coffee cups had lids so my partner was able to take his to work, but I brought my own reusable cup from home and filled it up.  I noticed there were also eggs, sausage, waffles, cold cereals, hot cereals, pastries, tea, milk and various fruit juices.  This was one of the most complete breakfast bars I have seen, especially in this price range.  If the breakfast bar was not up to your taste Starbucks and Panera were close by as well as IHOP.We very much enjoyed staying in this hotel and we even extended our stay by one day.  The a/c worked well, the black-out curtains very much appreciated and we were able to get some fresh air by opening the window.  The area contains several chain restaurants, a Target, Lowes, and Trader Joe's.  We bought some beverages and kept them in the fridge along with some snacks for late night munching.  San Dimas seemed like a very quiet and settled community and we would love to stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r124812091-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>124812091</t>
+  </si>
+  <si>
+    <t>02/19/2012</t>
+  </si>
+  <si>
+    <t>Great quality for the price</t>
+  </si>
+  <si>
+    <t>Every time I stay at a Holiday Inn I am reminded of the great quality you get for the price.  This hotel has quiet, clean, comfy rooms.  The rooms have lots of amenities like a mini-fridge, microwave oven, coffee maker, hairdryer, large bath towels, 2-layer shower curtains, shampoo, conditioner, and lotion.  The TV has a gazillion cable channels.  There is free Wifi in the rooms and two free Internet-connected computers in the lobby.  A free breakfast includes sausage, hard-boiled eggs, and pancakes.  The staff is friendly and efficient.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r122869712-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>122869712</t>
+  </si>
+  <si>
+    <t>01/10/2012</t>
+  </si>
+  <si>
+    <t>Good, but let us open the window</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel for 2 nights January 7th and 8th 2012. The bed was comfortable, the bathroom was nice, but needs more shelving in the shower. It had 2 little triangles for soap and shampoo but that was it. Nothing to hang the wash rag on. The TV was a flat screen and great with Direct TV. The room was clean but It was stuffy though overnight. It would have been nice if we could have opened the window even just a crack but not possible. The AC unit in the room was very noisy. How people sleep with that racket is beyond me. Good location with Red Robin, Appplebees, Starbucks and other restaurants. The front desk people were very nice. My husband said the breakfast was ok but don't eat the sausage, not good at all. Free internet was good, also the microwave and refrigerator. We may stay here again next time. Comfort Inn and Motel 6 were very nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel for 2 nights January 7th and 8th 2012. The bed was comfortable, the bathroom was nice, but needs more shelving in the shower. It had 2 little triangles for soap and shampoo but that was it. Nothing to hang the wash rag on. The TV was a flat screen and great with Direct TV. The room was clean but It was stuffy though overnight. It would have been nice if we could have opened the window even just a crack but not possible. The AC unit in the room was very noisy. How people sleep with that racket is beyond me. Good location with Red Robin, Appplebees, Starbucks and other restaurants. The front desk people were very nice. My husband said the breakfast was ok but don't eat the sausage, not good at all. Free internet was good, also the microwave and refrigerator. We may stay here again next time. Comfort Inn and Motel 6 were very nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r120005124-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>120005124</t>
+  </si>
+  <si>
+    <t>11/01/2011</t>
+  </si>
+  <si>
+    <t>New clean and convenient</t>
+  </si>
+  <si>
+    <t>Stayed at the Holiday Inn Express San Dimas for a couple of days for business. Pro's:*New rooms (so new I don't think that my room had ever been stayed in and the new smell was almost overwhelming)*Cleanliness -- no complaints*Size: large sitting area with couch and chair and desk, king bed, kitchenette w/ micro, refrig and sink, vanity area, and large bathroom.*Very friendly staff on all shifts*Extensive breakfast offerings*Easily accessible business center although limited with only two computers and printers*Location: Near many restaurants, shops and major highwaysCon's*Doors open on the outside pool courtyard lending to a motel feel*Traffic could be heard periodically in the rooms (loud vehicles such as motorcycles / trucks*Hallway foot traffic also loud *Price is a bit high in comparison with other hotels in the areaI would stay here again but as the other reviewer stated, the price is high for a Holiday Inn Express.Liked — Location, newnessDisliked — Doors that opened to the outsideMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Stayed at the Holiday Inn Express San Dimas for a couple of days for business. Pro's:*New rooms (so new I don't think that my room had ever been stayed in and the new smell was almost overwhelming)*Cleanliness -- no complaints*Size: large sitting area with couch and chair and desk, king bed, kitchenette w/ micro, refrig and sink, vanity area, and large bathroom.*Very friendly staff on all shifts*Extensive breakfast offerings*Easily accessible business center although limited with only two computers and printers*Location: Near many restaurants, shops and major highwaysCon's*Doors open on the outside pool courtyard lending to a motel feel*Traffic could be heard periodically in the rooms (loud vehicles such as motorcycles / trucks*Hallway foot traffic also loud *Price is a bit high in comparison with other hotels in the areaI would stay here again but as the other reviewer stated, the price is high for a Holiday Inn Express.Liked — Location, newnessDisliked — Doors that opened to the outsideMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r115796828-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>115796828</t>
+  </si>
+  <si>
+    <t>07/26/2011</t>
+  </si>
+  <si>
+    <t>No cinnamon rolls at breakfast!?</t>
+  </si>
+  <si>
+    <t>Nice HIEx property, usual chain restaurants close by. Standard HIEx room. Went down for breakfast this morning and there were no cinnamon rolls, HIEX's signature breakfast item. Breakfast room attendant had no explanation. Not a major deal, but I stay at HIEx's all the time and this is the first time this has happened.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r25401791-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>25401791</t>
+  </si>
+  <si>
+    <t>03/01/2009</t>
+  </si>
+  <si>
+    <t>Very luxurious rooms</t>
+  </si>
+  <si>
+    <t>I stayed one night on business.  It was far more luxurious than I expected.  The hotel is brand new.  The rooms are very large with sofa, chair and ottoman, desk, mission style furniture, very comfortable bedding, refrigerator, microwave, wetbar, granite, and big LCD TV.  Free wifi.  Pool and hot tub.  Free breakfast is the standard mini buffet, but with surprisingly good scrambled eggs vs. the typical hockey pucks.  If it's within your budget I would stay and enjoy.</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r22791279-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>22791279</t>
+  </si>
+  <si>
+    <t>12/16/2008</t>
+  </si>
+  <si>
+    <t>Stay here if you love hearing the bed banging against wall.</t>
+  </si>
+  <si>
+    <t>My girlfriend and I stayed one night at this Hotel, It's a new Hotel and as you would expect very clean. The desk clerk was very friendly and we found the room to be a very good size, clean and nice for the price. HOWEVER our room and my guess this entire hotel has been either designed poorly and or the contractor that built the Hotel cut some major corners. First problem we found was that you can hear thru the walls very easy. I know some hotels are like this however we felt that this place was pretty bad for new construction, I am pretty sure there was little to no insulation or sound proofing in the walls, but WAIT it gets much WORSE! The head board of the bed is fastened to the wall, but ONLY the top part of the head board is Fastened to the wall, the bottom of the head board floats against the bed and the wall, translation…….. boom, boom, boom ,boom, boooom, boooom, boooom, boooom, boooom,  boom, boom,  If you like to wake up your next door neighbor or if you like to get woken up by your next door neighbor by all means stay here. Believe me its load!!! However If I wanted to stay at a sex hotel I would of drove to HollywoodMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>My girlfriend and I stayed one night at this Hotel, It's a new Hotel and as you would expect very clean. The desk clerk was very friendly and we found the room to be a very good size, clean and nice for the price. HOWEVER our room and my guess this entire hotel has been either designed poorly and or the contractor that built the Hotel cut some major corners. First problem we found was that you can hear thru the walls very easy. I know some hotels are like this however we felt that this place was pretty bad for new construction, I am pretty sure there was little to no insulation or sound proofing in the walls, but WAIT it gets much WORSE! The head board of the bed is fastened to the wall, but ONLY the top part of the head board is Fastened to the wall, the bottom of the head board floats against the bed and the wall, translation…….. boom, boom, boom ,boom, boooom, boooom, boooom, boooom, boooom,  boom, boom,  If you like to wake up your next door neighbor or if you like to get woken up by your next door neighbor by all means stay here. Believe me its load!!! However If I wanted to stay at a sex hotel I would of drove to HollywoodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r22508501-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>22508501</t>
+  </si>
+  <si>
+    <t>12/06/2008</t>
+  </si>
+  <si>
+    <t>New, clean and convenient</t>
+  </si>
+  <si>
+    <t>Stayed at the Holiday Inn Express San Dimas for a couple of days for business.    Pro's:*New rooms  (so new I don't think that my room had ever been stayed in and the new smell was almost overwhelming)*Cleanliness -- no complaints*Size:  large sitting area with couch and chair and desk,   king bed,  kitchenette w/ micro,  refrig and sink,  vanity area,   and large bathroom.*Very friendly staff on all shifts*Extensive breakfast offerings*Easily accessible business center although limited with only two computers and printers*Location:  Near many restaurants, shops and major highwaysCon's*Doors open on the outside pool courtyard lending to a motel feel*Traffic could be heard periodically in the rooms (loud vehicles such as motorcycles / trucks*Hallway foot traffic also loud *Price is a bit high in comparison with other hotels in the areaI would stay here again but as the other reviewer stated,  the price is high for a Holiday Inn Express.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at the Holiday Inn Express San Dimas for a couple of days for business.    Pro's:*New rooms  (so new I don't think that my room had ever been stayed in and the new smell was almost overwhelming)*Cleanliness -- no complaints*Size:  large sitting area with couch and chair and desk,   king bed,  kitchenette w/ micro,  refrig and sink,  vanity area,   and large bathroom.*Very friendly staff on all shifts*Extensive breakfast offerings*Easily accessible business center although limited with only two computers and printers*Location:  Near many restaurants, shops and major highwaysCon's*Doors open on the outside pool courtyard lending to a motel feel*Traffic could be heard periodically in the rooms (loud vehicles such as motorcycles / trucks*Hallway foot traffic also loud *Price is a bit high in comparison with other hotels in the areaI would stay here again but as the other reviewer stated,  the price is high for a Holiday Inn Express.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1633,2907 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s">
+        <v>120</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>132</v>
+      </c>
+      <c r="X13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>141</v>
+      </c>
+      <c r="X14" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>149</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>168</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>175</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" t="s">
+        <v>180</v>
+      </c>
+      <c r="L20" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>182</v>
+      </c>
+      <c r="O20" t="s">
+        <v>149</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" t="s">
+        <v>185</v>
+      </c>
+      <c r="K21" t="s">
+        <v>186</v>
+      </c>
+      <c r="L21" t="s">
+        <v>187</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>188</v>
+      </c>
+      <c r="O21" t="s">
+        <v>120</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22" t="s">
+        <v>191</v>
+      </c>
+      <c r="K22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s">
+        <v>193</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>194</v>
+      </c>
+      <c r="O22" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>195</v>
+      </c>
+      <c r="X22" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J23" t="s">
+        <v>200</v>
+      </c>
+      <c r="K23" t="s">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s">
+        <v>202</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>203</v>
+      </c>
+      <c r="O23" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>204</v>
+      </c>
+      <c r="X23" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" t="s">
+        <v>210</v>
+      </c>
+      <c r="L24" t="s">
+        <v>211</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>212</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>215</v>
+      </c>
+      <c r="J25" t="s">
+        <v>216</v>
+      </c>
+      <c r="K25" t="s">
+        <v>217</v>
+      </c>
+      <c r="L25" t="s">
+        <v>218</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>219</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s">
+        <v>225</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>226</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>228</v>
+      </c>
+      <c r="J27" t="s">
+        <v>229</v>
+      </c>
+      <c r="K27" t="s">
+        <v>230</v>
+      </c>
+      <c r="L27" t="s">
+        <v>231</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>232</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>234</v>
+      </c>
+      <c r="J28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K28" t="s">
+        <v>236</v>
+      </c>
+      <c r="L28" t="s">
+        <v>237</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>239</v>
+      </c>
+      <c r="X28" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>243</v>
+      </c>
+      <c r="J29" t="s">
+        <v>244</v>
+      </c>
+      <c r="K29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L29" t="s">
+        <v>246</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>247</v>
+      </c>
+      <c r="O29" t="s">
+        <v>120</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>248</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>249</v>
+      </c>
+      <c r="J30" t="s">
+        <v>250</v>
+      </c>
+      <c r="K30" t="s">
+        <v>251</v>
+      </c>
+      <c r="L30" t="s">
+        <v>252</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>247</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>254</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>255</v>
+      </c>
+      <c r="J31" t="s">
+        <v>256</v>
+      </c>
+      <c r="K31" t="s">
+        <v>257</v>
+      </c>
+      <c r="L31" t="s">
+        <v>258</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>259</v>
+      </c>
+      <c r="O31" t="s">
+        <v>69</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>261</v>
+      </c>
+      <c r="J32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K32" t="s">
+        <v>263</v>
+      </c>
+      <c r="L32" t="s">
+        <v>264</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>265</v>
+      </c>
+      <c r="X32" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>268</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>269</v>
+      </c>
+      <c r="J33" t="s">
+        <v>270</v>
+      </c>
+      <c r="K33" t="s">
+        <v>271</v>
+      </c>
+      <c r="L33" t="s">
+        <v>272</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>273</v>
+      </c>
+      <c r="O33" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>275</v>
+      </c>
+      <c r="J34" t="s">
+        <v>276</v>
+      </c>
+      <c r="K34" t="s">
+        <v>277</v>
+      </c>
+      <c r="L34" t="s">
+        <v>278</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>279</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>280</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>281</v>
+      </c>
+      <c r="J35" t="s">
+        <v>282</v>
+      </c>
+      <c r="K35" t="s">
+        <v>283</v>
+      </c>
+      <c r="L35" t="s">
+        <v>284</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>285</v>
+      </c>
+      <c r="O35" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>287</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>288</v>
+      </c>
+      <c r="J36" t="s">
+        <v>289</v>
+      </c>
+      <c r="K36" t="s">
+        <v>290</v>
+      </c>
+      <c r="L36" t="s">
+        <v>291</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>292</v>
+      </c>
+      <c r="O36" t="s">
+        <v>69</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>293</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>294</v>
+      </c>
+      <c r="J37" t="s">
+        <v>295</v>
+      </c>
+      <c r="K37" t="s">
+        <v>296</v>
+      </c>
+      <c r="L37" t="s">
+        <v>297</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>298</v>
+      </c>
+      <c r="O37" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>299</v>
+      </c>
+      <c r="X37" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>302</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>303</v>
+      </c>
+      <c r="J38" t="s">
+        <v>304</v>
+      </c>
+      <c r="K38" t="s">
+        <v>305</v>
+      </c>
+      <c r="L38" t="s">
+        <v>306</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>307</v>
+      </c>
+      <c r="O38" t="s">
+        <v>69</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>310</v>
+      </c>
+      <c r="J39" t="s">
+        <v>311</v>
+      </c>
+      <c r="K39" t="s">
+        <v>312</v>
+      </c>
+      <c r="L39" t="s">
+        <v>313</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>307</v>
+      </c>
+      <c r="O39" t="s">
+        <v>69</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>315</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>316</v>
+      </c>
+      <c r="J40" t="s">
+        <v>317</v>
+      </c>
+      <c r="K40" t="s">
+        <v>318</v>
+      </c>
+      <c r="L40" t="s">
+        <v>319</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>320</v>
+      </c>
+      <c r="O40" t="s">
+        <v>149</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>321</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>322</v>
+      </c>
+      <c r="J41" t="s">
+        <v>323</v>
+      </c>
+      <c r="K41" t="s">
+        <v>324</v>
+      </c>
+      <c r="L41" t="s">
+        <v>325</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>326</v>
+      </c>
+      <c r="O41" t="s">
+        <v>76</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>328</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>329</v>
+      </c>
+      <c r="J42" t="s">
+        <v>330</v>
+      </c>
+      <c r="K42" t="s">
+        <v>331</v>
+      </c>
+      <c r="L42" t="s">
+        <v>332</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>333</v>
+      </c>
+      <c r="O42" t="s">
+        <v>69</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>335</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>336</v>
+      </c>
+      <c r="J43" t="s">
+        <v>337</v>
+      </c>
+      <c r="K43" t="s">
+        <v>338</v>
+      </c>
+      <c r="L43" t="s">
+        <v>339</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>340</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>341</v>
+      </c>
+      <c r="J44" t="s">
+        <v>342</v>
+      </c>
+      <c r="K44" t="s">
+        <v>343</v>
+      </c>
+      <c r="L44" t="s">
+        <v>344</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>345</v>
+      </c>
+      <c r="O44" t="s">
+        <v>69</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>346</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>347</v>
+      </c>
+      <c r="J45" t="s">
+        <v>348</v>
+      </c>
+      <c r="K45" t="s">
+        <v>349</v>
+      </c>
+      <c r="L45" t="s">
+        <v>350</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>351</v>
+      </c>
+      <c r="O45" t="s">
+        <v>76</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>353</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>354</v>
+      </c>
+      <c r="J46" t="s">
+        <v>355</v>
+      </c>
+      <c r="K46" t="s">
+        <v>356</v>
+      </c>
+      <c r="L46" t="s">
+        <v>357</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>351</v>
+      </c>
+      <c r="O46" t="s">
+        <v>69</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>358</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_371.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_371.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="403">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Ken K</t>
+  </si>
+  <si>
     <t>07/04/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t>The location is good with lots of eating options nearby.  My room was well-appointed, well-maintained and - as was the case with all of the other first- and second-floor rooms - opened to an interior courtyard that was nicely maintained.  One nice little touch that I don't often encounter was that the pillow cases were labelled for firmness. The hotel staff was quite accommodating and the breakfast was pretty typical for a Holiday Inn Express. One needs to be a bit thoughtful the first time leaving or entering the parking lot since West Arrow Highway has a center median divider preventing left turns from the front driveway entrance...solved easily enough by leaving the parking lot from the side driveways onto S. Eucla Ave.More</t>
   </si>
   <si>
+    <t>rogerbowman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r558296884-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>Location close to old San Dimas was nice. Also close to shopping centers.Beds were comfortable, but sleep was interrupted second night by the TV turning on spontaneously at 6 AM.  I got up and turned the TV off, but it turned itself back on 10 minutes later. Finally, I unplugged it from the wall. (I didn't even know that TVs had alarm function.)No "Do not disturb" sign was available in my son's room, so (conscientious) housekeeping awakened him several times through the morning.  Little thing, but hotels primary function is to allow good sleep.Aside from sleep, the rooms were nice. Fridge, microwave, coffee maker.  Sitting area with couch and lounge chair. Noisy during day of check in. Loud function in dining area. Leaf blower blasting in courtyard. (why don't gardeners ever use brooms?)Breakfast was usual HI Express affair: free and fast hot food.  Coffee is weak, so bring your own if you like it strong. My wife wasn't impressed with the breakfast, spoiled from last stay at Embassy Suites.More</t>
   </si>
   <si>
+    <t>Lv K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r524516903-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>We stayed here due to my husband's work.  This is conveniently located and close to many restaurants near by and within 5 miles.  Hotel is a good Holiday Inn Express level.  When I left the hotel, I must have left my night guard in the bathroom.  When I called the hotel, the front desk immediately told me they have the item.  When I ask them to mailed it to me and I will pay for the postage.  After checking with her manager, the front desk lady told me that they will mail it to me free of charge!!!  WOW! what a service!!!  Also, the front desk persons were very friendly.  Every time was walk by the front desk, they would greet us with smile.  The only negative thing is that you need to drive into the hotel parking lot from the side street instead of the Arrow HWY, even with the GPS, we missed the hotel and had to make a u-turn and find the side street to get into the hotel.More</t>
   </si>
   <si>
+    <t>Manuel H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r509773890-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>solliev</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r503673103-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -276,6 +291,9 @@
     <t>If you look outside, it's not that pleasing, but very nice inside the room. I really appreciate Lisa called me to verify the room that I like and checked me in over the phone. Receptionist was nice and helpful. Recommended for stay.More</t>
   </si>
   <si>
+    <t>Bertrand N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r482768748-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>bettynoodles123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r449667423-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -312,6 +333,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>lcwonder</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r448407154-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -339,6 +363,9 @@
     <t>This is my second stay at the hotel and I returned as it was very clean and convenient. But the room I got has absolutely no wifi.  The list of available networks is null. If I walk over to the hotel lobby which is only 4 doors down on the same ground floor, I have wifi. This makes the facility unacceptable to me, I won't be coming back.More</t>
   </si>
   <si>
+    <t>Janet C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r440441809-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -360,6 +387,9 @@
     <t>We stayed for 4 nights as going to the drag races in Pomona.  Our stay was very comfortable after a long drive.  The staff were very friendly and obliging.  The rooms comfortable and well maintain except for our shower.  I know the shower heads have a water saving device but this one was stuck and couldn't be adjusted hence felt like the water was cutting into us when we showered.  The staff tried to fix it a couple of times but it appears the shower head will require replacing.  The breakfast was good, ran out of things a couple of times, didn't have to wait long before the trays were filled again.  Plenty of amenities when required.  Our room faced the pool. They had a laundry downstairs to freshen up clothing while travelling.More</t>
   </si>
   <si>
+    <t>Monica  B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r400929274-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -381,6 +411,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>DipAynio</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r396534760-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -396,6 +429,9 @@
     <t>Arrived and met by a really helpful receptionist very attentive Can't say it's a hotel as its more like mini appts around a small pool area Everything from inside the room to the outside of the car park was very cleanA five minute to bar/restaurants shops etcThe free breaky was standard express stuff  But a bagel coffee and fruit juice are enough Thanks if we are around San dimas I would stay again</t>
   </si>
   <si>
+    <t>denise k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r382354564-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -423,6 +459,9 @@
     <t>Half of the rooms outlets didn't work, I am on oxygen so I need them; had to unplug clock. Had to park in the back, car was broken into, and trashed. was told I would have to wait 2 hours to see manager Had to leave.More</t>
   </si>
   <si>
+    <t>jim b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r375126294-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -450,6 +489,9 @@
     <t>Not brand new, but not run down either.  They do an excellent job of keeping the courtyard up. Probably a better than average HIE facility.They refused to honor the price on the reservation until we showed them the print-out.  No laundry or exercise room.More</t>
   </si>
   <si>
+    <t>RenoBill</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r370005356-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -471,6 +513,9 @@
     <t>This was an attractive hotel, much nicer than the usual somewhat sterile buildings that house most hotels.  Rooms were relatively spacious, beds and pillows were comfortable, TV and internet worked well.  Bedroom and bathroom were clean.Breakfast room was very small, which meant having to wait for a table, not a good experience when you haven't a lot of time.  At least USA Today was available to pass the time while waiting.  The breakfast itself was only OK, but typical for this sort of hotel.I would stay here again.Parking was barely adequate - I got the last spot.  So I don't know what you do when the lot is full.The chair for the desk was miserable, very low and unable to raise it.  I tried to swap it out but other chairs were no better.The area has plenty of strip malls, including numerous options for food and shopping.More</t>
   </si>
   <si>
+    <t>Eulalia_3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r363383447-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -489,6 +534,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>lenna187</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r339404828-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -528,6 +576,9 @@
     <t>This is a newer property in very good condition. I like to stay here since they have suites --  two full beds in a room separated by the bathroom,  sofa bed and additional TV in the next room. It provides just enough privacy for two parents traveling with an older child who doesn't really like sharing a room with them. The extra cost is well worth it.  The complimentary breakfast was not anything to write home about but at least the coffee was decent. The poor WiFi reception was very disappointing, it was sporadic to the point of being unusable. I wanted to mention that the manager who was there before and after Thanksgiving was extremely friendly and welcoming. He also did not hassle me about the fact that I was 30 minutes late checking out.More</t>
   </si>
   <si>
+    <t>JimNepo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r293023132-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -549,6 +600,9 @@
     <t>We stayed here for a wedding happening in town.  The hotel was recommended by family members who are actually professional hotel managers in the Southern California region.  We were not disappointed.  The room was clean, passing my "hair test" with no hair found in the room.  The room and bathroom were also large..definitely not NY City size.  The vanity and sink were in the main room, not inside the bathroom itself, so perhaps an advantage if two people are trying to get ready for the day and they are in a hurry, but a disadvantage with regard to privacy. Even though the guests next door had small, loud children, we were only aware of this when we would open the door in the morning.  So, a well-insulated hotel design with regard to noise.    Most of the rooms look out to center courtyard that contains a clean looking pool and hot tub, although we did not try either.   Wi Fi was free and speedy enough.  I tried going to their business center to print out some boarding passes, but neither of the two printers they had there seemed to be functioning.  I didn't ask for help though because the front desk was busy checking folks in.  The complimentary breakfast was popular and good.  It was more than just continental, but strictly "serve yourself"  They had several customized machines associated with serving breakfast that I have never seen before, and appeared to...We stayed here for a wedding happening in town.  The hotel was recommended by family members who are actually professional hotel managers in the Southern California region.  We were not disappointed.  The room was clean, passing my "hair test" with no hair found in the room.  The room and bathroom were also large..definitely not NY City size.  The vanity and sink were in the main room, not inside the bathroom itself, so perhaps an advantage if two people are trying to get ready for the day and they are in a hurry, but a disadvantage with regard to privacy. Even though the guests next door had small, loud children, we were only aware of this when we would open the door in the morning.  So, a well-insulated hotel design with regard to noise.    Most of the rooms look out to center courtyard that contains a clean looking pool and hot tub, although we did not try either.   Wi Fi was free and speedy enough.  I tried going to their business center to print out some boarding passes, but neither of the two printers they had there seemed to be functioning.  I didn't ask for help though because the front desk was busy checking folks in.  The complimentary breakfast was popular and good.  It was more than just continental, but strictly "serve yourself"  They had several customized machines associated with serving breakfast that I have never seen before, and appeared to be part of a Holiday Inn branded breakfast experience.  One machine, for instance, served fresh pancakes to your plate in just a minute or two...pretty neat!    This hotel is perfect for getting a good night's sleep and then getting things done the next day.  It is not a destination on its own...just a good functioning place to rest.More</t>
   </si>
   <si>
+    <t>drdroad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r277092638-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -567,6 +621,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>beachyogagirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r253898736-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -585,6 +642,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>GNZ_M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r249927410-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -612,6 +672,9 @@
     <t>We especially like the location of the hotel. It is in an area where you could dine and get a drink. Our room was on the second floor with a large window facing the pool facing the pool area. It was clean, nothing really special except a sofa sleeper, microwave and a fridge in the room. They have complimentary continental breakfast. I was impressed by their tea selection. There are enough options for an early morning eat. Parking and internet were also included in the room price. I would recommend it to families with one or two kids. Everything including service was very standard. The lady served breakfast was kind.More</t>
   </si>
   <si>
+    <t>fool4travelin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r220763367-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -637,6 +700,9 @@
   </si>
   <si>
     <t>We just stayed here and the hotel is typical for a holiday inn express and it had pretty easy access to highways.  The front desk staff at check-in was not very helpfull and almost a little rude. I have since been back in to front desk and other employes have been a little more helpful.More</t>
+  </si>
+  <si>
+    <t>935teresa</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r206247371-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
@@ -688,6 +754,9 @@
 When I arrived/check in to my room, the front door to my room was fully open and the room entirely dark. I did enter the room and complete a check (bathroom, closet, etc) to ensure no one was inside the room. Maybe not the wisest deciion I made, fortunately all was good. The front desk said maintenance was in...I spent one night and was pleased with my stay and I would again stay at this property. Security of the room was questionable upon my arrival. Lots of positives:- Room was large, comfortable, very clean, carpets clean (no spots). - Small (3 floors)- The lobby and rooms were fresh, no stale or strange odors. - Doorways are facing inside the property and entry is secured from all gates (but not from the lobby entrance). - They have a nice pool area with pleasing landscaping surrounding the pool area. - Customer service was good. - WIthin walking distance of local eateries. - The surrounding area is very nice, safe, and easy to access gas, food, groceries, etc. - Near the highway wtihout being next to the highway- Complimentary breakfast - the staff kept the food stocked during the morning. Some minusesParking is limited, and sometimes guests will need to park on the street. Fortuantely, the hotel was not full and after having left the hotel to return around midnight, I was able to park on the property. When I arrived/check in to my room, the front door to my room was fully open and the room entirely dark. I did enter the room and complete a check (bathroom, closet, etc) to ensure no one was inside the room. Maybe not the wisest deciion I made, fortunately all was good. The front desk said maintenance was in the room, checking carpet stains, and must have left the door wide open prior to my arrival. The complimentary breakfasts are not my favorite at hotels. Other than fruit, no other true whole food options (without chemicals and perservatives).More</t>
   </si>
   <si>
+    <t>BolingbrookKaren</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r199648779-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -713,6 +782,9 @@
 Room was  bigger than I thought it would be.  Two double beds, a sleeper sofa, desk, armchair, microwave, mini...I just spent three nights at this hotel while visiting a nearby university with my son.  There really aren't many hotels in the vicinity, so I was a bit apprehensive about what we might find.  I have to say I was pleasantly surprised. Every single one of the staff we met was very personable and "real".  They were interested in what we were doing, had great advice and responded very quickly to all of our requests and questions.  Whether it was where to grab a great pizza, or how to avoid the craziest of LA traffic.  No question, the staff made our stay.  Give them all a raise!!One to the nuts and bolts..... If you've stayed at a HIE previously,the style of the hotel is pretty standard. Nice outdoor pool and hot tub in the courtyard at this one, though.  All of the room doors face into this courtyard, so access is only through either the lobby or a locked gate from the parking area which requires your room key for access.  Beautiful flowers, lush grass, and a pretty walkway in the courtyard. Breakfast was standard, but more than adequate.  Hard boiled eggs, yogurt, granola, cereal, bagels, juice (passionfruit!), even an automatic pancake maker - yummy!  Plenty of free parking and the town of San Dimas was clean and safe.  Room was  bigger than I thought it would be.  Two double beds, a sleeper sofa, desk, armchair, microwave, mini fridge, wet bar type sink.  Nice wide vanity area so all three of us had room for our toiletries.  Super clean bathroom!The only items I would offer the management as areas for improvement would be the following:  the tiles running around the top edge of the pool and hot tub could use a good cleaning.  Carpeting in the room seemed to need a cleaning even though the rest of the room was spotless.  The A/C in the room is really noisy.....hard to hear the TV when the AC is running, plus it seems to shut down and not want to restart.Overall, I would give this hotel a big thumbs up.  Price was good for California standards as well.More</t>
   </si>
   <si>
+    <t>maureen1972</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r189896269-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -731,6 +803,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>psychemike</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r189407424-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -749,6 +824,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>ColeQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r179814781-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -776,6 +854,9 @@
     <t>Let me start by saying there is nothing wrong with this hotel.  The room is clean and pretty comfortable. The staff is very friendly and helpful. But there's nothing here that made me think, I have to stay here each time I'm in this area. The property looks like it was an older hotel that has been updated. The lobby and outdoor pool and hot tub area look nice. The rooms are decent, but show some signs of the building's original age plus wear-and-tear since it's last remodel. The "soft" pillows were as lumpy as grandma's homemade oatmeal. There was a bit of mold and poor caulking around the tub/shower. In general, the hotel rooms is just not quite there, and I don't think is quite up to Holiday Inn Express standards, let alone higher standards.The breakfast area was clean and the assortment of food was really good, as it usually is at Holiday Inn Express hotels. There's not much here for the health-conscious eater, but otherwise it is fine. Overall, my experiencing here was fine, but I expected a bit more.More</t>
   </si>
   <si>
+    <t>wallis77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r166241122-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -794,6 +875,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>pstefani1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r164936163-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -812,6 +896,9 @@
     <t>We stayed at this hotel to attend our grandson's graduation in Pomona.  It was very close to the freeway and had a lot of restuarants within walking distance (Denny's, Applebee's and Red Robin, in addition to others), also, several stores within walkind distance and a GREAT Cost Plus across the street.The hotel was clean, friendly and offered a complimentary full breakfast with the price of the room. Our room had a refrigerator, microwave and coffee maker.  Everything worked great, including the air conditioner. The window could be cracked a little to let fresh air in. This is always a plus. The drapes kept out the sunlight and we slept in longer than we had in years.  The room was good size with a sofa and coffee table and comfortable bed.  There was a wonderful pool and also a spa.  It was quiet for the most part.  There was a large after wedding party but we were on the ground floor and didn't hear anything.We loved the full breakfast and especially enjoyed the pancake machine.  We would definitely stay here again.More</t>
   </si>
   <si>
+    <t>michsyw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r158795092-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -830,6 +917,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Ifurita</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r148116929-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -854,6 +944,9 @@
     <t>Horrible experience. Somehow they screwed up our reservation and gave us an already occupied room. Walked in on a gross, hairy guy in bed*. When we went to the front desk to get a new room the gal didn't seem too concerned. The 2nd room they gave us reeks of cig smoke. Waiting on a 3rd room... *this is why you should always use the "chain" on the door to avoid surprises. More</t>
   </si>
   <si>
+    <t>Lead63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r146532428-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -872,6 +965,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>JT P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r146238361-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -890,6 +986,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>Jack50</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r142992970-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -911,6 +1010,9 @@
     <t>This Holiday Inn has an interesting layout - all the rooms seem to face the courtyard and pool area, but it was very quiet during my stay.  Front desk was friendly and efficient during check in and check out. I had a suite and it was pretty clean.. pretty clean property all around.  Lots of places to eat in the local area. It seemed pretty safe. I guess my one con against this property is they just didnt seem to "go the extra step" to make my stay that extra pleasent.  Coffee needed replacing in the dining area when I checked in; could have used a few more towels, etc.. just that little extra I have noticed in other hotels that put them into the "excellent" catagory.  But I stay in a lot of hotels, so maybe I'm just a little extra picky? I would definately stay here again and would recommend it for business travelers..More</t>
   </si>
   <si>
+    <t>SPBlanchette</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r137507256-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -929,6 +1031,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>pestpilot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r131671366-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -954,6 +1059,9 @@
   </si>
   <si>
     <t>First, I am not a fan of hotels where the room access is to the exterior.  I like the "security" of interior hallways.  So this is strike against this property.  I also don't like the smell of disinfectants as the cleaning agent.  Another strike against this hotel.Moving beyond that, the room was comfortable and the staff was friendly.  The breakfast person was very pleasant.  I like that.  Who needs a grump the first thing in the morning.  Breakfast started promptly at 6:00 am.  I like that as well.  I don't like the 6:30 am breakfast many properties offer.Check out was efficient and pleasant.I liked the location, right off the 57 with several eating options within walking distance.I did not get a Platinum upgrade.More</t>
+  </si>
+  <si>
+    <t>GueroChongo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r129526664-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
@@ -981,6 +1089,9 @@
 Lots of good restaurants in walking distance.  I recommend Top Thai...Stayed here for three nights last week for business.  Stayed in a king single on the third (top) floor.  Got a higher floor room hoping for a bit of a view, but the room only had one window, opening on the balcony.  Long and narrow, it was pretty dark.  However, it was tomb-like quiet and I slept like a rock.  Also, because I was in a corner room, I couldn't get a consistent wireless signal.  No problem for me, however, because there was an ethernet cable on the desk, and the connection on it was smoking fast (for me, being from the sticks, at least--25mb/sec).  Others may be annoyed, however, so if you want wireless ask for a room near the router.Other than that, the place was good.  The exercise room is totally unmarked and hard to find (in the far corner from the lobby on the first floor), but is well maintained and has a range of equipment.  Breakfast was well stocked with good service.  (Example; they had no decaf out, but the gal brewed me some as soon as I asked.  The next two mornings, they had decaf out for me from the get-go).  Had some cleaning done, and they got it back to me the same day.  Housekeeping kept the room in top shape.  Overall, great service--would get a top rating except for the wireless.Lots of good restaurants in walking distance.  I recommend Top Thai over on Bonita, just on the other side of the tracks.,More</t>
   </si>
   <si>
+    <t>Bellablue80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r128357431-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1003,6 +1114,9 @@
 Our room, 129, was on the first floor about mid-way down the corridor.  The "suite" had a separate living area with sofa, coffee table, end table, high back wicker chair and a desk with chair.  On the other side of a half wall was the TV console, flat screen Philips tv with DirectTV, king-size bed and a settee used as a luggage rack.  The granite "kitchenette" was made up of a small fridge, bar sink, shelves, microwave and single-serve coffee maker.  The closet was behind a full-length mirrored door and the bathroom counter and shower were also granite.  Free amenities included...We stayed at this Holiday Inn Express from 4/12/12 to 4/16/12.  Business has brought me to the area five times since last summer and I usually stay at a Comfort Inn.  Reading the reviews on TripAdvisor and the rate we were able to get (Government) really closed the deal for us.I checked in to the hotel at 5 pm on Thursday.  The lobby was large, open and bright.  The young lady at the front desk quickly checked me in without incident and informed me about breakfast hours and free Wifi.  When I arrived there were only a handful of cars in the parking lot.  The rooms were build facing into a courtyard that contained a pool, hot tub and a grassy area.  The pool and hot tub were fenced-in and there were several patio chairs and lounge chairs.  Our room, 129, was on the first floor about mid-way down the corridor.  The "suite" had a separate living area with sofa, coffee table, end table, high back wicker chair and a desk with chair.  On the other side of a half wall was the TV console, flat screen Philips tv with DirectTV, king-size bed and a settee used as a luggage rack.  The granite "kitchenette" was made up of a small fridge, bar sink, shelves, microwave and single-serve coffee maker.  The closet was behind a full-length mirrored door and the bathroom counter and shower were also granite.  Free amenities included coffee, tea, shampoo, conditioner, body lotion and toothpaste (available in the lobby).  The bed had two types of pillows, firm and soft, identifiable by the words embroidered on the pillow case.  There was no traditional bedspread like in other hotels, but a small throw was at the foot of the bed and a duvet was sandwiched between two flat sheets.  There was an extra, large blanket in the closet but we never used it.  Each night stand had a lamp and one had an alarm clock, with the phone being on the other.  There was also a hairdryer, iron and board and about 8 wooden hangers.  The bed was really comfortable and clean.  I thought the bathroom was a little dim, but the shower more than made up for it.  A heads up, the bathroom light switch has a motion detector, so if you're in the shower for too long without making much movement the lights will turn off on you.  This almost started WWIII between my partner and I.  The maid gave us new towels and fresh soap everyday but we never used the lotion or the shampoo.The first night we had no neighbors as the front desk was smart enough to space us out.  The following night our upstairs neighbors were quite loud and you could easily hear foot traffic above our room.  Luckily they were only there one night.  That was the only noisy incident that I could remember.For some reason the hotel seemed much busier during the week than on the weekend.  Thursday night and Friday night the parking lots were almost full, but then on the weekend it was just about 6 or so cars.  Very rarely would I see someone else in the corridor but I did see one guest take advantage of the lounge chairs and hot tub.Also available in the hotel is a guest laundry.  The hotel provides a laundry detergent and fabric softener vending machine, but when I went to use it it was out of soap.  I called the front desk and the lady told me they usually keep some up front.  On this occasion they were out up there too and she gave me a refund.  I was about to go to a local laundromat on East Arrow, about 3 miles away, and buy some powder and fabric sheets.  I see a lot of people complaining about the breakfast, but we liked most of what they served and were grateful that it was a full breakfast bar, not continental breakfast.  On weekdays, the breakfast opens at 6:30am, and on the weekend it opens at 7am, something to note.  Friday morning we were the first ones in the breakfast area and got fresh fruit, coffee, yogurt and cinnamon buns.  The coffee cups had lids so my partner was able to take his to work, but I brought my own reusable cup from home and filled it up.  I noticed there were also eggs, sausage, waffles, cold cereals, hot cereals, pastries, tea, milk and various fruit juices.  This was one of the most complete breakfast bars I have seen, especially in this price range.  If the breakfast bar was not up to your taste Starbucks and Panera were close by as well as IHOP.We very much enjoyed staying in this hotel and we even extended our stay by one day.  The a/c worked well, the black-out curtains very much appreciated and we were able to get some fresh air by opening the window.  The area contains several chain restaurants, a Target, Lowes, and Trader Joe's.  We bought some beverages and kept them in the fridge along with some snacks for late night munching.  San Dimas seemed like a very quiet and settled community and we would love to stay at this hotel again.More</t>
   </si>
   <si>
+    <t>MenloMichael</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r124812091-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1021,6 +1135,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>Janet W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r122869712-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1042,6 +1159,9 @@
     <t>My husband and I stayed at this hotel for 2 nights January 7th and 8th 2012. The bed was comfortable, the bathroom was nice, but needs more shelving in the shower. It had 2 little triangles for soap and shampoo but that was it. Nothing to hang the wash rag on. The TV was a flat screen and great with Direct TV. The room was clean but It was stuffy though overnight. It would have been nice if we could have opened the window even just a crack but not possible. The AC unit in the room was very noisy. How people sleep with that racket is beyond me. Good location with Red Robin, Appplebees, Starbucks and other restaurants. The front desk people were very nice. My husband said the breakfast was ok but don't eat the sausage, not good at all. Free internet was good, also the microwave and refrigerator. We may stay here again next time. Comfort Inn and Motel 6 were very nearby.More</t>
   </si>
   <si>
+    <t>Roselle N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r120005124-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1063,6 +1183,9 @@
     <t>Stayed at the Holiday Inn Express San Dimas for a couple of days for business. Pro's:*New rooms (so new I don't think that my room had ever been stayed in and the new smell was almost overwhelming)*Cleanliness -- no complaints*Size: large sitting area with couch and chair and desk, king bed, kitchenette w/ micro, refrig and sink, vanity area, and large bathroom.*Very friendly staff on all shifts*Extensive breakfast offerings*Easily accessible business center although limited with only two computers and printers*Location: Near many restaurants, shops and major highwaysCon's*Doors open on the outside pool courtyard lending to a motel feel*Traffic could be heard periodically in the rooms (loud vehicles such as motorcycles / trucks*Hallway foot traffic also loud *Price is a bit high in comparison with other hotels in the areaI would stay here again but as the other reviewer stated, the price is high for a Holiday Inn Express.Liked — Location, newnessDisliked — Doors that opened to the outsideMore</t>
   </si>
   <si>
+    <t>gcjones</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r115796828-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1078,6 +1201,9 @@
     <t>Nice HIEx property, usual chain restaurants close by. Standard HIEx room. Went down for breakfast this morning and there were no cinnamon rolls, HIEX's signature breakfast item. Breakfast room attendant had no explanation. Not a major deal, but I stay at HIEx's all the time and this is the first time this has happened.</t>
   </si>
   <si>
+    <t>JJAMN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r25401791-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1096,6 +1222,9 @@
     <t>February 2009</t>
   </si>
   <si>
+    <t>crazytimes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r22791279-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1115,6 +1244,9 @@
   </si>
   <si>
     <t>My girlfriend and I stayed one night at this Hotel, It's a new Hotel and as you would expect very clean. The desk clerk was very friendly and we found the room to be a very good size, clean and nice for the price. HOWEVER our room and my guess this entire hotel has been either designed poorly and or the contractor that built the Hotel cut some major corners. First problem we found was that you can hear thru the walls very easy. I know some hotels are like this however we felt that this place was pretty bad for new construction, I am pretty sure there was little to no insulation or sound proofing in the walls, but WAIT it gets much WORSE! The head board of the bed is fastened to the wall, but ONLY the top part of the head board is Fastened to the wall, the bottom of the head board floats against the bed and the wall, translation…….. boom, boom, boom ,boom, boooom, boooom, boooom, boooom, boooom,  boom, boom,  If you like to wake up your next door neighbor or if you like to get woken up by your next door neighbor by all means stay here. Believe me its load!!! However If I wanted to stay at a sex hotel I would of drove to HollywoodMore</t>
+  </si>
+  <si>
+    <t>southerntlc</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r22508501-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
@@ -1637,34 +1769,38 @@
       <c r="A2" t="n">
         <v>54128</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>60893</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
@@ -1683,50 +1819,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>54128</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>192381</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -1744,56 +1884,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>54128</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>192382</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1813,50 +1957,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>54128</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>192383</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>68</v>
-      </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1874,50 +2022,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>54128</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>192384</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1935,56 +2087,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>54128</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>192385</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1998,50 +2154,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>54128</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>192386</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2059,50 +2219,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>54128</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>192387</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -2120,56 +2284,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="X9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>54128</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>13896</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2189,50 +2357,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>54128</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>192388</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2246,50 +2418,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>54128</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>192389</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2303,50 +2479,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>54128</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>192390</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2362,56 +2542,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="X13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>54128</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>192391</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2423,56 +2607,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="X14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>54128</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>192392</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -2492,50 +2680,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>54128</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>42315</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="O16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2555,41 +2747,45 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>54128</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>192393</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
@@ -2608,50 +2804,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>54128</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>192386</v>
+      </c>
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -2671,50 +2871,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>54128</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>192394</v>
+      </c>
+      <c r="C19" t="s">
+        <v>186</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -2734,50 +2938,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>54128</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>192395</v>
+      </c>
+      <c r="C20" t="s">
+        <v>194</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -2797,50 +3005,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>54128</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>192396</v>
+      </c>
+      <c r="C21" t="s">
+        <v>201</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="J21" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K21" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="O21" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2854,50 +3066,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>54128</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>192397</v>
+      </c>
+      <c r="C22" t="s">
+        <v>208</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="O22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2915,56 +3131,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="X22" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="Y22" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>54128</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>61726</v>
+      </c>
+      <c r="C23" t="s">
+        <v>218</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="J23" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="K23" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="O23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -2982,56 +3202,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="X23" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="Y23" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>54128</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>192398</v>
+      </c>
+      <c r="C24" t="s">
+        <v>228</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="J24" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="K24" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="O24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -3055,50 +3279,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>54128</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>192399</v>
+      </c>
+      <c r="C25" t="s">
+        <v>236</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="O25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3122,50 +3350,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>54128</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>192400</v>
+      </c>
+      <c r="C26" t="s">
+        <v>244</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="J26" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="K26" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3189,50 +3421,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>54128</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>192401</v>
+      </c>
+      <c r="C27" t="s">
+        <v>251</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="J27" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="K27" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3256,50 +3492,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>54128</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>192402</v>
+      </c>
+      <c r="C28" t="s">
+        <v>258</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="J28" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="O28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -3321,56 +3561,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="X28" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="Y28" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>54128</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>192403</v>
+      </c>
+      <c r="C29" t="s">
+        <v>268</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="J29" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="K29" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="O29" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3394,50 +3638,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>54128</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>192404</v>
+      </c>
+      <c r="C30" t="s">
+        <v>275</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="J30" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="K30" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="O30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3461,50 +3709,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>54128</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>192405</v>
+      </c>
+      <c r="C31" t="s">
+        <v>282</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="J31" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="K31" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="O31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3528,41 +3780,45 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>54128</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>192406</v>
+      </c>
+      <c r="C32" t="s">
+        <v>289</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="J32" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="K32" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="L32" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
@@ -3589,56 +3845,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="X32" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="Y32" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>54128</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>192407</v>
+      </c>
+      <c r="C33" t="s">
+        <v>298</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="J33" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="K33" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="L33" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="O33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -3662,50 +3922,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>54128</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>192408</v>
+      </c>
+      <c r="C34" t="s">
+        <v>305</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="J34" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="K34" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="O34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3729,50 +3993,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>54128</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>192409</v>
+      </c>
+      <c r="C35" t="s">
+        <v>312</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="J35" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="K35" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="L35" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="O35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3796,50 +4064,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>54128</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>192410</v>
+      </c>
+      <c r="C36" t="s">
+        <v>320</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="J36" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="K36" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="L36" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="O36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3863,50 +4135,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>54128</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>192411</v>
+      </c>
+      <c r="C37" t="s">
+        <v>327</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="J37" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="K37" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="L37" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="O37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -3928,56 +4204,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="X37" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="Y37" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>54128</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>192412</v>
+      </c>
+      <c r="C38" t="s">
+        <v>337</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="J38" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="K38" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="L38" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="O38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4001,50 +4281,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>54128</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>192413</v>
+      </c>
+      <c r="C39" t="s">
+        <v>345</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="J39" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="K39" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="L39" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="O39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4068,50 +4352,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>54128</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>192414</v>
+      </c>
+      <c r="C40" t="s">
+        <v>352</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="J40" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="K40" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="L40" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="O40" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4135,50 +4423,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>54128</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>17782</v>
+      </c>
+      <c r="C41" t="s">
+        <v>359</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="J41" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="K41" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="L41" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="O41" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4202,50 +4494,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>54128</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>192415</v>
+      </c>
+      <c r="C42" t="s">
+        <v>367</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="J42" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="K42" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="L42" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="O42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4269,41 +4565,45 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>54128</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>192416</v>
+      </c>
+      <c r="C43" t="s">
+        <v>375</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="J43" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="K43" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="L43" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
@@ -4332,50 +4632,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>54128</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>192417</v>
+      </c>
+      <c r="C44" t="s">
+        <v>381</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="J44" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="K44" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="L44" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="O44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4397,50 +4701,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>54128</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>192418</v>
+      </c>
+      <c r="C45" t="s">
+        <v>388</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="J45" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="K45" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="L45" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="O45" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4464,50 +4772,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>54128</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>111388</v>
+      </c>
+      <c r="C46" t="s">
+        <v>396</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="J46" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="K46" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="L46" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="O46" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -4531,7 +4843,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_371.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_371.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="576">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,143 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Ken K</t>
-  </si>
-  <si>
-    <t>07/04/2018</t>
+    <t>09/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r613889460-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>33013</t>
+  </si>
+  <si>
+    <t>609549</t>
+  </si>
+  <si>
+    <t>613889460</t>
+  </si>
+  <si>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>Pleasant hotel with wonderful staff</t>
+  </si>
+  <si>
+    <t>My daughter recently moved to this area and we've been looking for a place to stay while visiting her. So far, this is my first choice. It was convenient to everywhere we needed to go, with easy access off the 57 freeway. Close to shopping, restaurants and grocery stores.
+The rooms are large and comfortable. My room had a little bit of a musty smell when I first arrived, but I either got used to it or it went away. The AC unit was loud but I didn't have any trouble adjusting it. The in-room Keurig (single cup) was a nice touch! My refrigerator wasn't very cold by the second day but I notified the staff when I was checking out so hopefully they will look into it. One thing to note, most of the lights are on a timer/motion sensor. If you don't move around alot, the lights will shut off on you (the exception was the bathroom light and one of the small desk lamps). It looks like most, if not all, of the rooms face the courtyard which I think is very nice. Better than looking out onto a parking lot!
+The courtyard/pool area has a grass area with plants &amp; flowers which made it a very nice place to relax. They could use a few more small tables and chairs outside of the pool area, especially in the morning when the pool is closed (although honestly...My daughter recently moved to this area and we've been looking for a place to stay while visiting her. So far, this is my first choice. It was convenient to everywhere we needed to go, with easy access off the 57 freeway. Close to shopping, restaurants and grocery stores.The rooms are large and comfortable. My room had a little bit of a musty smell when I first arrived, but I either got used to it or it went away. The AC unit was loud but I didn't have any trouble adjusting it. The in-room Keurig (single cup) was a nice touch! My refrigerator wasn't very cold by the second day but I notified the staff when I was checking out so hopefully they will look into it. One thing to note, most of the lights are on a timer/motion sensor. If you don't move around alot, the lights will shut off on you (the exception was the bathroom light and one of the small desk lamps). It looks like most, if not all, of the rooms face the courtyard which I think is very nice. Better than looking out onto a parking lot!The courtyard/pool area has a grass area with plants &amp; flowers which made it a very nice place to relax. They could use a few more small tables and chairs outside of the pool area, especially in the morning when the pool is closed (although honestly I didn't try to go in before it opened at 10am...so maybe the pool area is open just to sit in?) The pool area was nice but could use some newchair cushions. The water was a little cold for me, but I enjoyed relaxing in a lounge chair.  Breakfast was typical continental but better than at some of the other places we've stayed and had more variety. The lady working the breakfast room on both days was so sweet, helpful &amp; friendly, I wish I had her name so I could mention her by name...she was wonderful! The other staff we interacted with were also very friendly and actually made conversation with us, I felt very welcome here.Fitness room is small (basically room sized) and a little out of the way (near the back entrance to the property) but it had most things you would need for a quick workout away from home (cardio, multi-purpose cable machine, and free weights up to 50lbs).There are two parking lots, one in the front and one in the back. The back lot is set apart with a little longer walk to get inside the property. It didn't really feel unsafe (and the staff assured me there are cameras everywhere) but it was not as convenient to my room near the front of the hotel. If you arrive late, the front lot will be full and you have to park in the back. So arrive early if you can. You do need your room key to access the property from the parking areas.I think there is only one elevator and it's near the lobby (center of the property). If you need the elevator, I would suggest asking for a room closest to the front of the hotel.I did have one problem that I have to mention, even though it was not the fault of the hotel. The second morning I was trying to sleep in a little bit and one of the guests was having a very loud telephone conversation on speakerphone in the corridor outside my door at 6:45am. I had to to tell him to be quiet because he kept going on and on. So rude and inconsiderate!! So I guess this comment is more for hotel guests than hotel management/staff. Be considerate of others around you, you are not at home!Overall, I really liked my stay here and would recommend this hotel for those needing to stay in San Dimas or nearby cities.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>My daughter recently moved to this area and we've been looking for a place to stay while visiting her. So far, this is my first choice. It was convenient to everywhere we needed to go, with easy access off the 57 freeway. Close to shopping, restaurants and grocery stores.
+The rooms are large and comfortable. My room had a little bit of a musty smell when I first arrived, but I either got used to it or it went away. The AC unit was loud but I didn't have any trouble adjusting it. The in-room Keurig (single cup) was a nice touch! My refrigerator wasn't very cold by the second day but I notified the staff when I was checking out so hopefully they will look into it. One thing to note, most of the lights are on a timer/motion sensor. If you don't move around alot, the lights will shut off on you (the exception was the bathroom light and one of the small desk lamps). It looks like most, if not all, of the rooms face the courtyard which I think is very nice. Better than looking out onto a parking lot!
+The courtyard/pool area has a grass area with plants &amp; flowers which made it a very nice place to relax. They could use a few more small tables and chairs outside of the pool area, especially in the morning when the pool is closed (although honestly...My daughter recently moved to this area and we've been looking for a place to stay while visiting her. So far, this is my first choice. It was convenient to everywhere we needed to go, with easy access off the 57 freeway. Close to shopping, restaurants and grocery stores.The rooms are large and comfortable. My room had a little bit of a musty smell when I first arrived, but I either got used to it or it went away. The AC unit was loud but I didn't have any trouble adjusting it. The in-room Keurig (single cup) was a nice touch! My refrigerator wasn't very cold by the second day but I notified the staff when I was checking out so hopefully they will look into it. One thing to note, most of the lights are on a timer/motion sensor. If you don't move around alot, the lights will shut off on you (the exception was the bathroom light and one of the small desk lamps). It looks like most, if not all, of the rooms face the courtyard which I think is very nice. Better than looking out onto a parking lot!The courtyard/pool area has a grass area with plants &amp; flowers which made it a very nice place to relax. They could use a few more small tables and chairs outside of the pool area, especially in the morning when the pool is closed (although honestly I didn't try to go in before it opened at 10am...so maybe the pool area is open just to sit in?) The pool area was nice but could use some newchair cushions. The water was a little cold for me, but I enjoyed relaxing in a lounge chair.  Breakfast was typical continental but better than at some of the other places we've stayed and had more variety. The lady working the breakfast room on both days was so sweet, helpful &amp; friendly, I wish I had her name so I could mention her by name...she was wonderful! The other staff we interacted with were also very friendly and actually made conversation with us, I felt very welcome here.Fitness room is small (basically room sized) and a little out of the way (near the back entrance to the property) but it had most things you would need for a quick workout away from home (cardio, multi-purpose cable machine, and free weights up to 50lbs).There are two parking lots, one in the front and one in the back. The back lot is set apart with a little longer walk to get inside the property. It didn't really feel unsafe (and the staff assured me there are cameras everywhere) but it was not as convenient to my room near the front of the hotel. If you arrive late, the front lot will be full and you have to park in the back. So arrive early if you can. You do need your room key to access the property from the parking areas.I think there is only one elevator and it's near the lobby (center of the property). If you need the elevator, I would suggest asking for a room closest to the front of the hotel.I did have one problem that I have to mention, even though it was not the fault of the hotel. The second morning I was trying to sleep in a little bit and one of the guests was having a very loud telephone conversation on speakerphone in the corridor outside my door at 6:45am. I had to to tell him to be quiet because he kept going on and on. So rude and inconsiderate!! So I guess this comment is more for hotel guests than hotel management/staff. Be considerate of others around you, you are not at home!Overall, I really liked my stay here and would recommend this hotel for those needing to stay in San Dimas or nearby cities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r609383367-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>609383367</t>
+  </si>
+  <si>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>beutiful rooms</t>
+  </si>
+  <si>
+    <t>ive stayed at a couple of their hotels around the state. always get a great room plus you accumulate points that equals to free stays. basically every 3 stays u get a free night. last time we redeem a free night in Victorville and got upgraded to a big beautiful suite that had 2 full bathrooms.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r597934627-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>597934627</t>
+  </si>
+  <si>
+    <t>07/20/2018</t>
+  </si>
+  <si>
+    <t>Relaxing stay</t>
+  </si>
+  <si>
+    <t>I highly recommend this hotel:From smiles of the General &amp; Desk manager through the staff, this hotel is well managed. Every room is meticulously maintained and all equipment kept in great working order.  You have two private entries with a lovely pool that accommodates everyone including the handicapped and elderly.  It is a no smoking facility yet your privacy is important to all staff.  This hotel is located within 5 mins walking distance from 10 or more different restaurants and shopping.  It exits two main freeways and so easy to continue your traveling.  My advise is when checking into this hotel, smile and see what is returned. Yes, I highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>I highly recommend this hotel:From smiles of the General &amp; Desk manager through the staff, this hotel is well managed. Every room is meticulously maintained and all equipment kept in great working order.  You have two private entries with a lovely pool that accommodates everyone including the handicapped and elderly.  It is a no smoking facility yet your privacy is important to all staff.  This hotel is located within 5 mins walking distance from 10 or more different restaurants and shopping.  It exits two main freeways and so easy to continue your traveling.  My advise is when checking into this hotel, smile and see what is returned. Yes, I highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r596228521-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>596228521</t>
+  </si>
+  <si>
+    <t>07/14/2018</t>
+  </si>
+  <si>
+    <t>Extraordinary Staff</t>
+  </si>
+  <si>
+    <t>The receptionist was absolutely terrific with lots of personality. We had an early flight to catch on Sunday and the staff was so nice letting us eat what was available before the 7 a.m. open.The motel surrounds a pool so it was a little noisy in the evenings with children being children having fun and being loud. Sound ended shortly after 10 p.m. on multiple evenings.Returning one evening we could not get into our room. I went down and the very nice receptionist rekeyed our cards. Still did not work. She rekeyed again and doubting my ability to open the door ran up the stairs to show us how to open the door. It did not open for her. We sat in the lobby and waited a half hour so she could get us into our room after calling the manager. We were in our room but with no keys for the next  14 hours. Manager fixed late the next morning and said the lock battery failed because of the heat.  I met another couple who also experienced the same issue. Hopefully, this is an isolated freak incident.Again, wonderful staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>The receptionist was absolutely terrific with lots of personality. We had an early flight to catch on Sunday and the staff was so nice letting us eat what was available before the 7 a.m. open.The motel surrounds a pool so it was a little noisy in the evenings with children being children having fun and being loud. Sound ended shortly after 10 p.m. on multiple evenings.Returning one evening we could not get into our room. I went down and the very nice receptionist rekeyed our cards. Still did not work. She rekeyed again and doubting my ability to open the door ran up the stairs to show us how to open the door. It did not open for her. We sat in the lobby and waited a half hour so she could get us into our room after calling the manager. We were in our room but with no keys for the next  14 hours. Manager fixed late the next morning and said the lock battery failed because of the heat.  I met another couple who also experienced the same issue. Hopefully, this is an isolated freak incident.Again, wonderful staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r592032936-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>592032936</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>Quaint and Quiet Property</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for 2 weeks while she attended a course at nearby Stevenson Dental Solutions.  I worked (remotely) from the desk in the hotel room for those 2 weeks.
+ROOM
+We booked a "1 King Executive Nonsmoking" room.  Description on their website reads "Room has a sitting area with sofa and desk. Amenities include microwave, refrigerator, iron and ironing board, coffee maker and hairdryer."
+The hotel has a combination of rooms facing inwards looking into the courtyard (without an exterior window) and rooms with outward and inward-facing windows.
+All of the rooms have "Amana" terminal air conditioning units.  AC is definitely noisy and can awake light sleepers.
+CHECK-IN
+Sam was great.  He checked us in on the evening we arrived.  Having researched this property during booking, we were aware of trucks at the business adjacent to the hotel.  Based on our preference of a quiet room, we were given a second-floor, inward-facing room on the opposite side (along S Eucla Ave) away from the elevator.
+WET BAR / KITCHENETTE
+The "King Executive" room had just a Wet Bar that was definitely not a Kitchenette.  Due to our long stay, we expected the room/hotel to have at least a couple of ceramic plates and bowls -- nothing!  All they had was foam plates and bowls, which tend to melt in the microwave and get absorbed into the food (carcinogenic) and plastic cutlery/utensils.  I had to go to...My wife and I stayed here for 2 weeks while she attended a course at nearby Stevenson Dental Solutions.  I worked (remotely) from the desk in the hotel room for those 2 weeks.ROOMWe booked a "1 King Executive Nonsmoking" room.  Description on their website reads "Room has a sitting area with sofa and desk. Amenities include microwave, refrigerator, iron and ironing board, coffee maker and hairdryer."The hotel has a combination of rooms facing inwards looking into the courtyard (without an exterior window) and rooms with outward and inward-facing windows.All of the rooms have "Amana" terminal air conditioning units.  AC is definitely noisy and can awake light sleepers.CHECK-INSam was great.  He checked us in on the evening we arrived.  Having researched this property during booking, we were aware of trucks at the business adjacent to the hotel.  Based on our preference of a quiet room, we were given a second-floor, inward-facing room on the opposite side (along S Eucla Ave) away from the elevator.WET BAR / KITCHENETTEThe "King Executive" room had just a Wet Bar that was definitely not a Kitchenette.  Due to our long stay, we expected the room/hotel to have at least a couple of ceramic plates and bowls -- nothing!  All they had was foam plates and bowls, which tend to melt in the microwave and get absorbed into the food (carcinogenic) and plastic cutlery/utensils.  I had to go to the local Walmart to purchase a Corelle plate.  We asked at reception for a bottle opener and were told they usually have five, but didn't have any because guests don't return them.  Why not just attach a bottle opener to the fridge?  The room had a small, 700-watt "Sunbeam" microwave.BATHROOM / SHOWERThe wide spray on the shower head and the microfiber shower curtain caused water to push through the fabric and leak out onto the bathroom floor in the beginning.  It took me a few days to realize this and adjust the angle of the shower head away from the curtain to prevent this.BREAKFASTThe usual Holiday Inn hot breakfast spread and the attentive staff were great; continually refilling items.PARKINGParking is split into two lots, north and south.  The north/rear lot is away from the busy road and relatively empty in the day, but fills up during the nights.HOUSEKEEPINGHousekeeping staff were thorough, professional and polite.  They came by promptly everyday to make the bed, replace towels, toiletries, empty the trash and vacuum the carpet.SELF LAUNDRYI was surprised to find the self-laundry was not free, and was told this was the norm across Holiday Inn.  Detergent and Fabric Softener were $1.25 each, and the Washer/Washing Machine and Dryer were $1.00 each.  Both machines accept only quarters.INTERNET SPEEDWe were issued a 6-digit code to connect to the free Wi-Fi during check-in.  Connecting to the Wi-Fi was a pain.  Most Wi-Fi hotspots load a prompt once connection is established.  However, at this Holiday Inn, I had to go through the process of loading a Private Window/Incognito window in my web browser and typing in "holidayinn.com" to load the webpage to enter the 6-digit Internet Access Code.  The passcode was the same for all guests, lasted a full week and was changed every Sunday.  However, a connection to the Wi-Fi lasted only up to 24 hours, which meant I had to repeat the above process and input the passcode at least once every 24 hours on each one of my devices (laptop, phone and tablet).  Download speed was decent at around 35 Mbps, but upload speed was very poor at under 2 Mbps.SWIMMING POOLThe swimming pool and hot tub is a night touch you probably won't find at other hotels in the area.  The pool is cleaned regularly.We were definitely an exception for staying here this long.  It appeared most guests were here for just a night or two.  If you're looking to stay longer than 2 nights, there are more affordable alternatives in the area, but maybe not with the same amenities that Holiday Inn offers like hot breakfast, swimming pool, daily housekeeping, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for 2 weeks while she attended a course at nearby Stevenson Dental Solutions.  I worked (remotely) from the desk in the hotel room for those 2 weeks.
+ROOM
+We booked a "1 King Executive Nonsmoking" room.  Description on their website reads "Room has a sitting area with sofa and desk. Amenities include microwave, refrigerator, iron and ironing board, coffee maker and hairdryer."
+The hotel has a combination of rooms facing inwards looking into the courtyard (without an exterior window) and rooms with outward and inward-facing windows.
+All of the rooms have "Amana" terminal air conditioning units.  AC is definitely noisy and can awake light sleepers.
+CHECK-IN
+Sam was great.  He checked us in on the evening we arrived.  Having researched this property during booking, we were aware of trucks at the business adjacent to the hotel.  Based on our preference of a quiet room, we were given a second-floor, inward-facing room on the opposite side (along S Eucla Ave) away from the elevator.
+WET BAR / KITCHENETTE
+The "King Executive" room had just a Wet Bar that was definitely not a Kitchenette.  Due to our long stay, we expected the room/hotel to have at least a couple of ceramic plates and bowls -- nothing!  All they had was foam plates and bowls, which tend to melt in the microwave and get absorbed into the food (carcinogenic) and plastic cutlery/utensils.  I had to go to...My wife and I stayed here for 2 weeks while she attended a course at nearby Stevenson Dental Solutions.  I worked (remotely) from the desk in the hotel room for those 2 weeks.ROOMWe booked a "1 King Executive Nonsmoking" room.  Description on their website reads "Room has a sitting area with sofa and desk. Amenities include microwave, refrigerator, iron and ironing board, coffee maker and hairdryer."The hotel has a combination of rooms facing inwards looking into the courtyard (without an exterior window) and rooms with outward and inward-facing windows.All of the rooms have "Amana" terminal air conditioning units.  AC is definitely noisy and can awake light sleepers.CHECK-INSam was great.  He checked us in on the evening we arrived.  Having researched this property during booking, we were aware of trucks at the business adjacent to the hotel.  Based on our preference of a quiet room, we were given a second-floor, inward-facing room on the opposite side (along S Eucla Ave) away from the elevator.WET BAR / KITCHENETTEThe "King Executive" room had just a Wet Bar that was definitely not a Kitchenette.  Due to our long stay, we expected the room/hotel to have at least a couple of ceramic plates and bowls -- nothing!  All they had was foam plates and bowls, which tend to melt in the microwave and get absorbed into the food (carcinogenic) and plastic cutlery/utensils.  I had to go to the local Walmart to purchase a Corelle plate.  We asked at reception for a bottle opener and were told they usually have five, but didn't have any because guests don't return them.  Why not just attach a bottle opener to the fridge?  The room had a small, 700-watt "Sunbeam" microwave.BATHROOM / SHOWERThe wide spray on the shower head and the microfiber shower curtain caused water to push through the fabric and leak out onto the bathroom floor in the beginning.  It took me a few days to realize this and adjust the angle of the shower head away from the curtain to prevent this.BREAKFASTThe usual Holiday Inn hot breakfast spread and the attentive staff were great; continually refilling items.PARKINGParking is split into two lots, north and south.  The north/rear lot is away from the busy road and relatively empty in the day, but fills up during the nights.HOUSEKEEPINGHousekeeping staff were thorough, professional and polite.  They came by promptly everyday to make the bed, replace towels, toiletries, empty the trash and vacuum the carpet.SELF LAUNDRYI was surprised to find the self-laundry was not free, and was told this was the norm across Holiday Inn.  Detergent and Fabric Softener were $1.25 each, and the Washer/Washing Machine and Dryer were $1.00 each.  Both machines accept only quarters.INTERNET SPEEDWe were issued a 6-digit code to connect to the free Wi-Fi during check-in.  Connecting to the Wi-Fi was a pain.  Most Wi-Fi hotspots load a prompt once connection is established.  However, at this Holiday Inn, I had to go through the process of loading a Private Window/Incognito window in my web browser and typing in "holidayinn.com" to load the webpage to enter the 6-digit Internet Access Code.  The passcode was the same for all guests, lasted a full week and was changed every Sunday.  However, a connection to the Wi-Fi lasted only up to 24 hours, which meant I had to repeat the above process and input the passcode at least once every 24 hours on each one of my devices (laptop, phone and tablet).  Download speed was decent at around 35 Mbps, but upload speed was very poor at under 2 Mbps.SWIMMING POOLThe swimming pool and hot tub is a night touch you probably won't find at other hotels in the area.  The pool is cleaned regularly.We were definitely an exception for staying here this long.  It appeared most guests were here for just a night or two.  If you're looking to stay longer than 2 nights, there are more affordable alternatives in the area, but maybe not with the same amenities that Holiday Inn offers like hot breakfast, swimming pool, daily housekeeping, etc.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r588170835-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
-    <t>33013</t>
-  </si>
-  <si>
-    <t>609549</t>
-  </si>
-  <si>
     <t>588170835</t>
   </si>
   <si>
@@ -180,7 +302,19 @@
     <t>The location is good with lots of eating options nearby.  My room was well-appointed, well-maintained and - as was the case with all of the other first- and second-floor rooms - opened to an interior courtyard that was nicely maintained.  One nice little touch that I don't often encounter was that the pillow cases were labelled for firmness. The hotel staff was quite accommodating and the breakfast was pretty typical for a Holiday Inn Express. One needs to be a bit thoughtful the first time leaving or entering the parking lot since West Arrow Highway has a center median divider preventing left turns from the front driveway entrance...solved easily enough by leaving the parking lot from the side driveways onto S. Eucla Ave.More</t>
   </si>
   <si>
-    <t>rogerbowman</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r587419691-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>587419691</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The courtyard smells like heaven </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a beautiful little hotel; not at all like the modern Holiday Inn Express hotels. The courtyard and grounds around the hotel are well maintained and filled with flowers. The staff is friendly and helpful, and there are several restaurants within walking distance. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r558296884-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
@@ -201,9 +335,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Holiday Inn Express San Dimas, responded to this reviewResponded February 19, 2018</t>
   </si>
   <si>
@@ -213,9 +344,6 @@
     <t>Location close to old San Dimas was nice. Also close to shopping centers.Beds were comfortable, but sleep was interrupted second night by the TV turning on spontaneously at 6 AM.  I got up and turned the TV off, but it turned itself back on 10 minutes later. Finally, I unplugged it from the wall. (I didn't even know that TVs had alarm function.)No "Do not disturb" sign was available in my son's room, so (conscientious) housekeeping awakened him several times through the morning.  Little thing, but hotels primary function is to allow good sleep.Aside from sleep, the rooms were nice. Fridge, microwave, coffee maker.  Sitting area with couch and lounge chair. Noisy during day of check in. Loud function in dining area. Leaf blower blasting in courtyard. (why don't gardeners ever use brooms?)Breakfast was usual HI Express affair: free and fast hot food.  Coffee is weak, so bring your own if you like it strong. My wife wasn't impressed with the breakfast, spoiled from last stay at Embassy Suites.More</t>
   </si>
   <si>
-    <t>Lv K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r524516903-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -234,13 +362,59 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>We stayed here due to my husband's work.  This is conveniently located and close to many restaurants near by and within 5 miles.  Hotel is a good Holiday Inn Express level.  When I left the hotel, I must have left my night guard in the bathroom.  When I called the hotel, the front desk immediately told me they have the item.  When I ask them to mailed it to me and I will pay for the postage.  After checking with her manager, the front desk lady told me that they will mail it to me free of charge!!!  WOW! what a service!!!  Also, the front desk persons were very friendly.  Every time was walk by the front desk, they would greet us with smile.  The only negative thing is that you need to drive into the hotel parking lot from the side street instead of the Arrow HWY, even with the GPS, we missed the hotel and had to make a u-turn and find the side street to get into the hotel.More</t>
   </si>
   <si>
-    <t>Manuel H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r519131867-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>519131867</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Overpriced for how many problems encountered</t>
+  </si>
+  <si>
+    <t>For $166/night for a king room in SAN DIMAS I would expect much more, came very close to checking out early and find another place but was on a hectic trip and didn't have time.
+The room itself looks nice, reasonably comfortable bed, large room and bathroom.
+Here are the minuses:
+-- A/C wasn't working properly, was set to 60 degrees and fan constantly on High (vs. Auto), woke up at 4:30 am boiling.  A/C was not on, the High fan setting was ignored, fan was not on constantly.  Called front desk at 4:30 am, was told would have a repair person there first thing in the morning, didn't happen.  As of noon when I came back to my room no one had come so called again.  Someone came and did something to it to make it work properly but you could tell the A/C is somehow setup to not run too much.  At breakfast the last morning a group of women next to us complained they woke up in the middle of the night sweating due to hot room, this is definitely not an isolated problem.
+-- TV would turn on for 30 seconds then shutoff.  Repair person had to replace TV.
+-- Weird motion sensor light at entryway was super annoying when you'd get up in the middle of the night and it would blare light at you then difficult to get it to go off to go...For $166/night for a king room in SAN DIMAS I would expect much more, came very close to checking out early and find another place but was on a hectic trip and didn't have time.The room itself looks nice, reasonably comfortable bed, large room and bathroom.Here are the minuses:-- A/C wasn't working properly, was set to 60 degrees and fan constantly on High (vs. Auto), woke up at 4:30 am boiling.  A/C was not on, the High fan setting was ignored, fan was not on constantly.  Called front desk at 4:30 am, was told would have a repair person there first thing in the morning, didn't happen.  As of noon when I came back to my room no one had come so called again.  Someone came and did something to it to make it work properly but you could tell the A/C is somehow setup to not run too much.  At breakfast the last morning a group of women next to us complained they woke up in the middle of the night sweating due to hot room, this is definitely not an isolated problem.-- TV would turn on for 30 seconds then shutoff.  Repair person had to replace TV.-- Weird motion sensor light at entryway was super annoying when you'd get up in the middle of the night and it would blare light at you then difficult to get it to go off to go back to sleep.  Just put a regular light switch in!!!!-- Alarm clock when set to Radio On to wake to doesn't work (even though verified set to a valid FM station), woke up late the first morning due to this, switching to buzzer did work.-- Every day they deactivated our key cards forcing us to go to front desk each day to get them activated (happened to both key cards), I travel a lot and have never seen this type of problem.-- Parking is bizarre, spread all over and the back area that was most often available was very isolated, felt like it was designed for criminals to break into your car.-- WiFi would cause you to go through entering a passcode nearly each time I'd use it (as in multiple times per day), you should only need to log into WiFi once for your visit.  Wasn't given the passcode at check-in, had to get it from repair person, sloppy check-in process to not give it.-- For $166/night for SAN DIMAS I expect MUCH more.  Caveat emptor.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express San Dimas, responded to this reviewResponded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2017</t>
+  </si>
+  <si>
+    <t>For $166/night for a king room in SAN DIMAS I would expect much more, came very close to checking out early and find another place but was on a hectic trip and didn't have time.
+The room itself looks nice, reasonably comfortable bed, large room and bathroom.
+Here are the minuses:
+-- A/C wasn't working properly, was set to 60 degrees and fan constantly on High (vs. Auto), woke up at 4:30 am boiling.  A/C was not on, the High fan setting was ignored, fan was not on constantly.  Called front desk at 4:30 am, was told would have a repair person there first thing in the morning, didn't happen.  As of noon when I came back to my room no one had come so called again.  Someone came and did something to it to make it work properly but you could tell the A/C is somehow setup to not run too much.  At breakfast the last morning a group of women next to us complained they woke up in the middle of the night sweating due to hot room, this is definitely not an isolated problem.
+-- TV would turn on for 30 seconds then shutoff.  Repair person had to replace TV.
+-- Weird motion sensor light at entryway was super annoying when you'd get up in the middle of the night and it would blare light at you then difficult to get it to go off to go...For $166/night for a king room in SAN DIMAS I would expect much more, came very close to checking out early and find another place but was on a hectic trip and didn't have time.The room itself looks nice, reasonably comfortable bed, large room and bathroom.Here are the minuses:-- A/C wasn't working properly, was set to 60 degrees and fan constantly on High (vs. Auto), woke up at 4:30 am boiling.  A/C was not on, the High fan setting was ignored, fan was not on constantly.  Called front desk at 4:30 am, was told would have a repair person there first thing in the morning, didn't happen.  As of noon when I came back to my room no one had come so called again.  Someone came and did something to it to make it work properly but you could tell the A/C is somehow setup to not run too much.  At breakfast the last morning a group of women next to us complained they woke up in the middle of the night sweating due to hot room, this is definitely not an isolated problem.-- TV would turn on for 30 seconds then shutoff.  Repair person had to replace TV.-- Weird motion sensor light at entryway was super annoying when you'd get up in the middle of the night and it would blare light at you then difficult to get it to go off to go back to sleep.  Just put a regular light switch in!!!!-- Alarm clock when set to Radio On to wake to doesn't work (even though verified set to a valid FM station), woke up late the first morning due to this, switching to buzzer did work.-- Every day they deactivated our key cards forcing us to go to front desk each day to get them activated (happened to both key cards), I travel a lot and have never seen this type of problem.-- Parking is bizarre, spread all over and the back area that was most often available was very isolated, felt like it was designed for criminals to break into your car.-- WiFi would cause you to go through entering a passcode nearly each time I'd use it (as in multiple times per day), you should only need to log into WiFi once for your visit.  Wasn't given the passcode at check-in, had to get it from repair person, sloppy check-in process to not give it.-- For $166/night for SAN DIMAS I expect MUCH more.  Caveat emptor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r515585255-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>515585255</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solid 3 star Hotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for a friends wedding.. Solid 3 star hotel.. Friendly staff, easy check in. Room is a decent size with sofa.. Has a microwave and fridge and sink. Solid AC..Hot breakfast in the am with pancakes, eggs and sausage was good..Perfect for our weekend. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r509773890-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
@@ -258,12 +432,6 @@
     <t>This hotel doesn't look like much from the outside but it's clean and the staff is friendly. The rooms although a little dated are very clean. I honestly didn't know San Dimas was such a great little city with lots of history. We stayed one night passing through on the way to the Metallica concert in Pasadena. The price was very affordable and restaurants are within walking distance.  The parking was free and breakfast was in the morning. I would recommend this to anyone passing through the area.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>solliev</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r503673103-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -291,9 +459,6 @@
     <t>If you look outside, it's not that pleasing, but very nice inside the room. I really appreciate Lisa called me to verify the room that I like and checked me in over the phone. Receptionist was nice and helpful. Recommended for stay.More</t>
   </si>
   <si>
-    <t>Bertrand N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r482768748-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -312,7 +477,52 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t>bettynoodles123</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r463610206-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>463610206</t>
+  </si>
+  <si>
+    <t>02/28/2017</t>
+  </si>
+  <si>
+    <t>My "Go To" Hotel in the San Dimas area</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel multiple times ranging from 10 to 18 nights each stay. This hotel is well maintained, clean and provides a feeling of security. The pool and hot tub area provide a great place to relax after a long day of working.The housekeeping staff always does a thorough job of ensuring your room is as comfortable as possible on a daily basis. Isabel always has a smile on her face and a friendly hello when you see her.Faith, Daniela and Alex at the front desk do an excellent job. They always greet you with a smile and a great attitude. Each one of them are more than willing to assist each guest any way they can to provide the best service in the area. I won't stay anywhere but here when I'm in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel multiple times ranging from 10 to 18 nights each stay. This hotel is well maintained, clean and provides a feeling of security. The pool and hot tub area provide a great place to relax after a long day of working.The housekeeping staff always does a thorough job of ensuring your room is as comfortable as possible on a daily basis. Isabel always has a smile on her face and a friendly hello when you see her.Faith, Daniela and Alex at the front desk do an excellent job. They always greet you with a smile and a great attitude. Each one of them are more than willing to assist each guest any way they can to provide the best service in the area. I won't stay anywhere but here when I'm in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r454627717-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>454627717</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good location but dated. </t>
+  </si>
+  <si>
+    <t>Not a fan of exterior entry hotels. There were a lot of Hampton Inns like this and they got rid of all of them. I know this is California but at 37 degrees this morning it's not a pleasant walk down for breakfast. Also the sound insulation is not that great. Lots of noise above me last night, a really noisy AC unit that had nothing to do with the wall thermostat and also seemed to ignore the temp setting. Set at 60 my room was like 80 by morning. Parking is a bit tight in the front so the big dim lot in the back of the hotel is the only option as street parking is verboten. Next time I may look elsewhere. Nice staff though!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express San Dimas, responded to this reviewResponded February 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2017</t>
+  </si>
+  <si>
+    <t>Not a fan of exterior entry hotels. There were a lot of Hampton Inns like this and they got rid of all of them. I know this is California but at 37 degrees this morning it's not a pleasant walk down for breakfast. Also the sound insulation is not that great. Lots of noise above me last night, a really noisy AC unit that had nothing to do with the wall thermostat and also seemed to ignore the temp setting. Set at 60 my room was like 80 by morning. Parking is a bit tight in the front so the big dim lot in the back of the hotel is the only option as street parking is verboten. Next time I may look elsewhere. Nice staff though!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r449667423-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
@@ -333,9 +543,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>lcwonder</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r448407154-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -351,9 +558,6 @@
     <t>This is my second stay at the hotel and I returned as it was very clean and convenient. But the room I got has absolutely no wifi.  The list of available networks is null. If I walk over to the hotel lobby which is only 4 doors down on the same ground floor, I have wifi. This makes the facility unacceptable to me, I won't be coming back.MoreShow less</t>
   </si>
   <si>
-    <t>January 2017</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Holiday Inn Express San Dimas, responded to this reviewResponded January 18, 2017</t>
   </si>
   <si>
@@ -363,9 +567,6 @@
     <t>This is my second stay at the hotel and I returned as it was very clean and convenient. But the room I got has absolutely no wifi.  The list of available networks is null. If I walk over to the hotel lobby which is only 4 doors down on the same ground floor, I have wifi. This makes the facility unacceptable to me, I won't be coming back.More</t>
   </si>
   <si>
-    <t>Janet C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r440441809-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -375,9 +576,6 @@
     <t>11/27/2016</t>
   </si>
   <si>
-    <t>Relaxing stay</t>
-  </si>
-  <si>
     <t>We stayed for 4 nights as going to the drag races in Pomona.  Our stay was very comfortable after a long drive.  The staff were very friendly and obliging.  The rooms comfortable and well maintain except for our shower.  I know the shower heads have a water saving device but this one was stuck and couldn't be adjusted hence felt like the water was cutting into us when we showered.  The staff tried to fix it a couple of times but it appears the shower head will require replacing.  The breakfast was good, ran out of things a couple of times, didn't have to wait long before the trays were filled again.  Plenty of amenities when required.  Our room faced the pool. They had a laundry downstairs to freshen up clothing while travelling.MoreShow less</t>
   </si>
   <si>
@@ -387,7 +585,37 @@
     <t>We stayed for 4 nights as going to the drag races in Pomona.  Our stay was very comfortable after a long drive.  The staff were very friendly and obliging.  The rooms comfortable and well maintain except for our shower.  I know the shower heads have a water saving device but this one was stuck and couldn't be adjusted hence felt like the water was cutting into us when we showered.  The staff tried to fix it a couple of times but it appears the shower head will require replacing.  The breakfast was good, ran out of things a couple of times, didn't have to wait long before the trays were filled again.  Plenty of amenities when required.  Our room faced the pool. They had a laundry downstairs to freshen up clothing while travelling.More</t>
   </si>
   <si>
-    <t>Monica  B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r437940638-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>437940638</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>Sunny and Warm</t>
+  </si>
+  <si>
+    <t>Arrived early and our room was no ready, no problem as Samuel at the front desk gave us access to the pool area and recommended an excellent local Thai restaurant for lunch. Relaxed by the pool before and after lunch. Clean and quiet room. Samuel always greeted us when we went out each day on our way to Arcadia. Stayed 3 nights. Great weather, sunny and warm. Breakfast was adequate, met our needs to start the day.No issues. Recommend a safe for all rooms.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r407470943-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>407470943</t>
+  </si>
+  <si>
+    <t>08/19/2016</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>I have stayed here 4/5 times for work.  It is clean and above standard for this type of hotel.  The breakfast is not that good, but has fruit, and other items available.  Their is shopping and restaurants close by with a good variety.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r400929274-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
@@ -408,12 +636,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>DipAynio</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r396534760-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -429,9 +651,6 @@
     <t>Arrived and met by a really helpful receptionist very attentive Can't say it's a hotel as its more like mini appts around a small pool area Everything from inside the room to the outside of the car park was very cleanA five minute to bar/restaurants shops etcThe free breaky was standard express stuff  But a bagel coffee and fruit juice are enough Thanks if we are around San dimas I would stay again</t>
   </si>
   <si>
-    <t>denise k</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r382354564-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -459,7 +678,46 @@
     <t>Half of the rooms outlets didn't work, I am on oxygen so I need them; had to unplug clock. Had to park in the back, car was broken into, and trashed. was told I would have to wait 2 hours to see manager Had to leave.More</t>
   </si>
   <si>
-    <t>jim b</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r380926418-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>380926418</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>stayed here and was very comfortable.  The room was very clean. Bed was more than comfortable.  I especially like the in room shampoos, lotion, mouthwash.  Very high quality.  Complemintary water bottles give to quest also.  Very nice touch.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r376150901-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>376150901</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Should have been better</t>
+  </si>
+  <si>
+    <t>The design, layout and features are great on paper.  However, faucet leaked, had no shower curtain (at first), musty smell, beds are hard and near non-existent internet.  I specifically called about the internet and at this point I don't think the staff knew any better.  All were reported the first day of 5 days and none were repaired.  I travel quite a bit and don't mind paying for a good experience.  Asked for the manager and never heard from them.  Staff is accommodating, friendly, but was unable to resolve problems.  In my view this could be a great place to stay if not so poorly managed.  Location and freeway access are great.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express San Dimas, responded to this reviewResponded June 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2016</t>
+  </si>
+  <si>
+    <t>The design, layout and features are great on paper.  However, faucet leaked, had no shower curtain (at first), musty smell, beds are hard and near non-existent internet.  I specifically called about the internet and at this point I don't think the staff knew any better.  All were reported the first day of 5 days and none were repaired.  I travel quite a bit and don't mind paying for a good experience.  Asked for the manager and never heard from them.  Staff is accommodating, friendly, but was unable to resolve problems.  In my view this could be a great place to stay if not so poorly managed.  Location and freeway access are great.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r375126294-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
@@ -477,9 +735,6 @@
     <t>Not brand new, but not run down either.  They do an excellent job of keeping the courtyard up. Probably a better than average HIE facility.They refused to honor the price on the reservation until we showed them the print-out.  No laundry or exercise room.MoreShow less</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Holiday Inn Express San Dimas, responded to this reviewResponded June 6, 2016</t>
   </si>
   <si>
@@ -489,9 +744,6 @@
     <t>Not brand new, but not run down either.  They do an excellent job of keeping the courtyard up. Probably a better than average HIE facility.They refused to honor the price on the reservation until we showed them the print-out.  No laundry or exercise room.More</t>
   </si>
   <si>
-    <t>RenoBill</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r370005356-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -513,9 +765,6 @@
     <t>This was an attractive hotel, much nicer than the usual somewhat sterile buildings that house most hotels.  Rooms were relatively spacious, beds and pillows were comfortable, TV and internet worked well.  Bedroom and bathroom were clean.Breakfast room was very small, which meant having to wait for a table, not a good experience when you haven't a lot of time.  At least USA Today was available to pass the time while waiting.  The breakfast itself was only OK, but typical for this sort of hotel.I would stay here again.Parking was barely adequate - I got the last spot.  So I don't know what you do when the lot is full.The chair for the desk was miserable, very low and unable to raise it.  I tried to swap it out but other chairs were no better.The area has plenty of strip malls, including numerous options for food and shopping.More</t>
   </si>
   <si>
-    <t>Eulalia_3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r363383447-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -534,7 +783,49 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>lenna187</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r348210774-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>348210774</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>All that's needed for business travel</t>
+  </si>
+  <si>
+    <t>The hotel was very clean. It is on a basic 'strip' in town, walking distance to  restaurants and shopping if necessary. The staff was good and solid when needed. There is a good work space in the room for business and your computer. Good beds.No views.Good morning buffet to get up and out with a very friendly morning staff.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r347893311-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>347893311</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>College tour stopoff</t>
+  </si>
+  <si>
+    <t>Good beds, decent fitness center and breakfast, helpful staff. So I would say good value.  But there are frequent train whistles and the windows are not double paned. Sleep was the first requirement and they failed. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express San Dimas, responded to this reviewResponded March 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2016</t>
+  </si>
+  <si>
+    <t>Good beds, decent fitness center and breakfast, helpful staff. So I would say good value.  But there are frequent train whistles and the windows are not double paned. Sleep was the first requirement and they failed. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r339404828-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
@@ -570,15 +861,9 @@
     <t>This is a newer property in very good condition. I like to stay here since they have suites --  two full beds in a room separated by the bathroom,  sofa bed and additional TV in the next room. It provides just enough privacy for two parents traveling with an older child who doesn't really like sharing a room with them. The extra cost is well worth it.  The complimentary breakfast was not anything to write home about but at least the coffee was decent. The poor WiFi reception was very disappointing, it was sporadic to the point of being unusable. I wanted to mention that the manager who was there before and after Thanksgiving was extremely friendly and welcoming. He also did not hassle me about the fact that I was 30 minutes late checking out.MoreShow less</t>
   </si>
   <si>
-    <t>November 2015</t>
-  </si>
-  <si>
     <t>This is a newer property in very good condition. I like to stay here since they have suites --  two full beds in a room separated by the bathroom,  sofa bed and additional TV in the next room. It provides just enough privacy for two parents traveling with an older child who doesn't really like sharing a room with them. The extra cost is well worth it.  The complimentary breakfast was not anything to write home about but at least the coffee was decent. The poor WiFi reception was very disappointing, it was sporadic to the point of being unusable. I wanted to mention that the manager who was there before and after Thanksgiving was extremely friendly and welcoming. He also did not hassle me about the fact that I was 30 minutes late checking out.More</t>
   </si>
   <si>
-    <t>JimNepo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r293023132-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -600,7 +885,37 @@
     <t>We stayed here for a wedding happening in town.  The hotel was recommended by family members who are actually professional hotel managers in the Southern California region.  We were not disappointed.  The room was clean, passing my "hair test" with no hair found in the room.  The room and bathroom were also large..definitely not NY City size.  The vanity and sink were in the main room, not inside the bathroom itself, so perhaps an advantage if two people are trying to get ready for the day and they are in a hurry, but a disadvantage with regard to privacy. Even though the guests next door had small, loud children, we were only aware of this when we would open the door in the morning.  So, a well-insulated hotel design with regard to noise.    Most of the rooms look out to center courtyard that contains a clean looking pool and hot tub, although we did not try either.   Wi Fi was free and speedy enough.  I tried going to their business center to print out some boarding passes, but neither of the two printers they had there seemed to be functioning.  I didn't ask for help though because the front desk was busy checking folks in.  The complimentary breakfast was popular and good.  It was more than just continental, but strictly "serve yourself"  They had several customized machines associated with serving breakfast that I have never seen before, and appeared to...We stayed here for a wedding happening in town.  The hotel was recommended by family members who are actually professional hotel managers in the Southern California region.  We were not disappointed.  The room was clean, passing my "hair test" with no hair found in the room.  The room and bathroom were also large..definitely not NY City size.  The vanity and sink were in the main room, not inside the bathroom itself, so perhaps an advantage if two people are trying to get ready for the day and they are in a hurry, but a disadvantage with regard to privacy. Even though the guests next door had small, loud children, we were only aware of this when we would open the door in the morning.  So, a well-insulated hotel design with regard to noise.    Most of the rooms look out to center courtyard that contains a clean looking pool and hot tub, although we did not try either.   Wi Fi was free and speedy enough.  I tried going to their business center to print out some boarding passes, but neither of the two printers they had there seemed to be functioning.  I didn't ask for help though because the front desk was busy checking folks in.  The complimentary breakfast was popular and good.  It was more than just continental, but strictly "serve yourself"  They had several customized machines associated with serving breakfast that I have never seen before, and appeared to be part of a Holiday Inn branded breakfast experience.  One machine, for instance, served fresh pancakes to your plate in just a minute or two...pretty neat!    This hotel is perfect for getting a good night's sleep and then getting things done the next day.  It is not a destination on its own...just a good functioning place to rest.More</t>
   </si>
   <si>
-    <t>drdroad</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r283940917-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>283940917</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>Convenient, Clean and very friendly staff</t>
+  </si>
+  <si>
+    <t>I did not find this hotel to be expensive.  We stayed on a Saturday night for $142 plus tax, with our AAA discount.  Staff very friendly and accommodating.  Three fairly major restaurants within walking distance.  Conveniently located right off the freeway so it was super easy to find.  Size of the hotel was really nice, not so big you felt lost.  Lovely added features - small refrigerator, microwave and sink.  Pretty landscaping around the pool area as well.  We enjoyed our time there with family and friends and I would have no hesitation in recommending this hotel to anyone.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r279984164-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>279984164</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>Great for the Late Sleeper's</t>
+  </si>
+  <si>
+    <t>This is a nicely located Hotel close to Old Town and easy to find. It's very clean and nicely appointed. It's has a all the rooms facing into a central courtyard with a beautiful pool. The Lobby and Breakfast area's are large and the fitness room is excellent. The Staff was very helpful and courteous. Since all the rooms face inward, the parking lot is on the outside, the morning shuffle doesn't wake you up.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r277092638-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
@@ -621,9 +936,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>beachyogagirl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r253898736-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -642,9 +954,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>GNZ_M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r249927410-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -672,7 +981,48 @@
     <t>We especially like the location of the hotel. It is in an area where you could dine and get a drink. Our room was on the second floor with a large window facing the pool facing the pool area. It was clean, nothing really special except a sofa sleeper, microwave and a fridge in the room. They have complimentary continental breakfast. I was impressed by their tea selection. There are enough options for an early morning eat. Parking and internet were also included in the room price. I would recommend it to families with one or two kids. Everything including service was very standard. The lady served breakfast was kind.More</t>
   </si>
   <si>
-    <t>fool4travelin</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r234225496-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>234225496</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>Atypically good breakfast for this to be an IHG property</t>
+  </si>
+  <si>
+    <t>This hotel can be deceiving.  From the street view, my impression was that it was truly a hotel - where guests access their rooms from an interior lobby and corridor; not a former motel - where all guest rooms have exterior entries.  So you walk inside to reach the lobby for check in, then proceed outdoors to the elevator to access the outdoor walkway leading to all guest rooms.  There aren't even automated or sliding doors to access the elevator, which is quite inconvenient for us business traveler's with at least one rolling suitcase and a wheeled laptop bag.  Perhaps in some eras, this er 'feature' would have been considered eccentric, or perhaps a novelty.  I do not belong to that era.  
+If, after pushing all the furniture that will move against the exterior door, allows you a restful night's sleep; however, you will be pleasantly surprised by the variety of breakfast offerings.  Many hotel brands today offer the same standard, cardboard-tasting, gluten-filled and mass-produced junk that most people do not enjoy and would never buy themselves, but force themselves to stomach so they can arrive at their client believing they have taken in some energy.   I prefer assorted fresh fruits, REAL eggs, regular (not pre-sweetened or artificially flavored) oatmeal that I may spice up with cinnamon and nuts, and yogurt that is NOT non-fat (because those are only filled with all sorts of poisons and fake sugar additives that...This hotel can be deceiving.  From the street view, my impression was that it was truly a hotel - where guests access their rooms from an interior lobby and corridor; not a former motel - where all guest rooms have exterior entries.  So you walk inside to reach the lobby for check in, then proceed outdoors to the elevator to access the outdoor walkway leading to all guest rooms.  There aren't even automated or sliding doors to access the elevator, which is quite inconvenient for us business traveler's with at least one rolling suitcase and a wheeled laptop bag.  Perhaps in some eras, this er 'feature' would have been considered eccentric, or perhaps a novelty.  I do not belong to that era.  If, after pushing all the furniture that will move against the exterior door, allows you a restful night's sleep; however, you will be pleasantly surprised by the variety of breakfast offerings.  Many hotel brands today offer the same standard, cardboard-tasting, gluten-filled and mass-produced junk that most people do not enjoy and would never buy themselves, but force themselves to stomach so they can arrive at their client believing they have taken in some energy.   I prefer assorted fresh fruits, REAL eggs, regular (not pre-sweetened or artificially flavored) oatmeal that I may spice up with cinnamon and nuts, and yogurt that is NOT non-fat (because those are only filled with all sorts of poisons and fake sugar additives that are even more harmful).  This hotel offers all of that AND REAL bread items too!   I was in breakfast heaven!  It was ALMOST like I had done the shopping myself!  And the coffee actually has taste, I feel less like I am drinking that 'warm, brown stuff.'I did have a problem with the first room.  And unlike the nearby hotel where I regrettably spent the previous 4 weeks, the staff at this hotel actually took care of the problem AND did so promptly, and with smiles and courtesy!  How refreshing!The A/C units are also VERY noisy.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>This hotel can be deceiving.  From the street view, my impression was that it was truly a hotel - where guests access their rooms from an interior lobby and corridor; not a former motel - where all guest rooms have exterior entries.  So you walk inside to reach the lobby for check in, then proceed outdoors to the elevator to access the outdoor walkway leading to all guest rooms.  There aren't even automated or sliding doors to access the elevator, which is quite inconvenient for us business traveler's with at least one rolling suitcase and a wheeled laptop bag.  Perhaps in some eras, this er 'feature' would have been considered eccentric, or perhaps a novelty.  I do not belong to that era.  
+If, after pushing all the furniture that will move against the exterior door, allows you a restful night's sleep; however, you will be pleasantly surprised by the variety of breakfast offerings.  Many hotel brands today offer the same standard, cardboard-tasting, gluten-filled and mass-produced junk that most people do not enjoy and would never buy themselves, but force themselves to stomach so they can arrive at their client believing they have taken in some energy.   I prefer assorted fresh fruits, REAL eggs, regular (not pre-sweetened or artificially flavored) oatmeal that I may spice up with cinnamon and nuts, and yogurt that is NOT non-fat (because those are only filled with all sorts of poisons and fake sugar additives that...This hotel can be deceiving.  From the street view, my impression was that it was truly a hotel - where guests access their rooms from an interior lobby and corridor; not a former motel - where all guest rooms have exterior entries.  So you walk inside to reach the lobby for check in, then proceed outdoors to the elevator to access the outdoor walkway leading to all guest rooms.  There aren't even automated or sliding doors to access the elevator, which is quite inconvenient for us business traveler's with at least one rolling suitcase and a wheeled laptop bag.  Perhaps in some eras, this er 'feature' would have been considered eccentric, or perhaps a novelty.  I do not belong to that era.  If, after pushing all the furniture that will move against the exterior door, allows you a restful night's sleep; however, you will be pleasantly surprised by the variety of breakfast offerings.  Many hotel brands today offer the same standard, cardboard-tasting, gluten-filled and mass-produced junk that most people do not enjoy and would never buy themselves, but force themselves to stomach so they can arrive at their client believing they have taken in some energy.   I prefer assorted fresh fruits, REAL eggs, regular (not pre-sweetened or artificially flavored) oatmeal that I may spice up with cinnamon and nuts, and yogurt that is NOT non-fat (because those are only filled with all sorts of poisons and fake sugar additives that are even more harmful).  This hotel offers all of that AND REAL bread items too!   I was in breakfast heaven!  It was ALMOST like I had done the shopping myself!  And the coffee actually has taste, I feel less like I am drinking that 'warm, brown stuff.'I did have a problem with the first room.  And unlike the nearby hotel where I regrettably spent the previous 4 weeks, the staff at this hotel actually took care of the problem AND did so promptly, and with smiles and courtesy!  How refreshing!The A/C units are also VERY noisy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r230329388-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>230329388</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>A nice and well located hotel. Most of the staff were very friendly. Only bad one was when complaining about maid forgetting to clean room one night, the front desk woman never apologized. Other than that, everyone was great.Breakfast not fancy but offered enough choices. Skip the so called eggs though. All the breakfast staff were very friendly and a pleasure to talk to.Room seemed older but in decent shape. Had a 2 bed plus sofa sleeper. Room is called a suite but is tight with 3 people. Comfortable bed. Everything was clean and appreciated an empty refrigerator to keep drinks. Came with microwave too.Had no problem printing from the available computers in the lobby.Would definitely stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>A nice and well located hotel. Most of the staff were very friendly. Only bad one was when complaining about maid forgetting to clean room one night, the front desk woman never apologized. Other than that, everyone was great.Breakfast not fancy but offered enough choices. Skip the so called eggs though. All the breakfast staff were very friendly and a pleasure to talk to.Room seemed older but in decent shape. Had a 2 bed plus sofa sleeper. Room is called a suite but is tight with 3 people. Comfortable bed. Everything was clean and appreciated an empty refrigerator to keep drinks. Came with microwave too.Had no problem printing from the available computers in the lobby.Would definitely stay again!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r220763367-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
@@ -700,9 +1050,6 @@
   </si>
   <si>
     <t>We just stayed here and the hotel is typical for a holiday inn express and it had pretty easy access to highways.  The front desk staff at check-in was not very helpfull and almost a little rude. I have since been back in to front desk and other employes have been a little more helpful.More</t>
-  </si>
-  <si>
-    <t>935teresa</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r206247371-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
@@ -754,9 +1101,6 @@
 When I arrived/check in to my room, the front door to my room was fully open and the room entirely dark. I did enter the room and complete a check (bathroom, closet, etc) to ensure no one was inside the room. Maybe not the wisest deciion I made, fortunately all was good. The front desk said maintenance was in...I spent one night and was pleased with my stay and I would again stay at this property. Security of the room was questionable upon my arrival. Lots of positives:- Room was large, comfortable, very clean, carpets clean (no spots). - Small (3 floors)- The lobby and rooms were fresh, no stale or strange odors. - Doorways are facing inside the property and entry is secured from all gates (but not from the lobby entrance). - They have a nice pool area with pleasing landscaping surrounding the pool area. - Customer service was good. - WIthin walking distance of local eateries. - The surrounding area is very nice, safe, and easy to access gas, food, groceries, etc. - Near the highway wtihout being next to the highway- Complimentary breakfast - the staff kept the food stocked during the morning. Some minusesParking is limited, and sometimes guests will need to park on the street. Fortuantely, the hotel was not full and after having left the hotel to return around midnight, I was able to park on the property. When I arrived/check in to my room, the front door to my room was fully open and the room entirely dark. I did enter the room and complete a check (bathroom, closet, etc) to ensure no one was inside the room. Maybe not the wisest deciion I made, fortunately all was good. The front desk said maintenance was in the room, checking carpet stains, and must have left the door wide open prior to my arrival. The complimentary breakfasts are not my favorite at hotels. Other than fruit, no other true whole food options (without chemicals and perservatives).More</t>
   </si>
   <si>
-    <t>BolingbrookKaren</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r199648779-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -782,7 +1126,40 @@
 Room was  bigger than I thought it would be.  Two double beds, a sleeper sofa, desk, armchair, microwave, mini...I just spent three nights at this hotel while visiting a nearby university with my son.  There really aren't many hotels in the vicinity, so I was a bit apprehensive about what we might find.  I have to say I was pleasantly surprised. Every single one of the staff we met was very personable and "real".  They were interested in what we were doing, had great advice and responded very quickly to all of our requests and questions.  Whether it was where to grab a great pizza, or how to avoid the craziest of LA traffic.  No question, the staff made our stay.  Give them all a raise!!One to the nuts and bolts..... If you've stayed at a HIE previously,the style of the hotel is pretty standard. Nice outdoor pool and hot tub in the courtyard at this one, though.  All of the room doors face into this courtyard, so access is only through either the lobby or a locked gate from the parking area which requires your room key for access.  Beautiful flowers, lush grass, and a pretty walkway in the courtyard. Breakfast was standard, but more than adequate.  Hard boiled eggs, yogurt, granola, cereal, bagels, juice (passionfruit!), even an automatic pancake maker - yummy!  Plenty of free parking and the town of San Dimas was clean and safe.  Room was  bigger than I thought it would be.  Two double beds, a sleeper sofa, desk, armchair, microwave, mini fridge, wet bar type sink.  Nice wide vanity area so all three of us had room for our toiletries.  Super clean bathroom!The only items I would offer the management as areas for improvement would be the following:  the tiles running around the top edge of the pool and hot tub could use a good cleaning.  Carpeting in the room seemed to need a cleaning even though the rest of the room was spotless.  The A/C in the room is really noisy.....hard to hear the TV when the AC is running, plus it seems to shut down and not want to restart.Overall, I would give this hotel a big thumbs up.  Price was good for California standards as well.More</t>
   </si>
   <si>
-    <t>maureen1972</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r197189898-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>197189898</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>This one was nice</t>
+  </si>
+  <si>
+    <t>I read the reviews and was leery because of the "outside doors", but I needed a place.  I was pleasantly surprised by this one.  Safety wasn't an issue once I saw what was meant by outside facing doors.  All the doors are facing in, towards the pool area, not the exterior of the building ( from where I was anyway).The room was BIG, very nice and clean.  Not a monstrously big hotel.....actually pretty quaint.  Im sure the noise level will pick up when the days warm up, but I'll give this one another shot when I'm back.Plenty of eateries within a mile, big stores as well.    One of my "Top 5" Holiday Inn ExpressesMoreShow less</t>
+  </si>
+  <si>
+    <t>I read the reviews and was leery because of the "outside doors", but I needed a place.  I was pleasantly surprised by this one.  Safety wasn't an issue once I saw what was meant by outside facing doors.  All the doors are facing in, towards the pool area, not the exterior of the building ( from where I was anyway).The room was BIG, very nice and clean.  Not a monstrously big hotel.....actually pretty quaint.  Im sure the noise level will pick up when the days warm up, but I'll give this one another shot when I'm back.Plenty of eateries within a mile, big stores as well.    One of my "Top 5" Holiday Inn ExpressesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r192797401-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>192797401</t>
+  </si>
+  <si>
+    <t>02/01/2014</t>
+  </si>
+  <si>
+    <t>A most excellent and bodacious hotel!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the words of Bill and Ted, "A most excellent and bodacious" hotel!  The hot tub was very relaxing. Room was very clean. I always stay here when I am in the area for business.  Lots of restaurants and shopping in the area as well.  You can't go wrong with the free breakfast either. </t>
+  </si>
+  <si>
+    <t>January 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r189896269-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
@@ -800,12 +1177,6 @@
     <t>We stayed here over New Year's to attend Rose Bowl parade.  We were pleasantly surprised.  I had selected this hotel based on reviews from TA.   Room was larger than expected with many conveniences such as microwave, small fridge.  The complimentary breakfast was great although they could probably use more help as food items, including coffee, we're not always available.  I know they were busy.   They did get the items out but it took some time.  Overall a great place to stay and great accessibility to restaurants and shopping and freeways.</t>
   </si>
   <si>
-    <t>January 2014</t>
-  </si>
-  <si>
-    <t>psychemike</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r189407424-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -824,9 +1195,6 @@
     <t>December 2013</t>
   </si>
   <si>
-    <t>ColeQ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r179814781-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -854,7 +1222,40 @@
     <t>Let me start by saying there is nothing wrong with this hotel.  The room is clean and pretty comfortable. The staff is very friendly and helpful. But there's nothing here that made me think, I have to stay here each time I'm in this area. The property looks like it was an older hotel that has been updated. The lobby and outdoor pool and hot tub area look nice. The rooms are decent, but show some signs of the building's original age plus wear-and-tear since it's last remodel. The "soft" pillows were as lumpy as grandma's homemade oatmeal. There was a bit of mold and poor caulking around the tub/shower. In general, the hotel rooms is just not quite there, and I don't think is quite up to Holiday Inn Express standards, let alone higher standards.The breakfast area was clean and the assortment of food was really good, as it usually is at Holiday Inn Express hotels. There's not much here for the health-conscious eater, but otherwise it is fine. Overall, my experiencing here was fine, but I expected a bit more.More</t>
   </si>
   <si>
-    <t>wallis77</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r175822379-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>175822379</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>Huge suite</t>
+  </si>
+  <si>
+    <t>I booked a room with 2 queen beds because the king rooms were more than I wanted to spend. I was pleasantly surprised to find that our room (#214) was a very large suite with a sofa and desk. The room also had a microwave and refrigerator (no freezer).I believe the hotel is fairly new and maybe that's why the bed was a little harder than I am comfortable in. Probably most people would be okay with it.We stayed for a week so the choice at the free breakfast got boring, but it is free. The eggs varied from scrambled to flat to make an egg sandwich with. There was always yogurt, hard boiled eggs, pastries, cereal, packets to make hot oatmeal, and sometimes sausage or bacon. (you had to ask for hot water because the hot water machine was broken.)The pool and hot tub hours were too restrictive for us to use except one day. It opens at 10 am and closes at 10 pm. The pool is not heated. The hotel is nicely laid out and landscaped so the pool area is very pleasant and has some tables with umbrellas.The breakfast room staff was very friendly and the front desk was helpful. The printer didn't work to print out my boarding passes so the manager printed them at the front desk. I would definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked a room with 2 queen beds because the king rooms were more than I wanted to spend. I was pleasantly surprised to find that our room (#214) was a very large suite with a sofa and desk. The room also had a microwave and refrigerator (no freezer).I believe the hotel is fairly new and maybe that's why the bed was a little harder than I am comfortable in. Probably most people would be okay with it.We stayed for a week so the choice at the free breakfast got boring, but it is free. The eggs varied from scrambled to flat to make an egg sandwich with. There was always yogurt, hard boiled eggs, pastries, cereal, packets to make hot oatmeal, and sometimes sausage or bacon. (you had to ask for hot water because the hot water machine was broken.)The pool and hot tub hours were too restrictive for us to use except one day. It opens at 10 am and closes at 10 pm. The pool is not heated. The hotel is nicely laid out and landscaped so the pool area is very pleasant and has some tables with umbrellas.The breakfast room staff was very friendly and the front desk was helpful. The printer didn't work to print out my boarding passes so the manager printed them at the front desk. I would definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r174364956-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>174364956</t>
+  </si>
+  <si>
+    <t>08/27/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel and Staff</t>
+  </si>
+  <si>
+    <t>My wife and I have stayed here 3 times now. We have a Son that goes to La Verne and this hotel is just down the street. Folks at this Holiday Inn treat us like family and always welcome us when we arrive. The rooms are cleans and bright with lots of room and plenty of restaurants around. I agree with the other folks  comments, you can't go wrong staying at this location.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r166241122-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
@@ -875,9 +1276,6 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>pstefani1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r164936163-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -896,9 +1294,6 @@
     <t>We stayed at this hotel to attend our grandson's graduation in Pomona.  It was very close to the freeway and had a lot of restuarants within walking distance (Denny's, Applebee's and Red Robin, in addition to others), also, several stores within walkind distance and a GREAT Cost Plus across the street.The hotel was clean, friendly and offered a complimentary full breakfast with the price of the room. Our room had a refrigerator, microwave and coffee maker.  Everything worked great, including the air conditioner. The window could be cracked a little to let fresh air in. This is always a plus. The drapes kept out the sunlight and we slept in longer than we had in years.  The room was good size with a sofa and coffee table and comfortable bed.  There was a wonderful pool and also a spa.  It was quiet for the most part.  There was a large after wedding party but we were on the ground floor and didn't hear anything.We loved the full breakfast and especially enjoyed the pancake machine.  We would definitely stay here again.More</t>
   </si>
   <si>
-    <t>michsyw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r158795092-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -917,7 +1312,46 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t>Ifurita</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r157654274-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>157654274</t>
+  </si>
+  <si>
+    <t>04/13/2013</t>
+  </si>
+  <si>
+    <t>Best stay in area. New, immaculate and quiet. Highly recommend.</t>
+  </si>
+  <si>
+    <t>Best stay in area. We had a meeting in Claremont and decided to stay at this hotel based on the reviews. It is new, immaculately kept, quiet and well manicured. The beds are very comfortable and the room is very clean and pretty. Full breakfast was included. Great value.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r149259975-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>149259975</t>
+  </si>
+  <si>
+    <t>01/09/2013</t>
+  </si>
+  <si>
+    <t>Average Stay</t>
+  </si>
+  <si>
+    <t>I'm a IHG Gold Member and frequently stay at this hotel chain for work.  I recently stayed for multiple days with my husband and infant son.  I called ahead of time to arrange a crib, and was told it couldn't be guaranteed.  When we got there they informed us that the crib was now broken.  I asked if they were planning to buy a new one, but couldn't get an answer.  We ended up using the broken one (our choice), but the whole thing was a bit of a challenge.  The hotel itself is relatively new, but you can already see many maintenance issues being ignored (water damage in bathroom, peeling paint throughout hotel, etc.).  Amenities are limited, coffee is not provided throughout the day, and the breakfast is more limited than in other HIE hotels.  If you stay in this hotel soon, it may be ok, but in a year or so, I'm guessing that the maintenance issues and cleanliness will be a real problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express San Dimas, responded to this reviewResponded August 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2013</t>
+  </si>
+  <si>
+    <t>I'm a IHG Gold Member and frequently stay at this hotel chain for work.  I recently stayed for multiple days with my husband and infant son.  I called ahead of time to arrange a crib, and was told it couldn't be guaranteed.  When we got there they informed us that the crib was now broken.  I asked if they were planning to buy a new one, but couldn't get an answer.  We ended up using the broken one (our choice), but the whole thing was a bit of a challenge.  The hotel itself is relatively new, but you can already see many maintenance issues being ignored (water damage in bathroom, peeling paint throughout hotel, etc.).  Amenities are limited, coffee is not provided throughout the day, and the breakfast is more limited than in other HIE hotels.  If you stay in this hotel soon, it may be ok, but in a year or so, I'm guessing that the maintenance issues and cleanliness will be a real problem.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r148116929-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
@@ -944,9 +1378,6 @@
     <t>Horrible experience. Somehow they screwed up our reservation and gave us an already occupied room. Walked in on a gross, hairy guy in bed*. When we went to the front desk to get a new room the gal didn't seem too concerned. The 2nd room they gave us reeks of cig smoke. Waiting on a 3rd room... *this is why you should always use the "chain" on the door to avoid surprises. More</t>
   </si>
   <si>
-    <t>Lead63</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r146532428-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -965,9 +1396,6 @@
     <t>December 2012</t>
   </si>
   <si>
-    <t>JT P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r146238361-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -986,7 +1414,37 @@
     <t>November 2012</t>
   </si>
   <si>
-    <t>Jack50</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r145736836-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>145736836</t>
+  </si>
+  <si>
+    <t>11/19/2012</t>
+  </si>
+  <si>
+    <t>Unique hotel...center of hotel is a courtyard</t>
+  </si>
+  <si>
+    <t>This was a very nice hotel with a courtyard center.I always am a bit nervous when rooms open to the outside, but this was very safe.  You can't get to the courtyard center unless you enter the main lobby.  (or you have a room key)The hotel was pleasant and very clean and had a wonderful exercise room!The bathroom had a large counter.The staff were very friendly ... there was lots of shopping nearby.San Dimas seems to be a nice community.I would definitely return again!</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r143058505-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>143058505</t>
+  </si>
+  <si>
+    <t>10/17/2012</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised!</t>
+  </si>
+  <si>
+    <t>Nice rooms!  Good size &amp; up to date. Stayed in a regular King bed room. Granite counter tops, big flat screen TVs, microwave, fridge, little kitchen sink, etc. Nothing you'd expect form an "Inn".  Clean pool &amp; jacuzzi. Free breakfast in the morning with a nice variety.  Front desk &amp; breakfast staff was very nice &amp; helpful.  Even tho you enter your room from outside (not in indoor hallway) the area is all gated in &amp; you need a hotel room key to get in the gate from the parking lot.  So not just anyone will be walking by your room.  I highly recommend this place!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r142992970-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
@@ -1004,15 +1462,9 @@
     <t>This Holiday Inn has an interesting layout - all the rooms seem to face the courtyard and pool area, but it was very quiet during my stay.  Front desk was friendly and efficient during check in and check out. I had a suite and it was pretty clean.. pretty clean property all around.  Lots of places to eat in the local area. It seemed pretty safe. I guess my one con against this property is they just didnt seem to "go the extra step" to make my stay that extra pleasent.  Coffee needed replacing in the dining area when I checked in; could have used a few more towels, etc.. just that little extra I have noticed in other hotels that put them into the "excellent" catagory.  But I stay in a lot of hotels, so maybe I'm just a little extra picky? I would definately stay here again and would recommend it for business travelers..MoreShow less</t>
   </si>
   <si>
-    <t>October 2012</t>
-  </si>
-  <si>
     <t>This Holiday Inn has an interesting layout - all the rooms seem to face the courtyard and pool area, but it was very quiet during my stay.  Front desk was friendly and efficient during check in and check out. I had a suite and it was pretty clean.. pretty clean property all around.  Lots of places to eat in the local area. It seemed pretty safe. I guess my one con against this property is they just didnt seem to "go the extra step" to make my stay that extra pleasent.  Coffee needed replacing in the dining area when I checked in; could have used a few more towels, etc.. just that little extra I have noticed in other hotels that put them into the "excellent" catagory.  But I stay in a lot of hotels, so maybe I'm just a little extra picky? I would definately stay here again and would recommend it for business travelers..More</t>
   </si>
   <si>
-    <t>SPBlanchette</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r137507256-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1031,9 +1483,6 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>pestpilot</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r131671366-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1061,7 +1510,43 @@
     <t>First, I am not a fan of hotels where the room access is to the exterior.  I like the "security" of interior hallways.  So this is strike against this property.  I also don't like the smell of disinfectants as the cleaning agent.  Another strike against this hotel.Moving beyond that, the room was comfortable and the staff was friendly.  The breakfast person was very pleasant.  I like that.  Who needs a grump the first thing in the morning.  Breakfast started promptly at 6:00 am.  I like that as well.  I don't like the 6:30 am breakfast many properties offer.Check out was efficient and pleasant.I liked the location, right off the 57 with several eating options within walking distance.I did not get a Platinum upgrade.More</t>
   </si>
   <si>
-    <t>GueroChongo</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r130922093-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>130922093</t>
+  </si>
+  <si>
+    <t>05/29/2012</t>
+  </si>
+  <si>
+    <t>Nice suite, great service</t>
+  </si>
+  <si>
+    <t>We decided to get a king suite since the cost was not that much more between it and the regular king room. We arrived very late (almost midnight), but the staff were very friendly and helpful. Our room was neat, comfortable and quite (despite being next to the elevator/stairs). The hotel appeared to be fairly full as we had to park down in the extra lot at the lower part of the building, but I was able to walk through the beautiful grounds...the gardenia and star of jasmine smelled wonderful in the night air. The only downside to our room was the refrigerator temperature knob was broken when we got there, but the fridge worked. The breakfast buffet was a welcome surprise, I have never seen an automatic pancake maker before, but it really did make a good pancake in less than a minute.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>We decided to get a king suite since the cost was not that much more between it and the regular king room. We arrived very late (almost midnight), but the staff were very friendly and helpful. Our room was neat, comfortable and quite (despite being next to the elevator/stairs). The hotel appeared to be fairly full as we had to park down in the extra lot at the lower part of the building, but I was able to walk through the beautiful grounds...the gardenia and star of jasmine smelled wonderful in the night air. The only downside to our room was the refrigerator temperature knob was broken when we got there, but the fridge worked. The breakfast buffet was a welcome surprise, I have never seen an automatic pancake maker before, but it really did make a good pancake in less than a minute.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r130123289-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>130123289</t>
+  </si>
+  <si>
+    <t>05/17/2012</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, and great service!</t>
+  </si>
+  <si>
+    <t>We stayed here from March 9-16 during our spring break and can say that my kids were definitely happy. They were able to go downstairs for breakfast, while my husband and I slept a little longer. The staff was gracious enough to take care of them and help them with their breakfast choices. We thoroughly enjoyed our stay and will be back again. I travel on business quite a bit and this will be my choice the next time I am in the area. Thank you for doing a great job!</t>
+  </si>
+  <si>
+    <t>March 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r129526664-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
@@ -1089,9 +1574,6 @@
 Lots of good restaurants in walking distance.  I recommend Top Thai...Stayed here for three nights last week for business.  Stayed in a king single on the third (top) floor.  Got a higher floor room hoping for a bit of a view, but the room only had one window, opening on the balcony.  Long and narrow, it was pretty dark.  However, it was tomb-like quiet and I slept like a rock.  Also, because I was in a corner room, I couldn't get a consistent wireless signal.  No problem for me, however, because there was an ethernet cable on the desk, and the connection on it was smoking fast (for me, being from the sticks, at least--25mb/sec).  Others may be annoyed, however, so if you want wireless ask for a room near the router.Other than that, the place was good.  The exercise room is totally unmarked and hard to find (in the far corner from the lobby on the first floor), but is well maintained and has a range of equipment.  Breakfast was well stocked with good service.  (Example; they had no decaf out, but the gal brewed me some as soon as I asked.  The next two mornings, they had decaf out for me from the get-go).  Had some cleaning done, and they got it back to me the same day.  Housekeeping kept the room in top shape.  Overall, great service--would get a top rating except for the wireless.Lots of good restaurants in walking distance.  I recommend Top Thai over on Bonita, just on the other side of the tracks.,More</t>
   </si>
   <si>
-    <t>Bellablue80</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r128357431-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1114,9 +1596,6 @@
 Our room, 129, was on the first floor about mid-way down the corridor.  The "suite" had a separate living area with sofa, coffee table, end table, high back wicker chair and a desk with chair.  On the other side of a half wall was the TV console, flat screen Philips tv with DirectTV, king-size bed and a settee used as a luggage rack.  The granite "kitchenette" was made up of a small fridge, bar sink, shelves, microwave and single-serve coffee maker.  The closet was behind a full-length mirrored door and the bathroom counter and shower were also granite.  Free amenities included...We stayed at this Holiday Inn Express from 4/12/12 to 4/16/12.  Business has brought me to the area five times since last summer and I usually stay at a Comfort Inn.  Reading the reviews on TripAdvisor and the rate we were able to get (Government) really closed the deal for us.I checked in to the hotel at 5 pm on Thursday.  The lobby was large, open and bright.  The young lady at the front desk quickly checked me in without incident and informed me about breakfast hours and free Wifi.  When I arrived there were only a handful of cars in the parking lot.  The rooms were build facing into a courtyard that contained a pool, hot tub and a grassy area.  The pool and hot tub were fenced-in and there were several patio chairs and lounge chairs.  Our room, 129, was on the first floor about mid-way down the corridor.  The "suite" had a separate living area with sofa, coffee table, end table, high back wicker chair and a desk with chair.  On the other side of a half wall was the TV console, flat screen Philips tv with DirectTV, king-size bed and a settee used as a luggage rack.  The granite "kitchenette" was made up of a small fridge, bar sink, shelves, microwave and single-serve coffee maker.  The closet was behind a full-length mirrored door and the bathroom counter and shower were also granite.  Free amenities included coffee, tea, shampoo, conditioner, body lotion and toothpaste (available in the lobby).  The bed had two types of pillows, firm and soft, identifiable by the words embroidered on the pillow case.  There was no traditional bedspread like in other hotels, but a small throw was at the foot of the bed and a duvet was sandwiched between two flat sheets.  There was an extra, large blanket in the closet but we never used it.  Each night stand had a lamp and one had an alarm clock, with the phone being on the other.  There was also a hairdryer, iron and board and about 8 wooden hangers.  The bed was really comfortable and clean.  I thought the bathroom was a little dim, but the shower more than made up for it.  A heads up, the bathroom light switch has a motion detector, so if you're in the shower for too long without making much movement the lights will turn off on you.  This almost started WWIII between my partner and I.  The maid gave us new towels and fresh soap everyday but we never used the lotion or the shampoo.The first night we had no neighbors as the front desk was smart enough to space us out.  The following night our upstairs neighbors were quite loud and you could easily hear foot traffic above our room.  Luckily they were only there one night.  That was the only noisy incident that I could remember.For some reason the hotel seemed much busier during the week than on the weekend.  Thursday night and Friday night the parking lots were almost full, but then on the weekend it was just about 6 or so cars.  Very rarely would I see someone else in the corridor but I did see one guest take advantage of the lounge chairs and hot tub.Also available in the hotel is a guest laundry.  The hotel provides a laundry detergent and fabric softener vending machine, but when I went to use it it was out of soap.  I called the front desk and the lady told me they usually keep some up front.  On this occasion they were out up there too and she gave me a refund.  I was about to go to a local laundromat on East Arrow, about 3 miles away, and buy some powder and fabric sheets.  I see a lot of people complaining about the breakfast, but we liked most of what they served and were grateful that it was a full breakfast bar, not continental breakfast.  On weekdays, the breakfast opens at 6:30am, and on the weekend it opens at 7am, something to note.  Friday morning we were the first ones in the breakfast area and got fresh fruit, coffee, yogurt and cinnamon buns.  The coffee cups had lids so my partner was able to take his to work, but I brought my own reusable cup from home and filled it up.  I noticed there were also eggs, sausage, waffles, cold cereals, hot cereals, pastries, tea, milk and various fruit juices.  This was one of the most complete breakfast bars I have seen, especially in this price range.  If the breakfast bar was not up to your taste Starbucks and Panera were close by as well as IHOP.We very much enjoyed staying in this hotel and we even extended our stay by one day.  The a/c worked well, the black-out curtains very much appreciated and we were able to get some fresh air by opening the window.  The area contains several chain restaurants, a Target, Lowes, and Trader Joe's.  We bought some beverages and kept them in the fridge along with some snacks for late night munching.  San Dimas seemed like a very quiet and settled community and we would love to stay at this hotel again.More</t>
   </si>
   <si>
-    <t>MenloMichael</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r124812091-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1135,7 +1614,43 @@
     <t>February 2012</t>
   </si>
   <si>
-    <t>Janet W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r123628276-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>123628276</t>
+  </si>
+  <si>
+    <t>01/25/2012</t>
+  </si>
+  <si>
+    <t>Brand new HIE.</t>
+  </si>
+  <si>
+    <t>It is a perfect example of Holiday Inn Express Hotel. The room is very spacious with very comfortable beds.Breakfast was OK. I watched five big men eating corn flakes with milk, because all of the omlet and sausages were gone by 6:30am. After about 20 minutes hostess brought some more food. To my taste it was bad selection for breakfast. HIE stuck in the past. They still serve corn flakes and some colored bagels cereal. Why not serve granola? The bread was a sort of Great Value Walmart bread meant for people who careless about their health. Eggs had a taste of a powdered kind of eggs. Milk is only fat free and 2% fat. I would rather have 4% organic. I think HIE should have a second look at the breakfast menu.The hotel is pretty small and located in good neighborhood. Would love to come back there in summer.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>It is a perfect example of Holiday Inn Express Hotel. The room is very spacious with very comfortable beds.Breakfast was OK. I watched five big men eating corn flakes with milk, because all of the omlet and sausages were gone by 6:30am. After about 20 minutes hostess brought some more food. To my taste it was bad selection for breakfast. HIE stuck in the past. They still serve corn flakes and some colored bagels cereal. Why not serve granola? The bread was a sort of Great Value Walmart bread meant for people who careless about their health. Eggs had a taste of a powdered kind of eggs. Milk is only fat free and 2% fat. I would rather have 4% organic. I think HIE should have a second look at the breakfast menu.The hotel is pretty small and located in good neighborhood. Would love to come back there in summer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r123187964-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>123187964</t>
+  </si>
+  <si>
+    <t>01/16/2012</t>
+  </si>
+  <si>
+    <t>OK But Not Top Of The Line HIE</t>
+  </si>
+  <si>
+    <t>The room was fine. Up to HIE standards but our first breakfast was Sunday at 7 am when they open. Hardly anything was ready and we were in a rush. I was disappointed. Our next breakfast on Monday when we arrived an hour after they opened all was in order.The other problem was check in. The woman had a bad cold and looked like she didn't sleep the night before. I had to clean everything that she handled including the room keys and my hands so I didn't catch what she had. She should not have been at the front desk. By the way I'm not a clean freak nor do I usually notice such things but this incident disturbed me.I've stayed here before and I will stay here again. There are good restaurants in the area and convenient to the freeway..MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was fine. Up to HIE standards but our first breakfast was Sunday at 7 am when they open. Hardly anything was ready and we were in a rush. I was disappointed. Our next breakfast on Monday when we arrived an hour after they opened all was in order.The other problem was check in. The woman had a bad cold and looked like she didn't sleep the night before. I had to clean everything that she handled including the room keys and my hands so I didn't catch what she had. She should not have been at the front desk. By the way I'm not a clean freak nor do I usually notice such things but this incident disturbed me.I've stayed here before and I will stay here again. There are good restaurants in the area and convenient to the freeway..More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r122869712-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
@@ -1153,15 +1668,9 @@
     <t>My husband and I stayed at this hotel for 2 nights January 7th and 8th 2012. The bed was comfortable, the bathroom was nice, but needs more shelving in the shower. It had 2 little triangles for soap and shampoo but that was it. Nothing to hang the wash rag on. The TV was a flat screen and great with Direct TV. The room was clean but It was stuffy though overnight. It would have been nice if we could have opened the window even just a crack but not possible. The AC unit in the room was very noisy. How people sleep with that racket is beyond me. Good location with Red Robin, Appplebees, Starbucks and other restaurants. The front desk people were very nice. My husband said the breakfast was ok but don't eat the sausage, not good at all. Free internet was good, also the microwave and refrigerator. We may stay here again next time. Comfort Inn and Motel 6 were very nearby.MoreShow less</t>
   </si>
   <si>
-    <t>January 2012</t>
-  </si>
-  <si>
     <t>My husband and I stayed at this hotel for 2 nights January 7th and 8th 2012. The bed was comfortable, the bathroom was nice, but needs more shelving in the shower. It had 2 little triangles for soap and shampoo but that was it. Nothing to hang the wash rag on. The TV was a flat screen and great with Direct TV. The room was clean but It was stuffy though overnight. It would have been nice if we could have opened the window even just a crack but not possible. The AC unit in the room was very noisy. How people sleep with that racket is beyond me. Good location with Red Robin, Appplebees, Starbucks and other restaurants. The front desk people were very nice. My husband said the breakfast was ok but don't eat the sausage, not good at all. Free internet was good, also the microwave and refrigerator. We may stay here again next time. Comfort Inn and Motel 6 were very nearby.More</t>
   </si>
   <si>
-    <t>Roselle N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r120005124-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1183,9 +1692,6 @@
     <t>Stayed at the Holiday Inn Express San Dimas for a couple of days for business. Pro's:*New rooms (so new I don't think that my room had ever been stayed in and the new smell was almost overwhelming)*Cleanliness -- no complaints*Size: large sitting area with couch and chair and desk, king bed, kitchenette w/ micro, refrig and sink, vanity area, and large bathroom.*Very friendly staff on all shifts*Extensive breakfast offerings*Easily accessible business center although limited with only two computers and printers*Location: Near many restaurants, shops and major highwaysCon's*Doors open on the outside pool courtyard lending to a motel feel*Traffic could be heard periodically in the rooms (loud vehicles such as motorcycles / trucks*Hallway foot traffic also loud *Price is a bit high in comparison with other hotels in the areaI would stay here again but as the other reviewer stated, the price is high for a Holiday Inn Express.Liked — Location, newnessDisliked — Doors that opened to the outsideMore</t>
   </si>
   <si>
-    <t>gcjones</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r115796828-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1201,7 +1707,37 @@
     <t>Nice HIEx property, usual chain restaurants close by. Standard HIEx room. Went down for breakfast this morning and there were no cinnamon rolls, HIEX's signature breakfast item. Breakfast room attendant had no explanation. Not a major deal, but I stay at HIEx's all the time and this is the first time this has happened.</t>
   </si>
   <si>
-    <t>JJAMN</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r113962384-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>113962384</t>
+  </si>
+  <si>
+    <t>06/16/2011</t>
+  </si>
+  <si>
+    <t>If you have to stay in San Dimas, stay here!</t>
+  </si>
+  <si>
+    <t>Large rooms! CLEAN in the room and on property grounds.  NO HEATED POOL!!!! Our son learned the hard way!  The free stuff was just awesome!  Free internet, breakfast and parking.  The front desk staff at check in and check out were great! Would stay again!</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r110042075-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>110042075</t>
+  </si>
+  <si>
+    <t>05/26/2011</t>
+  </si>
+  <si>
+    <t>Very Good Stay - Best Property in San Dimas</t>
+  </si>
+  <si>
+    <t>Chose this hotel due to location as I didn't want to spend time fighting traffic.  The proprety is neat and clean and the room was very large.  Overall the property was quiet.  Bed was comfortable.  Room was appointed with large flat screen with Direct TV.  Plenty of hot water and nice shower.  My discounted rate was around $110.  Great value considering the prices of other national chains.  Standard HIE free breakfast, free internet.  I will stay here again.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r25401791-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
@@ -1222,9 +1758,6 @@
     <t>February 2009</t>
   </si>
   <si>
-    <t>crazytimes</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r22791279-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1246,9 +1779,6 @@
     <t>My girlfriend and I stayed one night at this Hotel, It's a new Hotel and as you would expect very clean. The desk clerk was very friendly and we found the room to be a very good size, clean and nice for the price. HOWEVER our room and my guess this entire hotel has been either designed poorly and or the contractor that built the Hotel cut some major corners. First problem we found was that you can hear thru the walls very easy. I know some hotels are like this however we felt that this place was pretty bad for new construction, I am pretty sure there was little to no insulation or sound proofing in the walls, but WAIT it gets much WORSE! The head board of the bed is fastened to the wall, but ONLY the top part of the head board is Fastened to the wall, the bottom of the head board floats against the bed and the wall, translation…….. boom, boom, boom ,boom, boooom, boooom, boooom, boooom, boooom,  boom, boom,  If you like to wake up your next door neighbor or if you like to get woken up by your next door neighbor by all means stay here. Believe me its load!!! However If I wanted to stay at a sex hotel I would of drove to HollywoodMore</t>
   </si>
   <si>
-    <t>southerntlc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r22508501-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1265,6 +1795,27 @@
   </si>
   <si>
     <t>Stayed at the Holiday Inn Express San Dimas for a couple of days for business.    Pro's:*New rooms  (so new I don't think that my room had ever been stayed in and the new smell was almost overwhelming)*Cleanliness -- no complaints*Size:  large sitting area with couch and chair and desk,   king bed,  kitchenette w/ micro,  refrig and sink,  vanity area,   and large bathroom.*Very friendly staff on all shifts*Extensive breakfast offerings*Easily accessible business center although limited with only two computers and printers*Location:  Near many restaurants, shops and major highwaysCon's*Doors open on the outside pool courtyard lending to a motel feel*Traffic could be heard periodically in the rooms (loud vehicles such as motorcycles / trucks*Hallway foot traffic also loud *Price is a bit high in comparison with other hotels in the areaI would stay here again but as the other reviewer stated,  the price is high for a Holiday Inn Express.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d609549-r21947098-Holiday_Inn_Express_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>21947098</t>
+  </si>
+  <si>
+    <t>11/17/2008</t>
+  </si>
+  <si>
+    <t>excellent, a bit pricy</t>
+  </si>
+  <si>
+    <t>Stayed there because of an extended power outage. The price is fairly high (the prices shown above are the rack rate, which is high) but the quality is excellent. The property is seemingly quiet every night and doesn't get much traffic, and doesn't show in any discount books or on the discount sites. Sound deadening is good since I was just outside the pool and could barely hear the people there. Staff is helpful and showed the room before I booked, a plus, since at the other hotel I went to, there was no one at the front desk for five minutes after I walked in. Don't know if it is worth $140 a night, but if someone else is covering the bill, I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>Stayed there because of an extended power outage. The price is fairly high (the prices shown above are the rack rate, which is high) but the quality is excellent. The property is seemingly quiet every night and doesn't get much traffic, and doesn't show in any discount books or on the discount sites. Sound deadening is good since I was just outside the pool and could barely hear the people there. Staff is helpful and showed the room before I booked, a plus, since at the other hotel I went to, there was no one at the front desk for five minutes after I walked in. Don't know if it is worth $140 a night, but if someone else is covering the bill, I would stay there again.More</t>
   </si>
 </sst>
 </file>
@@ -1769,83 +2320,83 @@
       <c r="A2" t="n">
         <v>54128</v>
       </c>
-      <c r="B2" t="n">
-        <v>60893</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>54128</v>
       </c>
-      <c r="B3" t="n">
-        <v>192381</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
         <v>56</v>
@@ -1860,7 +2411,7 @@
         <v>59</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>60</v>
@@ -1868,149 +2419,133 @@
       <c r="O3" t="s">
         <v>61</v>
       </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>54128</v>
       </c>
-      <c r="B4" t="n">
-        <v>192382</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>54128</v>
       </c>
-      <c r="B5" t="n">
-        <v>192383</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
@@ -2022,126 +2557,110 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>54128</v>
       </c>
-      <c r="B6" t="n">
-        <v>192384</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>88</v>
-      </c>
-      <c r="X6" t="s">
-        <v>89</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>54128</v>
       </c>
-      <c r="B7" t="n">
-        <v>192385</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
-      <c r="N7" t="s">
-        <v>97</v>
-      </c>
-      <c r="O7" t="s">
-        <v>72</v>
-      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
@@ -2154,195 +2673,175 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>54128</v>
       </c>
-      <c r="B8" t="n">
-        <v>192386</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
-      <c r="N8" t="s">
-        <v>104</v>
-      </c>
-      <c r="O8" t="s">
-        <v>61</v>
-      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>54128</v>
       </c>
-      <c r="B9" t="n">
-        <v>192387</v>
-      </c>
-      <c r="C9" t="s">
-        <v>105</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
       </c>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="X9" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>54128</v>
       </c>
-      <c r="B10" t="n">
-        <v>13896</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
         <v>80</v>
       </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
       <c r="R10" t="s"/>
       <c r="S10" t="n">
         <v>5</v>
@@ -2357,115 +2856,115 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>54128</v>
       </c>
-      <c r="B11" t="n">
-        <v>192388</v>
-      </c>
-      <c r="C11" t="s">
-        <v>123</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>130</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>114</v>
+      </c>
+      <c r="X11" t="s">
+        <v>115</v>
+      </c>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>54128</v>
       </c>
-      <c r="B12" t="n">
-        <v>192389</v>
-      </c>
-      <c r="C12" t="s">
-        <v>131</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2479,319 +2978,293 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>54128</v>
       </c>
-      <c r="B13" t="n">
-        <v>192390</v>
-      </c>
-      <c r="C13" t="s">
-        <v>137</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="O13" t="s">
         <v>61</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
-      <c r="S13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>144</v>
-      </c>
-      <c r="X13" t="s">
-        <v>145</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>54128</v>
       </c>
-      <c r="B14" t="n">
-        <v>192391</v>
-      </c>
-      <c r="C14" t="s">
-        <v>147</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="X14" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>54128</v>
       </c>
-      <c r="B15" t="n">
-        <v>192392</v>
-      </c>
-      <c r="C15" t="s">
-        <v>157</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="O15" t="s">
-        <v>163</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>4</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>54128</v>
       </c>
-      <c r="B16" t="n">
-        <v>42315</v>
-      </c>
-      <c r="C16" t="s">
-        <v>165</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>54128</v>
       </c>
-      <c r="B17" t="n">
-        <v>192393</v>
-      </c>
-      <c r="C17" t="s">
-        <v>172</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" t="s">
+        <v>80</v>
+      </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
@@ -2801,66 +3274,64 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>156</v>
+      </c>
+      <c r="X17" t="s">
+        <v>157</v>
+      </c>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>54128</v>
       </c>
-      <c r="B18" t="n">
-        <v>192386</v>
-      </c>
-      <c r="C18" t="s">
-        <v>105</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>5</v>
@@ -2871,61 +3342,57 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>54128</v>
       </c>
-      <c r="B19" t="n">
-        <v>192394</v>
-      </c>
-      <c r="C19" t="s">
-        <v>186</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
@@ -2935,69 +3402,69 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>170</v>
+      </c>
+      <c r="X19" t="s">
+        <v>171</v>
+      </c>
       <c r="Y19" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>54128</v>
       </c>
-      <c r="B20" t="n">
-        <v>192395</v>
-      </c>
-      <c r="C20" t="s">
-        <v>194</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="L20" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="O20" t="s">
-        <v>163</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="n">
         <v>5</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3005,632 +3472,544 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>54128</v>
       </c>
-      <c r="B21" t="n">
-        <v>192396</v>
-      </c>
-      <c r="C21" t="s">
-        <v>201</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="J21" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="K21" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="O21" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>54128</v>
       </c>
-      <c r="B22" t="n">
-        <v>192397</v>
-      </c>
-      <c r="C22" t="s">
-        <v>208</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="J22" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>215</v>
-      </c>
-      <c r="X22" t="s">
-        <v>216</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>54128</v>
       </c>
-      <c r="B23" t="n">
-        <v>61726</v>
-      </c>
-      <c r="C23" t="s">
-        <v>218</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="J23" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="K23" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>2</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>225</v>
-      </c>
-      <c r="X23" t="s">
-        <v>226</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>54128</v>
       </c>
-      <c r="B24" t="n">
-        <v>192398</v>
-      </c>
-      <c r="C24" t="s">
-        <v>228</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="O24" t="s">
-        <v>61</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>54128</v>
       </c>
-      <c r="B25" t="n">
-        <v>192399</v>
-      </c>
-      <c r="C25" t="s">
-        <v>236</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
       <c r="R25" t="n">
         <v>4</v>
       </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>207</v>
+      </c>
+      <c r="X25" t="s">
+        <v>208</v>
+      </c>
       <c r="Y25" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>54128</v>
       </c>
-      <c r="B26" t="n">
-        <v>192400</v>
-      </c>
-      <c r="C26" t="s">
-        <v>244</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="J26" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
-      <c r="N26" t="s">
-        <v>250</v>
-      </c>
-      <c r="O26" t="s">
-        <v>61</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>54128</v>
       </c>
-      <c r="B27" t="n">
-        <v>192401</v>
-      </c>
-      <c r="C27" t="s">
-        <v>251</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="J27" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>221</v>
+      </c>
+      <c r="X27" t="s">
+        <v>222</v>
+      </c>
       <c r="Y27" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>54128</v>
       </c>
-      <c r="B28" t="n">
-        <v>192402</v>
-      </c>
-      <c r="C28" t="s">
-        <v>258</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="J28" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="K28" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="O28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="X28" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="Y28" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>54128</v>
       </c>
-      <c r="B29" t="n">
-        <v>192403</v>
-      </c>
-      <c r="C29" t="s">
-        <v>268</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="J29" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K29" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="O29" t="s">
-        <v>130</v>
+        <v>237</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
       </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3638,66 +4017,58 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>54128</v>
       </c>
-      <c r="B30" t="n">
-        <v>192404</v>
-      </c>
-      <c r="C30" t="s">
-        <v>275</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="J30" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="K30" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="O30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="n">
         <v>5</v>
       </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3709,70 +4080,62 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>54128</v>
       </c>
-      <c r="B31" t="n">
-        <v>192405</v>
-      </c>
-      <c r="C31" t="s">
-        <v>282</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="J31" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="K31" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="O31" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3780,206 +4143,170 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>54128</v>
       </c>
-      <c r="B32" t="n">
-        <v>192406</v>
-      </c>
-      <c r="C32" t="s">
-        <v>289</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="J32" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="K32" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="L32" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" t="n">
         <v>3</v>
       </c>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
+      <c r="N32" t="s">
+        <v>256</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>1</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="X32" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="Y32" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>54128</v>
       </c>
-      <c r="B33" t="n">
-        <v>192407</v>
-      </c>
-      <c r="C33" t="s">
-        <v>298</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="J33" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="K33" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="L33" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
-      <c r="N33" t="s">
-        <v>304</v>
-      </c>
-      <c r="O33" t="s">
-        <v>72</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4</v>
-      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>54128</v>
       </c>
-      <c r="B34" t="n">
-        <v>192408</v>
-      </c>
-      <c r="C34" t="s">
-        <v>305</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="J34" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="K34" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="O34" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
         <v>5</v>
       </c>
@@ -3993,67 +4320,59 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>54128</v>
       </c>
-      <c r="B35" t="n">
-        <v>192409</v>
-      </c>
-      <c r="C35" t="s">
-        <v>312</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="J35" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="K35" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="L35" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="O35" t="s">
-        <v>72</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
         <v>5</v>
       </c>
       <c r="R35" t="n">
         <v>4</v>
       </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>4</v>
@@ -4064,63 +4383,55 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>54128</v>
       </c>
-      <c r="B36" t="n">
-        <v>192410</v>
-      </c>
-      <c r="C36" t="s">
-        <v>320</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="J36" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="K36" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="L36" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="O36" t="s">
-        <v>72</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
       <c r="R36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4135,66 +4446,58 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>54128</v>
       </c>
-      <c r="B37" t="n">
-        <v>192411</v>
-      </c>
-      <c r="C37" t="s">
-        <v>327</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="J37" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="K37" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="O37" t="s">
-        <v>72</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
@@ -4203,77 +4506,65 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>334</v>
-      </c>
-      <c r="X37" t="s">
-        <v>335</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>54128</v>
       </c>
-      <c r="B38" t="n">
-        <v>192412</v>
-      </c>
-      <c r="C38" t="s">
-        <v>337</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="J38" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="K38" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="L38" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="O38" t="s">
-        <v>72</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
       <c r="S38" t="n">
         <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4281,212 +4572,186 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>54128</v>
       </c>
-      <c r="B39" t="n">
-        <v>192413</v>
-      </c>
-      <c r="C39" t="s">
-        <v>345</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="J39" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="K39" t="s">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="O39" t="s">
-        <v>72</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>54128</v>
       </c>
-      <c r="B40" t="n">
-        <v>192414</v>
-      </c>
-      <c r="C40" t="s">
-        <v>352</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>353</v>
+        <v>302</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>354</v>
+        <v>303</v>
       </c>
       <c r="J40" t="s">
-        <v>355</v>
+        <v>304</v>
       </c>
       <c r="K40" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="O40" t="s">
-        <v>163</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
       <c r="R40" t="n">
         <v>5</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>308</v>
+      </c>
+      <c r="X40" t="s">
+        <v>309</v>
+      </c>
       <c r="Y40" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>54128</v>
       </c>
-      <c r="B41" t="n">
-        <v>17782</v>
-      </c>
-      <c r="C41" t="s">
-        <v>359</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="J41" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="K41" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="L41" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="O41" t="s">
         <v>80</v>
       </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="n">
         <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4494,70 +4759,62 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>54128</v>
       </c>
-      <c r="B42" t="n">
-        <v>192415</v>
-      </c>
-      <c r="C42" t="s">
-        <v>367</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="J42" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="K42" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="L42" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="O42" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4565,121 +4822,117 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>54128</v>
       </c>
-      <c r="B43" t="n">
-        <v>192416</v>
-      </c>
-      <c r="C43" t="s">
-        <v>375</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="J43" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="K43" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="L43" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>330</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
-        <v>4</v>
-      </c>
-      <c r="R43" t="n">
         <v>3</v>
       </c>
-      <c r="S43" t="n">
-        <v>4</v>
-      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>331</v>
+      </c>
+      <c r="X43" t="s">
+        <v>332</v>
+      </c>
       <c r="Y43" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>54128</v>
       </c>
-      <c r="B44" t="n">
-        <v>192417</v>
-      </c>
-      <c r="C44" t="s">
-        <v>381</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="J44" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="K44" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="L44" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4687,7 +4940,9 @@
       <c r="Q44" t="n">
         <v>5</v>
       </c>
-      <c r="R44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
       <c r="S44" t="n">
         <v>5</v>
       </c>
@@ -4701,63 +4956,59 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>54128</v>
       </c>
-      <c r="B45" t="n">
-        <v>192418</v>
-      </c>
-      <c r="C45" t="s">
-        <v>388</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="J45" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="K45" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="L45" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="O45" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -4772,54 +5023,50 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>54128</v>
       </c>
-      <c r="B46" t="n">
-        <v>111388</v>
-      </c>
-      <c r="C46" t="s">
-        <v>396</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="J46" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="K46" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="L46" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="O46" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -4828,10 +5075,10 @@
         <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
@@ -4843,7 +5090,2336 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>354</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>355</v>
+      </c>
+      <c r="J47" t="s">
+        <v>356</v>
+      </c>
+      <c r="K47" t="s">
+        <v>357</v>
+      </c>
+      <c r="L47" t="s">
+        <v>358</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>359</v>
+      </c>
+      <c r="O47" t="s">
+        <v>80</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>360</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>361</v>
+      </c>
+      <c r="J48" t="s">
+        <v>362</v>
+      </c>
+      <c r="K48" t="s">
+        <v>363</v>
+      </c>
+      <c r="L48" t="s">
+        <v>364</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>359</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>365</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>366</v>
+      </c>
+      <c r="J49" t="s">
+        <v>367</v>
+      </c>
+      <c r="K49" t="s">
+        <v>368</v>
+      </c>
+      <c r="L49" t="s">
+        <v>369</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>370</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>371</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>372</v>
+      </c>
+      <c r="J50" t="s">
+        <v>373</v>
+      </c>
+      <c r="K50" t="s">
+        <v>374</v>
+      </c>
+      <c r="L50" t="s">
+        <v>375</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>376</v>
+      </c>
+      <c r="O50" t="s">
+        <v>80</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>377</v>
+      </c>
+      <c r="X50" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>380</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>381</v>
+      </c>
+      <c r="J51" t="s">
+        <v>382</v>
+      </c>
+      <c r="K51" t="s">
+        <v>383</v>
+      </c>
+      <c r="L51" t="s">
+        <v>384</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>386</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>387</v>
+      </c>
+      <c r="J52" t="s">
+        <v>388</v>
+      </c>
+      <c r="K52" t="s">
+        <v>389</v>
+      </c>
+      <c r="L52" t="s">
+        <v>390</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>391</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>392</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>393</v>
+      </c>
+      <c r="J53" t="s">
+        <v>394</v>
+      </c>
+      <c r="K53" t="s">
+        <v>395</v>
+      </c>
+      <c r="L53" t="s">
+        <v>396</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>397</v>
+      </c>
+      <c r="O53" t="s">
+        <v>122</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>398</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>399</v>
+      </c>
+      <c r="J54" t="s">
+        <v>400</v>
+      </c>
+      <c r="K54" t="s">
+        <v>401</v>
+      </c>
+      <c r="L54" t="s">
         <v>402</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>397</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>404</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>405</v>
+      </c>
+      <c r="J55" t="s">
+        <v>406</v>
+      </c>
+      <c r="K55" t="s">
+        <v>407</v>
+      </c>
+      <c r="L55" t="s">
+        <v>408</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>409</v>
+      </c>
+      <c r="O55" t="s">
+        <v>80</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>410</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>411</v>
+      </c>
+      <c r="J56" t="s">
+        <v>412</v>
+      </c>
+      <c r="K56" t="s">
+        <v>413</v>
+      </c>
+      <c r="L56" t="s">
+        <v>414</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>415</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>416</v>
+      </c>
+      <c r="J57" t="s">
+        <v>417</v>
+      </c>
+      <c r="K57" t="s">
+        <v>418</v>
+      </c>
+      <c r="L57" t="s">
+        <v>419</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>420</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>421</v>
+      </c>
+      <c r="X57" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>424</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>425</v>
+      </c>
+      <c r="J58" t="s">
+        <v>426</v>
+      </c>
+      <c r="K58" t="s">
+        <v>427</v>
+      </c>
+      <c r="L58" t="s">
+        <v>428</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>429</v>
+      </c>
+      <c r="X58" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>432</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>433</v>
+      </c>
+      <c r="J59" t="s">
+        <v>434</v>
+      </c>
+      <c r="K59" t="s">
+        <v>435</v>
+      </c>
+      <c r="L59" t="s">
+        <v>436</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>437</v>
+      </c>
+      <c r="O59" t="s">
+        <v>80</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>438</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>439</v>
+      </c>
+      <c r="J60" t="s">
+        <v>440</v>
+      </c>
+      <c r="K60" t="s">
+        <v>441</v>
+      </c>
+      <c r="L60" t="s">
+        <v>442</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>443</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>444</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>445</v>
+      </c>
+      <c r="J61" t="s">
+        <v>446</v>
+      </c>
+      <c r="K61" t="s">
+        <v>447</v>
+      </c>
+      <c r="L61" t="s">
+        <v>448</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>449</v>
+      </c>
+      <c r="O61" t="s">
+        <v>80</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>450</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>451</v>
+      </c>
+      <c r="J62" t="s">
+        <v>452</v>
+      </c>
+      <c r="K62" t="s">
+        <v>453</v>
+      </c>
+      <c r="L62" t="s">
+        <v>454</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>449</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>455</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>456</v>
+      </c>
+      <c r="J63" t="s">
+        <v>457</v>
+      </c>
+      <c r="K63" t="s">
+        <v>458</v>
+      </c>
+      <c r="L63" t="s">
+        <v>459</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>449</v>
+      </c>
+      <c r="O63" t="s">
+        <v>80</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>461</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>462</v>
+      </c>
+      <c r="J64" t="s">
+        <v>463</v>
+      </c>
+      <c r="K64" t="s">
+        <v>464</v>
+      </c>
+      <c r="L64" t="s">
+        <v>465</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>466</v>
+      </c>
+      <c r="O64" t="s">
+        <v>80</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>467</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>468</v>
+      </c>
+      <c r="J65" t="s">
+        <v>469</v>
+      </c>
+      <c r="K65" t="s">
+        <v>470</v>
+      </c>
+      <c r="L65" t="s">
+        <v>471</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>472</v>
+      </c>
+      <c r="O65" t="s">
+        <v>80</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>473</v>
+      </c>
+      <c r="X65" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>476</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>477</v>
+      </c>
+      <c r="J66" t="s">
+        <v>478</v>
+      </c>
+      <c r="K66" t="s">
+        <v>479</v>
+      </c>
+      <c r="L66" t="s">
+        <v>480</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>481</v>
+      </c>
+      <c r="O66" t="s">
+        <v>122</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>483</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>484</v>
+      </c>
+      <c r="J67" t="s">
+        <v>485</v>
+      </c>
+      <c r="K67" t="s">
+        <v>486</v>
+      </c>
+      <c r="L67" t="s">
+        <v>487</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>488</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>489</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>490</v>
+      </c>
+      <c r="J68" t="s">
+        <v>491</v>
+      </c>
+      <c r="K68" t="s">
+        <v>492</v>
+      </c>
+      <c r="L68" t="s">
+        <v>493</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>494</v>
+      </c>
+      <c r="O68" t="s">
+        <v>80</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>496</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>497</v>
+      </c>
+      <c r="J69" t="s">
+        <v>498</v>
+      </c>
+      <c r="K69" t="s">
+        <v>499</v>
+      </c>
+      <c r="L69" t="s">
+        <v>500</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>494</v>
+      </c>
+      <c r="O69" t="s">
+        <v>80</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>502</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>503</v>
+      </c>
+      <c r="J70" t="s">
+        <v>504</v>
+      </c>
+      <c r="K70" t="s">
+        <v>505</v>
+      </c>
+      <c r="L70" t="s">
+        <v>506</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>507</v>
+      </c>
+      <c r="O70" t="s">
+        <v>237</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>508</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>509</v>
+      </c>
+      <c r="J71" t="s">
+        <v>510</v>
+      </c>
+      <c r="K71" t="s">
+        <v>511</v>
+      </c>
+      <c r="L71" t="s">
+        <v>512</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>513</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>515</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>516</v>
+      </c>
+      <c r="J72" t="s">
+        <v>517</v>
+      </c>
+      <c r="K72" t="s">
+        <v>518</v>
+      </c>
+      <c r="L72" t="s">
+        <v>519</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>513</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>521</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>522</v>
+      </c>
+      <c r="J73" t="s">
+        <v>523</v>
+      </c>
+      <c r="K73" t="s">
+        <v>524</v>
+      </c>
+      <c r="L73" t="s">
+        <v>525</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>513</v>
+      </c>
+      <c r="O73" t="s">
+        <v>61</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>527</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>528</v>
+      </c>
+      <c r="J74" t="s">
+        <v>529</v>
+      </c>
+      <c r="K74" t="s">
+        <v>530</v>
+      </c>
+      <c r="L74" t="s">
+        <v>531</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>532</v>
+      </c>
+      <c r="O74" t="s">
+        <v>80</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>534</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>535</v>
+      </c>
+      <c r="J75" t="s">
+        <v>536</v>
+      </c>
+      <c r="K75" t="s">
+        <v>537</v>
+      </c>
+      <c r="L75" t="s">
+        <v>538</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>539</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>540</v>
+      </c>
+      <c r="J76" t="s">
+        <v>541</v>
+      </c>
+      <c r="K76" t="s">
+        <v>542</v>
+      </c>
+      <c r="L76" t="s">
+        <v>543</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>544</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>545</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>546</v>
+      </c>
+      <c r="J77" t="s">
+        <v>547</v>
+      </c>
+      <c r="K77" t="s">
+        <v>548</v>
+      </c>
+      <c r="L77" t="s">
+        <v>549</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>544</v>
+      </c>
+      <c r="O77" t="s">
+        <v>80</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>550</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>551</v>
+      </c>
+      <c r="J78" t="s">
+        <v>552</v>
+      </c>
+      <c r="K78" t="s">
+        <v>553</v>
+      </c>
+      <c r="L78" t="s">
+        <v>554</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>555</v>
+      </c>
+      <c r="O78" t="s">
+        <v>80</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>556</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>557</v>
+      </c>
+      <c r="J79" t="s">
+        <v>558</v>
+      </c>
+      <c r="K79" t="s">
+        <v>559</v>
+      </c>
+      <c r="L79" t="s">
+        <v>560</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>561</v>
+      </c>
+      <c r="O79" t="s">
+        <v>61</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>563</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>564</v>
+      </c>
+      <c r="J80" t="s">
+        <v>565</v>
+      </c>
+      <c r="K80" t="s">
+        <v>566</v>
+      </c>
+      <c r="L80" t="s">
+        <v>567</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>561</v>
+      </c>
+      <c r="O80" t="s">
+        <v>80</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>54128</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>569</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>570</v>
+      </c>
+      <c r="J81" t="s">
+        <v>571</v>
+      </c>
+      <c r="K81" t="s">
+        <v>572</v>
+      </c>
+      <c r="L81" t="s">
+        <v>573</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>574</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>575</v>
       </c>
     </row>
   </sheetData>
